--- a/OPM经济数值/赛季通行证.xlsx
+++ b/OPM经济数值/赛季通行证.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuhaihua\Desktop\OPM数值\OPM经济数值\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD4110D-337A-402B-BB37-F96615F35E0B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E889319A-C41C-4509-9105-048110BB7145}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="225">
   <si>
     <t>ID</t>
   </si>
@@ -661,25 +661,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>求和</t>
-  </si>
-  <si>
-    <t>求和</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>平均值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇总</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>计数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>黄金头像框</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -705,11 +686,8 @@
   </si>
   <si>
     <t>头像框</t>
-    <rPh sb="5" eb="6">
-      <t>d</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>sui'pian</t>
+    <rPh sb="0" eb="3">
+      <t>dsui'pian</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1000,6 +978,33 @@
   </si>
   <si>
     <t>EventPassReward</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机4星饰品</t>
+    <rPh sb="0" eb="1">
+      <t>qi'yu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lian'xu'quan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验寿喜锅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验寿喜锅</t>
+    <rPh sb="0" eb="1">
+      <t>sui'ji</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'pin</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1369,6 +1374,16 @@
             <v>2</v>
           </cell>
         </row>
+        <row r="11">
+          <cell r="B11"/>
+          <cell r="D11"/>
+          <cell r="E11"/>
+        </row>
+        <row r="12">
+          <cell r="B12"/>
+          <cell r="D12"/>
+          <cell r="E12"/>
+        </row>
         <row r="13">
           <cell r="B13" t="str">
             <v>随机1星饰品</v>
@@ -1487,10 +1502,16 @@
             <v>200</v>
           </cell>
         </row>
+        <row r="21">
+          <cell r="B21"/>
+          <cell r="D21"/>
+          <cell r="E21"/>
+        </row>
         <row r="22">
           <cell r="B22" t="str">
             <v>R</v>
           </cell>
+          <cell r="D22"/>
           <cell r="E22">
             <v>300</v>
           </cell>
@@ -1502,6 +1523,7 @@
           <cell r="B23" t="str">
             <v>SR</v>
           </cell>
+          <cell r="D23"/>
           <cell r="E23">
             <v>800</v>
           </cell>
@@ -1513,6 +1535,7 @@
           <cell r="B24" t="str">
             <v>SSR</v>
           </cell>
+          <cell r="D24"/>
           <cell r="E24">
             <v>5000</v>
           </cell>
@@ -1524,6 +1547,7 @@
           <cell r="B25" t="str">
             <v>R碎片</v>
           </cell>
+          <cell r="D25"/>
           <cell r="E25">
             <v>10</v>
           </cell>
@@ -1535,6 +1559,7 @@
           <cell r="B26" t="str">
             <v>SR碎片</v>
           </cell>
+          <cell r="D26"/>
           <cell r="E26">
             <v>20</v>
           </cell>
@@ -1546,6 +1571,7 @@
           <cell r="B27" t="str">
             <v>SSR碎片</v>
           </cell>
+          <cell r="D27"/>
           <cell r="E27">
             <v>100</v>
           </cell>
@@ -1567,6 +1593,21 @@
             <v>100</v>
           </cell>
         </row>
+        <row r="29">
+          <cell r="B29"/>
+          <cell r="D29"/>
+          <cell r="E29"/>
+        </row>
+        <row r="30">
+          <cell r="B30"/>
+          <cell r="D30"/>
+          <cell r="E30"/>
+        </row>
+        <row r="31">
+          <cell r="B31"/>
+          <cell r="D31"/>
+          <cell r="E31"/>
+        </row>
         <row r="32">
           <cell r="B32" t="str">
             <v>名称</v>
@@ -1669,6 +1710,7 @@
           <cell r="D39" t="str">
             <v>prop,201</v>
           </cell>
+          <cell r="E39"/>
         </row>
         <row r="40">
           <cell r="B40" t="str">
@@ -2813,6 +2855,7 @@
           <cell r="D134" t="str">
             <v>prop,610</v>
           </cell>
+          <cell r="E134"/>
         </row>
         <row r="135">
           <cell r="B135" t="str">
@@ -2821,26 +2864,35 @@
           <cell r="D135" t="str">
             <v>prop,611</v>
           </cell>
+          <cell r="E135"/>
         </row>
         <row r="136">
+          <cell r="B136"/>
           <cell r="D136" t="str">
             <v>prop,612</v>
           </cell>
+          <cell r="E136"/>
         </row>
         <row r="137">
+          <cell r="B137"/>
           <cell r="D137" t="str">
             <v>prop,613</v>
           </cell>
+          <cell r="E137"/>
         </row>
         <row r="138">
+          <cell r="B138"/>
           <cell r="D138" t="str">
             <v>prop,614</v>
           </cell>
+          <cell r="E138"/>
         </row>
         <row r="139">
+          <cell r="B139"/>
           <cell r="D139" t="str">
             <v>prop,615</v>
           </cell>
+          <cell r="E139"/>
         </row>
         <row r="140">
           <cell r="B140" t="str">
@@ -2849,6 +2901,7 @@
           <cell r="D140" t="str">
             <v>prop,616</v>
           </cell>
+          <cell r="E140"/>
         </row>
         <row r="141">
           <cell r="B141" t="str">
@@ -2857,6 +2910,7 @@
           <cell r="D141" t="str">
             <v>prop,617</v>
           </cell>
+          <cell r="E141"/>
         </row>
         <row r="142">
           <cell r="B142" t="str">
@@ -2865,6 +2919,7 @@
           <cell r="D142" t="str">
             <v>prop,618</v>
           </cell>
+          <cell r="E142"/>
         </row>
         <row r="143">
           <cell r="B143" t="str">
@@ -2873,6 +2928,7 @@
           <cell r="D143" t="str">
             <v>prop,619</v>
           </cell>
+          <cell r="E143"/>
         </row>
         <row r="144">
           <cell r="B144" t="str">
@@ -2881,6 +2937,7 @@
           <cell r="D144" t="str">
             <v>prop,620</v>
           </cell>
+          <cell r="E144"/>
         </row>
         <row r="145">
           <cell r="B145" t="str">
@@ -2889,6 +2946,7 @@
           <cell r="D145" t="str">
             <v>prop,621</v>
           </cell>
+          <cell r="E145"/>
         </row>
         <row r="146">
           <cell r="B146" t="str">
@@ -2897,6 +2955,7 @@
           <cell r="D146" t="str">
             <v>prop,622</v>
           </cell>
+          <cell r="E146"/>
         </row>
         <row r="147">
           <cell r="B147" t="str">
@@ -2905,6 +2964,7 @@
           <cell r="D147" t="str">
             <v>prop,623</v>
           </cell>
+          <cell r="E147"/>
         </row>
         <row r="148">
           <cell r="B148" t="str">
@@ -2913,6 +2973,7 @@
           <cell r="D148" t="str">
             <v>prop,624</v>
           </cell>
+          <cell r="E148"/>
         </row>
         <row r="149">
           <cell r="B149" t="str">
@@ -2921,6 +2982,7 @@
           <cell r="D149" t="str">
             <v>prop,601</v>
           </cell>
+          <cell r="E149"/>
         </row>
         <row r="150">
           <cell r="B150" t="str">
@@ -2929,6 +2991,7 @@
           <cell r="D150" t="str">
             <v>prop,602</v>
           </cell>
+          <cell r="E150"/>
         </row>
         <row r="151">
           <cell r="B151" t="str">
@@ -2937,6 +3000,7 @@
           <cell r="D151" t="str">
             <v>prop,603</v>
           </cell>
+          <cell r="E151"/>
         </row>
         <row r="152">
           <cell r="B152" t="str">
@@ -2945,6 +3009,7 @@
           <cell r="D152" t="str">
             <v>prop,604</v>
           </cell>
+          <cell r="E152"/>
         </row>
         <row r="153">
           <cell r="B153" t="str">
@@ -2953,6 +3018,7 @@
           <cell r="D153" t="str">
             <v>prop,605</v>
           </cell>
+          <cell r="E153"/>
         </row>
         <row r="154">
           <cell r="B154" t="str">
@@ -2961,6 +3027,7 @@
           <cell r="D154" t="str">
             <v>prop,606</v>
           </cell>
+          <cell r="E154"/>
         </row>
         <row r="155">
           <cell r="B155" t="str">
@@ -2969,6 +3036,7 @@
           <cell r="D155" t="str">
             <v>prop,607</v>
           </cell>
+          <cell r="E155"/>
         </row>
         <row r="156">
           <cell r="B156" t="str">
@@ -2977,6 +3045,7 @@
           <cell r="D156" t="str">
             <v>prop,608</v>
           </cell>
+          <cell r="E156"/>
         </row>
         <row r="157">
           <cell r="B157" t="str">
@@ -3350,9 +3419,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3623,7 +3692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U90"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:H38"/>
     </sheetView>
   </sheetViews>
@@ -3647,10 +3716,10 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="31" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -3685,13 +3754,13 @@
         <v>9</v>
       </c>
       <c r="M2" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="N2" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="N2" s="29" t="s">
-        <v>184</v>
-      </c>
       <c r="O2" s="29" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="P2" s="12">
         <v>30</v>
@@ -3705,7 +3774,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D3" s="28">
         <v>43</v>
@@ -3774,7 +3843,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D4" s="28">
         <v>22</v>
@@ -3842,7 +3911,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D5" s="28">
         <v>45</v>
@@ -3910,7 +3979,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D6" s="28">
         <v>52</v>
@@ -3978,7 +4047,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D7" s="28">
         <v>58</v>
@@ -4046,7 +4115,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D8" s="28">
         <v>4</v>
@@ -4108,7 +4177,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D9" s="28">
         <v>46</v>
@@ -4171,7 +4240,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D10" s="28">
         <v>50</v>
@@ -4233,7 +4302,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D11" s="28">
         <v>45</v>
@@ -4295,7 +4364,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D12" s="28">
         <v>53</v>
@@ -4357,7 +4426,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D13" s="28">
         <v>55</v>
@@ -4419,7 +4488,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D14" s="28">
         <v>56</v>
@@ -4481,7 +4550,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D15" s="28">
         <v>59</v>
@@ -4544,7 +4613,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D16" s="28">
         <v>14</v>
@@ -4632,7 +4701,7 @@
         <v>15</v>
       </c>
       <c r="K17" s="32" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="L17" s="14">
         <v>40</v>
@@ -4668,7 +4737,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D18" s="28">
         <v>51</v>
@@ -4730,7 +4799,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D19" s="28">
         <v>10</v>
@@ -4792,7 +4861,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D20" s="28">
         <v>4</v>
@@ -4854,7 +4923,7 @@
         <v>13</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D21" s="28">
         <v>76</v>
@@ -4880,7 +4949,7 @@
         <v>19</v>
       </c>
       <c r="K21" s="32" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="L21" s="14">
         <v>80</v>
@@ -4916,7 +4985,7 @@
         <v>13</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D22" s="28">
         <v>11</v>
@@ -4978,7 +5047,7 @@
         <v>13</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D23" s="28">
         <v>45</v>
@@ -5040,7 +5109,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D24" s="28">
         <v>54</v>
@@ -5102,7 +5171,7 @@
         <v>13</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D25" s="28">
         <v>55</v>
@@ -5164,7 +5233,7 @@
         <v>13</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D26" s="28">
         <v>12</v>
@@ -5226,7 +5295,7 @@
         <v>13</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D27" s="28">
         <v>48</v>
@@ -5289,7 +5358,7 @@
         <v>13</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D28" s="28">
         <v>13</v>
@@ -5351,7 +5420,7 @@
         <v>13</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D29" s="28">
         <v>45</v>
@@ -5377,7 +5446,7 @@
         <v>27</v>
       </c>
       <c r="K29" s="32" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="L29" s="14">
         <v>40</v>
@@ -5413,7 +5482,7 @@
         <v>13</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D30" s="28">
         <v>51</v>
@@ -5475,7 +5544,7 @@
         <v>13</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D31" s="28">
         <v>10</v>
@@ -5537,7 +5606,7 @@
         <v>13</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D32" s="28">
         <v>16</v>
@@ -5599,7 +5668,7 @@
         <v>13</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D33" s="28">
         <v>49</v>
@@ -5661,7 +5730,7 @@
         <v>13</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D34" s="28">
         <v>15</v>
@@ -5723,7 +5792,7 @@
         <v>13</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D35" s="28">
         <v>45</v>
@@ -5785,7 +5854,7 @@
         <v>13</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D36" s="28">
         <v>60</v>
@@ -5847,7 +5916,7 @@
         <v>13</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D37" s="28">
         <v>10</v>
@@ -5909,7 +5978,7 @@
         <v>13</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D38" s="28">
         <v>17</v>
@@ -6337,10 +6406,10 @@
         <v>0</v>
       </c>
       <c r="O55" s="12" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="P55" s="12" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="Q55" s="12" t="str">
         <f>IF(AND(D55=L55,M55=E55),"",1)</f>
@@ -8259,7 +8328,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="19" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -8314,10 +8383,10 @@
         <v>0</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="I3" s="17">
         <v>1</v>
@@ -8349,10 +8418,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="I4" s="17">
         <v>1</v>
@@ -8384,10 +8453,10 @@
         <v>0</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="I5" s="17">
         <v>1</v>
@@ -8419,10 +8488,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="I6" s="17">
         <v>2</v>
@@ -8454,10 +8523,10 @@
         <v>0</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="I7" s="17">
         <v>2</v>
@@ -8489,10 +8558,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="I8" s="17">
         <v>3</v>
@@ -8524,10 +8593,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="I9" s="17">
         <v>3</v>
@@ -8559,10 +8628,10 @@
         <v>0</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="I10" s="17">
         <v>3</v>
@@ -8594,10 +8663,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="I11" s="17">
         <v>1</v>
@@ -8629,10 +8698,10 @@
         <v>0</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="I12" s="17">
         <v>1</v>
@@ -8664,10 +8733,10 @@
         <v>0</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="I13" s="17">
         <v>1</v>
@@ -8699,10 +8768,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="I14" s="17">
         <v>2</v>
@@ -8734,10 +8803,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="I15" s="17">
         <v>2</v>
@@ -8769,10 +8838,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="I16" s="17">
         <v>3</v>
@@ -8804,10 +8873,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="I17" s="17">
         <v>3</v>
@@ -8839,10 +8908,10 @@
         <v>0</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="I18" s="17">
         <v>3</v>
@@ -8865,7 +8934,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -8876,7 +8945,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="19" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -8926,7 +8995,7 @@
         <v>1110203</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -8942,12 +9011,14 @@
       <c r="D4" s="17">
         <v>2</v>
       </c>
-      <c r="E4" s="17"/>
+      <c r="E4" s="17" t="s">
+        <v>172</v>
+      </c>
       <c r="F4" s="20">
         <v>1110204</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -8970,7 +9041,7 @@
         <v>1110205</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9010,13 +9081,13 @@
         <v>2</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F7" s="20">
         <v>1110204</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9039,7 +9110,7 @@
         <v>1110205</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -9060,7 +9131,7 @@
         <v>1110206</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -9077,13 +9148,13 @@
         <v>5</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F10" s="20">
         <v>1110207</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -9120,7 +9191,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -9156,7 +9227,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="22">
-        <v>80</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9173,7 +9244,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="22">
-        <v>800</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -9190,7 +9261,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="22">
-        <v>2000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9207,7 +9278,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="22">
-        <v>2400</v>
+        <v>6000</v>
       </c>
     </row>
   </sheetData>
@@ -9221,13 +9292,14 @@
   <dimension ref="A1:AW192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="4" customWidth="1"/>
-    <col min="2" max="4" width="6.375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="20.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.375" style="4" customWidth="1"/>
     <col min="5" max="5" width="6.375" style="3" customWidth="1"/>
     <col min="6" max="6" width="10.875" style="3"/>
     <col min="7" max="7" width="4" style="4" bestFit="1" customWidth="1"/>
@@ -9263,7 +9335,7 @@
   <sheetData>
     <row r="1" spans="1:49">
       <c r="A1" s="34" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:49">
@@ -9364,31 +9436,31 @@
         <v>50</v>
       </c>
       <c r="M3" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H3,$V$16:$AR$20,G3*3+2,0),"")</f>
+        <f t="shared" ref="M3:M34" si="0">IFERROR(VLOOKUP(H3,$V$16:$AR$20,G3*3+2,0),"")</f>
         <v/>
       </c>
       <c r="N3" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H3,$V$10:$AR$14,G3*3+2,0),"")</f>
+        <f t="shared" ref="N3:N34" si="1">IFERROR(VLOOKUP(H3,$V$10:$AR$14,G3*3+2,0),"")</f>
         <v/>
       </c>
       <c r="O3" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H3,$V$46:$AR$55,G3*3+2,0),"")</f>
+        <f t="shared" ref="O3:O34" si="2">IFERROR(VLOOKUP(H3,$V$46:$AR$55,G3*3+2,0),"")</f>
         <v>stam,12</v>
       </c>
       <c r="P3" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H3,$V$35:$AR$44,G3*3+2,0),"")</f>
+        <f t="shared" ref="P3:P34" si="3">IFERROR(VLOOKUP(H3,$V$35:$AR$44,G3*3+2,0),"")</f>
         <v>stam,12</v>
       </c>
       <c r="Q3" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H3,$V$80:$AR$89,G3*3+2,0),"")</f>
+        <f t="shared" ref="Q3:Q34" si="4">IFERROR(VLOOKUP(H3,$V$80:$AR$89,G3*3+2,0),"")</f>
         <v/>
       </c>
       <c r="R3" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H3,$V$69:$AR$78,G3*3+2,0),"")</f>
+        <f t="shared" ref="R3:R34" si="5">IFERROR(VLOOKUP(H3,$V$69:$AR$78,G3*3+2,0),"")</f>
         <v/>
       </c>
       <c r="S3" s="3">
-        <f t="shared" ref="S3:S34" si="0">IF(H3=10,1,0)</f>
+        <f t="shared" ref="S3:S34" si="6">IF(H3=10,1,0)</f>
         <v>0</v>
       </c>
       <c r="V3" s="3" t="s">
@@ -9489,11 +9561,11 @@
         <v>0.02</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" ref="G4:G67" si="1">INT((I4-1)/10)</f>
+        <f t="shared" ref="G4:G67" si="7">INT((I4-1)/10)</f>
         <v>0</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" ref="H4:H67" si="2">IF(MOD(I4,10)=0,10,MOD(I4,10))</f>
+        <f t="shared" ref="H4:H67" si="8">IF(MOD(I4,10)=0,10,MOD(I4,10))</f>
         <v>2</v>
       </c>
       <c r="I4" s="6">
@@ -9509,31 +9581,31 @@
         <v>50</v>
       </c>
       <c r="M4" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H4,$V$16:$AR$20,G4*3+2,0),"")</f>
+        <f t="shared" si="0"/>
         <v>coin,5000</v>
       </c>
       <c r="N4" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H4,$V$10:$AR$14,G4*3+2,0),"")</f>
+        <f t="shared" si="1"/>
         <v>coin,5000</v>
       </c>
       <c r="O4" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H4,$V$46:$AR$55,G4*3+2,0),"")</f>
+        <f t="shared" si="2"/>
         <v>coin,5000</v>
       </c>
       <c r="P4" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H4,$V$35:$AR$44,G4*3+2,0),"")</f>
+        <f t="shared" si="3"/>
         <v>coin,5000</v>
       </c>
       <c r="Q4" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H4,$V$80:$AR$89,G4*3+2,0),"")</f>
+        <f t="shared" si="4"/>
         <v>prop,403,2</v>
       </c>
       <c r="R4" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H4,$V$69:$AR$78,G4*3+2,0),"")</f>
+        <f t="shared" si="5"/>
         <v>prop,403,2</v>
       </c>
       <c r="S4" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V4" s="3">
@@ -9620,10 +9692,10 @@
         <v>100</v>
       </c>
       <c r="AV4" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AW4" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:49">
@@ -9647,11 +9719,11 @@
         <v>3.125</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="I5" s="6">
@@ -9667,31 +9739,31 @@
         <v>50</v>
       </c>
       <c r="M5" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H5,$V$16:$AR$20,G5*3+2,0),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N5" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H5,$V$10:$AR$14,G5*3+2,0),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O5" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H5,$V$46:$AR$55,G5*3+2,0),"")</f>
+        <f t="shared" si="2"/>
         <v>prop,105,1</v>
       </c>
       <c r="P5" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H5,$V$35:$AR$44,G5*3+2,0),"")</f>
+        <f t="shared" si="3"/>
         <v>prop,105,1</v>
       </c>
       <c r="Q5" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H5,$V$80:$AR$89,G5*3+2,0),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R5" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H5,$V$69:$AR$78,G5*3+2,0),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U5" s="3" t="s">
@@ -9711,7 +9783,7 @@
         <v>120</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AA5" s="4">
         <v>2</v>
@@ -9731,7 +9803,7 @@
         <v>120</v>
       </c>
       <c r="AF5" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AG5" s="4">
         <v>2</v>
@@ -9751,7 +9823,7 @@
         <v>120</v>
       </c>
       <c r="AL5" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AM5" s="4">
         <v>2</v>
@@ -9771,7 +9843,7 @@
         <v>120</v>
       </c>
       <c r="AR5" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AS5" s="4">
         <v>2</v>
@@ -9781,10 +9853,10 @@
         <v>100</v>
       </c>
       <c r="AV5" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AW5" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:49">
@@ -9809,11 +9881,11 @@
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H6" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="I6" s="6">
@@ -9829,31 +9901,31 @@
         <v>50</v>
       </c>
       <c r="M6" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H6,$V$16:$AR$20,G6*3+2,0),"")</f>
+        <f t="shared" si="0"/>
         <v>prop,801,8</v>
       </c>
       <c r="N6" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H6,$V$10:$AR$14,G6*3+2,0),"")</f>
+        <f t="shared" si="1"/>
         <v>prop,801,8</v>
       </c>
       <c r="O6" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H6,$V$46:$AR$55,G6*3+2,0),"")</f>
+        <f t="shared" si="2"/>
         <v>stage_token,500</v>
       </c>
       <c r="P6" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H6,$V$35:$AR$44,G6*3+2,0),"")</f>
+        <f t="shared" si="3"/>
         <v>stage_token,500</v>
       </c>
       <c r="Q6" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H6,$V$80:$AR$89,G6*3+2,0),"")</f>
+        <f t="shared" si="4"/>
         <v>prop,805,2</v>
       </c>
       <c r="R6" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H6,$V$69:$AR$78,G6*3+2,0),"")</f>
+        <f t="shared" si="5"/>
         <v>prop,805,2</v>
       </c>
       <c r="S6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U6" s="3" t="s">
@@ -9965,11 +10037,11 @@
         <v>0.96</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="I7" s="6">
@@ -9985,31 +10057,31 @@
         <v>50</v>
       </c>
       <c r="M7" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H7,$V$16:$AR$20,G7*3+2,0),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N7" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H7,$V$10:$AR$14,G7*3+2,0),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O7" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H7,$V$46:$AR$55,G7*3+2,0),"")</f>
+        <f t="shared" si="2"/>
         <v>item,103,1</v>
       </c>
       <c r="P7" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H7,$V$35:$AR$44,G7*3+2,0),"")</f>
+        <f t="shared" si="3"/>
         <v>pack,303,1</v>
       </c>
       <c r="Q7" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H7,$V$80:$AR$89,G7*3+2,0),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R7" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H7,$V$69:$AR$78,G7*3+2,0),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U7" s="3" t="s">
@@ -10121,11 +10193,11 @@
         <v>0.125</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="I8" s="6">
@@ -10141,38 +10213,38 @@
         <v>50</v>
       </c>
       <c r="M8" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H8,$V$16:$AR$20,G8*3+2,0),"")</f>
+        <f t="shared" si="0"/>
         <v>prop,105,2</v>
       </c>
       <c r="N8" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H8,$V$10:$AR$14,G8*3+2,0),"")</f>
+        <f t="shared" si="1"/>
         <v>prop,105,2</v>
       </c>
       <c r="O8" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H8,$V$46:$AR$55,G8*3+2,0),"")</f>
+        <f t="shared" si="2"/>
         <v>prop,105,1</v>
       </c>
       <c r="P8" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H8,$V$35:$AR$44,G8*3+2,0),"")</f>
+        <f t="shared" si="3"/>
         <v>prop,105,1</v>
       </c>
       <c r="Q8" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H8,$V$80:$AR$89,G8*3+2,0),"")</f>
+        <f t="shared" si="4"/>
         <v>cash,100</v>
       </c>
       <c r="R8" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H8,$V$69:$AR$78,G8*3+2,0),"")</f>
+        <f t="shared" si="5"/>
         <v>cash,100</v>
       </c>
       <c r="S8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V8" s="3">
         <v>10</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="X8" s="4">
         <v>1</v>
@@ -10192,7 +10264,7 @@
         <v>125</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AD8" s="4">
         <v>2</v>
@@ -10202,14 +10274,14 @@
         <v>100</v>
       </c>
       <c r="AF8" s="3" t="s">
-        <v>159</v>
+        <v>222</v>
       </c>
       <c r="AG8" s="4">
         <v>1</v>
       </c>
       <c r="AH8" s="4">
         <f>INT(VLOOKUP(AF8,$A:$E,5,0)*AG8)</f>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="AI8" s="3" t="s">
         <v>140</v>
@@ -10222,17 +10294,17 @@
         <v>125</v>
       </c>
       <c r="AL8" s="3" t="s">
-        <v>158</v>
+        <v>223</v>
       </c>
       <c r="AM8" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AN8" s="4">
         <f>INT(VLOOKUP(AL8,$A:$E,5,0)*AM8)</f>
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AO8" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AP8" s="4">
         <v>1</v>
@@ -10274,11 +10346,11 @@
         <v>0.15000000000000002</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I9" s="6">
@@ -10294,35 +10366,35 @@
         <v>50</v>
       </c>
       <c r="M9" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H9,$V$16:$AR$20,G9*3+2,0),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N9" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H9,$V$10:$AR$14,G9*3+2,0),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O9" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H9,$V$46:$AR$55,G9*3+2,0),"")</f>
+        <f t="shared" si="2"/>
         <v>stam,12</v>
       </c>
       <c r="P9" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H9,$V$35:$AR$44,G9*3+2,0),"")</f>
+        <f t="shared" si="3"/>
         <v>stam,12</v>
       </c>
       <c r="Q9" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H9,$V$80:$AR$89,G9*3+2,0),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R9" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H9,$V$69:$AR$78,G9*3+2,0),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="Y9" s="4">
         <f>SUM(Y4:Y8)</f>
@@ -10338,7 +10410,7 @@
       </c>
       <c r="AH9" s="4">
         <f>SUM(AH4:AH8)</f>
-        <v>720</v>
+        <v>1020</v>
       </c>
       <c r="AK9" s="4">
         <f>SUM(AK4:AK8)</f>
@@ -10346,7 +10418,7 @@
       </c>
       <c r="AN9" s="4">
         <f>SUM(AN4:AN8)</f>
-        <v>570</v>
+        <v>600</v>
       </c>
       <c r="AQ9" s="4">
         <f>SUM(AQ4:AQ8)</f>
@@ -10358,7 +10430,7 @@
       </c>
       <c r="AU9" s="3">
         <f>SUM(W9:AT9)</f>
-        <v>4990</v>
+        <v>5320</v>
       </c>
     </row>
     <row r="10" spans="1:49">
@@ -10383,11 +10455,11 @@
         <v>1</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="I10" s="6">
@@ -10403,31 +10475,31 @@
         <v>50</v>
       </c>
       <c r="M10" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H10,$V$16:$AR$20,G10*3+2,0),"")</f>
+        <f t="shared" si="0"/>
         <v>prop,701,2</v>
       </c>
       <c r="N10" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H10,$V$10:$AR$14,G10*3+2,0),"")</f>
+        <f t="shared" si="1"/>
         <v>prop,701,2</v>
       </c>
       <c r="O10" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H10,$V$46:$AR$55,G10*3+2,0),"")</f>
+        <f t="shared" si="2"/>
         <v>coin,5000</v>
       </c>
       <c r="P10" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H10,$V$35:$AR$44,G10*3+2,0),"")</f>
+        <f t="shared" si="3"/>
         <v>coin,5000</v>
       </c>
       <c r="Q10" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H10,$V$80:$AR$89,G10*3+2,0),"")</f>
+        <f t="shared" si="4"/>
         <v>prop,801,10</v>
       </c>
       <c r="R10" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H10,$V$69:$AR$78,G10*3+2,0),"")</f>
+        <f t="shared" si="5"/>
         <v>prop,801,10</v>
       </c>
       <c r="S10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V10" s="3">
@@ -10487,11 +10559,11 @@
         <v>2</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I11" s="6">
@@ -10507,31 +10579,31 @@
         <v>50</v>
       </c>
       <c r="M11" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H11,$V$16:$AR$20,G11*3+2,0),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N11" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H11,$V$10:$AR$14,G11*3+2,0),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O11" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H11,$V$46:$AR$55,G11*3+2,0),"")</f>
+        <f t="shared" si="2"/>
         <v>item,103,1</v>
       </c>
       <c r="P11" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H11,$V$35:$AR$44,G11*3+2,0),"")</f>
+        <f t="shared" si="3"/>
         <v>pack,303,1</v>
       </c>
       <c r="Q11" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H11,$V$80:$AR$89,G11*3+2,0),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R11" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H11,$V$69:$AR$78,G11*3+2,0),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V11" s="3">
@@ -10592,11 +10664,11 @@
         <v>0</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="I12" s="6">
@@ -10612,31 +10684,31 @@
         <v>50</v>
       </c>
       <c r="M12" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H12,$V$16:$AR$20,G12*3+2,0),"")</f>
+        <f t="shared" si="0"/>
         <v>frame,17,1</v>
       </c>
       <c r="N12" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H12,$V$10:$AR$14,G12*3+2,0),"")</f>
+        <f t="shared" si="1"/>
         <v>frame,17,1</v>
       </c>
       <c r="O12" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H12,$V$46:$AR$55,G12*3+2,0),"")</f>
+        <f t="shared" si="2"/>
         <v>prop,540,5</v>
       </c>
       <c r="P12" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H12,$V$35:$AR$44,G12*3+2,0),"")</f>
+        <f t="shared" si="3"/>
         <v>prop,540,5</v>
       </c>
       <c r="Q12" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H12,$V$80:$AR$89,G12*3+2,0),"")</f>
+        <f t="shared" si="4"/>
         <v>item,104,1</v>
       </c>
       <c r="R12" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H12,$V$69:$AR$78,G12*3+2,0),"")</f>
+        <f t="shared" si="5"/>
         <v>pack,304,1</v>
       </c>
       <c r="S12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V12" s="3">
@@ -10697,11 +10769,11 @@
         <v>0</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="I13" s="6">
@@ -10717,31 +10789,31 @@
         <v>50</v>
       </c>
       <c r="M13" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H13,$V$16:$AR$20,G13*3+2,0),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N13" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H13,$V$10:$AR$14,G13*3+2,0),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O13" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H13,$V$46:$AR$55,G13*3+2,0),"")</f>
+        <f t="shared" si="2"/>
         <v>stam,12</v>
       </c>
       <c r="P13" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H13,$V$35:$AR$44,G13*3+2,0),"")</f>
+        <f t="shared" si="3"/>
         <v>stam,12</v>
       </c>
       <c r="Q13" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H13,$V$80:$AR$89,G13*3+2,0),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R13" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H13,$V$69:$AR$78,G13*3+2,0),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V13" s="3">
@@ -10802,11 +10874,11 @@
         <v>6</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="I14" s="6">
@@ -10822,31 +10894,31 @@
         <v>50</v>
       </c>
       <c r="M14" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H14,$V$16:$AR$20,G14*3+2,0),"")</f>
+        <f t="shared" si="0"/>
         <v>coin,5000</v>
       </c>
       <c r="N14" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H14,$V$10:$AR$14,G14*3+2,0),"")</f>
+        <f t="shared" si="1"/>
         <v>coin,5000</v>
       </c>
       <c r="O14" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H14,$V$46:$AR$55,G14*3+2,0),"")</f>
+        <f t="shared" si="2"/>
         <v>coin,5000</v>
       </c>
       <c r="P14" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H14,$V$35:$AR$44,G14*3+2,0),"")</f>
+        <f t="shared" si="3"/>
         <v>coin,5000</v>
       </c>
       <c r="Q14" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H14,$V$80:$AR$89,G14*3+2,0),"")</f>
+        <f t="shared" si="4"/>
         <v>prop,403,2</v>
       </c>
       <c r="R14" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H14,$V$69:$AR$78,G14*3+2,0),"")</f>
+        <f t="shared" si="5"/>
         <v>prop,403,2</v>
       </c>
       <c r="S14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V14" s="3">
@@ -10866,7 +10938,7 @@
       </c>
       <c r="AF14" s="3" t="str">
         <f>VLOOKUP(AF8,$A:$D,2,0)&amp;","&amp;AG8</f>
-        <v>prop,809,1</v>
+        <v>pack,304,1</v>
       </c>
       <c r="AI14" s="3" t="str">
         <f>VLOOKUP(AI8,$A:$D,2,0)&amp;","&amp;AJ8</f>
@@ -10874,7 +10946,7 @@
       </c>
       <c r="AL14" s="3" t="str">
         <f>VLOOKUP(AL8,$A:$D,2,0)&amp;","&amp;AM8</f>
-        <v>prop,805,3</v>
+        <v>prop,106,1</v>
       </c>
       <c r="AO14" s="3" t="str">
         <f>VLOOKUP(AO8,$A:$D,2,0)&amp;","&amp;AP8</f>
@@ -10907,11 +10979,11 @@
         <v>15</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="I15" s="6">
@@ -10927,31 +10999,31 @@
         <v>50</v>
       </c>
       <c r="M15" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H15,$V$16:$AR$20,G15*3+2,0),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N15" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H15,$V$10:$AR$14,G15*3+2,0),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O15" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H15,$V$46:$AR$55,G15*3+2,0),"")</f>
+        <f t="shared" si="2"/>
         <v>prop,105,1</v>
       </c>
       <c r="P15" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H15,$V$35:$AR$44,G15*3+2,0),"")</f>
+        <f t="shared" si="3"/>
         <v>prop,105,1</v>
       </c>
       <c r="Q15" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H15,$V$80:$AR$89,G15*3+2,0),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R15" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H15,$V$69:$AR$78,G15*3+2,0),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -10977,11 +11049,11 @@
         <v>50</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="I16" s="6">
@@ -10997,31 +11069,31 @@
         <v>50</v>
       </c>
       <c r="M16" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H16,$V$16:$AR$20,G16*3+2,0),"")</f>
+        <f t="shared" si="0"/>
         <v>prop,802,2</v>
       </c>
       <c r="N16" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H16,$V$10:$AR$14,G16*3+2,0),"")</f>
+        <f t="shared" si="1"/>
         <v>prop,802,2</v>
       </c>
       <c r="O16" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H16,$V$46:$AR$55,G16*3+2,0),"")</f>
+        <f t="shared" si="2"/>
         <v>stage_token,500</v>
       </c>
       <c r="P16" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H16,$V$35:$AR$44,G16*3+2,0),"")</f>
+        <f t="shared" si="3"/>
         <v>stage_token,500</v>
       </c>
       <c r="Q16" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H16,$V$80:$AR$89,G16*3+2,0),"")</f>
+        <f t="shared" si="4"/>
         <v>prop,805,2</v>
       </c>
       <c r="R16" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H16,$V$69:$AR$78,G16*3+2,0),"")</f>
+        <f t="shared" si="5"/>
         <v>prop,805,2</v>
       </c>
       <c r="S16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V16" s="3">
@@ -11082,11 +11154,11 @@
         <v>600</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="I17" s="6">
@@ -11102,31 +11174,31 @@
         <v>50</v>
       </c>
       <c r="M17" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H17,$V$16:$AR$20,G17*3+2,0),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N17" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H17,$V$10:$AR$14,G17*3+2,0),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O17" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H17,$V$46:$AR$55,G17*3+2,0),"")</f>
+        <f t="shared" si="2"/>
         <v>item,103,1</v>
       </c>
       <c r="P17" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H17,$V$35:$AR$44,G17*3+2,0),"")</f>
+        <f t="shared" si="3"/>
         <v>pack,303,1</v>
       </c>
       <c r="Q17" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H17,$V$80:$AR$89,G17*3+2,0),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R17" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H17,$V$69:$AR$78,G17*3+2,0),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V17" s="3">
@@ -11187,11 +11259,11 @@
         <v>4800</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="I18" s="6">
@@ -11207,31 +11279,31 @@
         <v>50</v>
       </c>
       <c r="M18" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H18,$V$16:$AR$20,G18*3+2,0),"")</f>
+        <f t="shared" si="0"/>
         <v>prop,105,2</v>
       </c>
       <c r="N18" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H18,$V$10:$AR$14,G18*3+2,0),"")</f>
+        <f t="shared" si="1"/>
         <v>prop,105,2</v>
       </c>
       <c r="O18" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H18,$V$46:$AR$55,G18*3+2,0),"")</f>
+        <f t="shared" si="2"/>
         <v>prop,105,1</v>
       </c>
       <c r="P18" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H18,$V$35:$AR$44,G18*3+2,0),"")</f>
+        <f t="shared" si="3"/>
         <v>prop,105,1</v>
       </c>
       <c r="Q18" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H18,$V$80:$AR$89,G18*3+2,0),"")</f>
+        <f t="shared" si="4"/>
         <v>cash,100</v>
       </c>
       <c r="R18" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H18,$V$69:$AR$78,G18*3+2,0),"")</f>
+        <f t="shared" si="5"/>
         <v>cash,100</v>
       </c>
       <c r="S18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V18" s="3">
@@ -11288,11 +11360,11 @@
         <v>0</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H19" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I19" s="6">
@@ -11308,31 +11380,31 @@
         <v>50</v>
       </c>
       <c r="M19" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H19,$V$16:$AR$20,G19*3+2,0),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N19" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H19,$V$10:$AR$14,G19*3+2,0),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O19" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H19,$V$46:$AR$55,G19*3+2,0),"")</f>
+        <f t="shared" si="2"/>
         <v>stam,12</v>
       </c>
       <c r="P19" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H19,$V$35:$AR$44,G19*3+2,0),"")</f>
+        <f t="shared" si="3"/>
         <v>stam,12</v>
       </c>
       <c r="Q19" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H19,$V$80:$AR$89,G19*3+2,0),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R19" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H19,$V$69:$AR$78,G19*3+2,0),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V19" s="3">
@@ -11389,11 +11461,11 @@
         <v>0</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H20" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="I20" s="6">
@@ -11409,31 +11481,31 @@
         <v>50</v>
       </c>
       <c r="M20" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H20,$V$16:$AR$20,G20*3+2,0),"")</f>
+        <f t="shared" si="0"/>
         <v>prop,403,1</v>
       </c>
       <c r="N20" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H20,$V$10:$AR$14,G20*3+2,0),"")</f>
+        <f t="shared" si="1"/>
         <v>prop,403,1</v>
       </c>
       <c r="O20" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H20,$V$46:$AR$55,G20*3+2,0),"")</f>
+        <f t="shared" si="2"/>
         <v>coin,5000</v>
       </c>
       <c r="P20" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H20,$V$35:$AR$44,G20*3+2,0),"")</f>
+        <f t="shared" si="3"/>
         <v>coin,5000</v>
       </c>
       <c r="Q20" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H20,$V$80:$AR$89,G20*3+2,0),"")</f>
+        <f t="shared" si="4"/>
         <v>prop,802,2</v>
       </c>
       <c r="R20" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H20,$V$69:$AR$78,G20*3+2,0),"")</f>
+        <f t="shared" si="5"/>
         <v>prop,802,2</v>
       </c>
       <c r="S20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V20" s="3">
@@ -11453,7 +11525,7 @@
       </c>
       <c r="AF20" s="3" t="str">
         <f>VLOOKUP(AF8,$A:$D,3,0)&amp;","&amp;AG8</f>
-        <v>prop,809,1</v>
+        <v>item,104,1</v>
       </c>
       <c r="AI20" s="3" t="str">
         <f>VLOOKUP(AI8,$A:$D,3,0)&amp;","&amp;AJ8</f>
@@ -11461,7 +11533,7 @@
       </c>
       <c r="AL20" s="3" t="str">
         <f>VLOOKUP(AL8,$A:$D,3,0)&amp;","&amp;AM8</f>
-        <v>prop,805,3</v>
+        <v>prop,106,1</v>
       </c>
       <c r="AO20" s="3" t="str">
         <f>VLOOKUP(AO8,$A:$D,3,0)&amp;","&amp;AP8</f>
@@ -11490,11 +11562,11 @@
         <v>0</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H21" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I21" s="6">
@@ -11510,31 +11582,31 @@
         <v>50</v>
       </c>
       <c r="M21" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H21,$V$16:$AR$20,G21*3+2,0),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N21" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H21,$V$10:$AR$14,G21*3+2,0),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O21" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H21,$V$46:$AR$55,G21*3+2,0),"")</f>
+        <f t="shared" si="2"/>
         <v>item,103,1</v>
       </c>
       <c r="P21" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H21,$V$35:$AR$44,G21*3+2,0),"")</f>
+        <f t="shared" si="3"/>
         <v>pack,303,1</v>
       </c>
       <c r="Q21" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H21,$V$80:$AR$89,G21*3+2,0),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R21" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H21,$V$69:$AR$78,G21*3+2,0),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -11560,11 +11632,11 @@
         <v>0</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H22" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="I22" s="6">
@@ -11580,31 +11652,31 @@
         <v>50</v>
       </c>
       <c r="M22" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H22,$V$16:$AR$20,G22*3+2,0),"")</f>
+        <f t="shared" si="0"/>
         <v>prop,704,10</v>
       </c>
       <c r="N22" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H22,$V$10:$AR$14,G22*3+2,0),"")</f>
+        <f t="shared" si="1"/>
         <v>prop,704,10</v>
       </c>
       <c r="O22" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H22,$V$46:$AR$55,G22*3+2,0),"")</f>
+        <f t="shared" si="2"/>
         <v>prop,540,10</v>
       </c>
       <c r="P22" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H22,$V$35:$AR$44,G22*3+2,0),"")</f>
+        <f t="shared" si="3"/>
         <v>prop,540,10</v>
       </c>
       <c r="Q22" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H22,$V$80:$AR$89,G22*3+2,0),"")</f>
+        <f t="shared" si="4"/>
         <v>prop,702,1</v>
       </c>
       <c r="R22" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H22,$V$69:$AR$78,G22*3+2,0),"")</f>
+        <f t="shared" si="5"/>
         <v>prop,702,1</v>
       </c>
       <c r="S22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11630,11 +11702,11 @@
         <v>300</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="H23" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="I23" s="6">
@@ -11650,31 +11722,31 @@
         <v>50</v>
       </c>
       <c r="M23" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H23,$V$16:$AR$20,G23*3+2,0),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N23" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H23,$V$10:$AR$14,G23*3+2,0),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O23" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H23,$V$46:$AR$55,G23*3+2,0),"")</f>
+        <f t="shared" si="2"/>
         <v>stam,12</v>
       </c>
       <c r="P23" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H23,$V$35:$AR$44,G23*3+2,0),"")</f>
+        <f t="shared" si="3"/>
         <v>stam,12</v>
       </c>
       <c r="Q23" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H23,$V$80:$AR$89,G23*3+2,0),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R23" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H23,$V$69:$AR$78,G23*3+2,0),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V23" s="3" t="s">
@@ -11727,11 +11799,11 @@
         <v>800</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="H24" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="I24" s="6">
@@ -11747,114 +11819,114 @@
         <v>50</v>
       </c>
       <c r="M24" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H24,$V$16:$AR$20,G24*3+2,0),"")</f>
+        <f t="shared" si="0"/>
         <v>coin,5000</v>
       </c>
       <c r="N24" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H24,$V$10:$AR$14,G24*3+2,0),"")</f>
+        <f t="shared" si="1"/>
         <v>coin,5000</v>
       </c>
       <c r="O24" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H24,$V$46:$AR$55,G24*3+2,0),"")</f>
+        <f t="shared" si="2"/>
         <v>coin,5000</v>
       </c>
       <c r="P24" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H24,$V$35:$AR$44,G24*3+2,0),"")</f>
+        <f t="shared" si="3"/>
         <v>coin,5000</v>
       </c>
       <c r="Q24" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H24,$V$80:$AR$89,G24*3+2,0),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R24" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H24,$V$69:$AR$78,G24*3+2,0),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S24" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V24" s="3">
         <v>1</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="X24" s="4">
         <v>12</v>
       </c>
       <c r="Y24" s="4">
-        <f>INT(VLOOKUP(W24,$A:$E,5,0)*X24)</f>
+        <f t="shared" ref="Y24:Y33" si="9">INT(VLOOKUP(W24,$A:$E,5,0)*X24)</f>
         <v>37</v>
       </c>
       <c r="Z24" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AA24" s="4">
         <v>12</v>
       </c>
       <c r="AB24" s="4">
-        <f>INT(VLOOKUP(Z24,$A:$E,5,0)*AA24)</f>
+        <f t="shared" ref="AB24:AB33" si="10">INT(VLOOKUP(Z24,$A:$E,5,0)*AA24)</f>
         <v>37</v>
       </c>
       <c r="AC24" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AD24" s="4">
         <v>12</v>
       </c>
       <c r="AE24" s="4">
-        <f>INT(VLOOKUP(AC24,$A:$E,5,0)*AD24)</f>
+        <f t="shared" ref="AE24:AE33" si="11">INT(VLOOKUP(AC24,$A:$E,5,0)*AD24)</f>
         <v>37</v>
       </c>
       <c r="AF24" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AG24" s="4">
         <v>12</v>
       </c>
       <c r="AH24" s="4">
-        <f>INT(VLOOKUP(AF24,$A:$E,5,0)*AG24)</f>
+        <f t="shared" ref="AH24:AH33" si="12">INT(VLOOKUP(AF24,$A:$E,5,0)*AG24)</f>
         <v>37</v>
       </c>
       <c r="AI24" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AJ24" s="4">
         <v>12</v>
       </c>
       <c r="AK24" s="4">
-        <f>INT(VLOOKUP(AI24,$A:$E,5,0)*AJ24)</f>
+        <f t="shared" ref="AK24:AK33" si="13">INT(VLOOKUP(AI24,$A:$E,5,0)*AJ24)</f>
         <v>37</v>
       </c>
       <c r="AL24" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AM24" s="4">
         <v>12</v>
       </c>
       <c r="AN24" s="4">
-        <f>INT(VLOOKUP(AL24,$A:$E,5,0)*AM24)</f>
+        <f t="shared" ref="AN24:AN33" si="14">INT(VLOOKUP(AL24,$A:$E,5,0)*AM24)</f>
         <v>37</v>
       </c>
       <c r="AO24" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AP24" s="4">
         <v>12</v>
       </c>
       <c r="AQ24" s="4">
-        <f>INT(VLOOKUP(AO24,$A:$E,5,0)*AP24)</f>
+        <f t="shared" ref="AQ24:AQ33" si="15">INT(VLOOKUP(AO24,$A:$E,5,0)*AP24)</f>
         <v>37</v>
       </c>
       <c r="AR24" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AS24" s="4">
         <v>12</v>
       </c>
       <c r="AT24" s="4">
-        <f>INT(VLOOKUP(AR24,$A:$E,5,0)*AS24)</f>
+        <f t="shared" ref="AT24:AT33" si="16">INT(VLOOKUP(AR24,$A:$E,5,0)*AS24)</f>
         <v>37</v>
       </c>
     </row>
@@ -11880,11 +11952,11 @@
         <v>5000</v>
       </c>
       <c r="G25" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="H25" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="I25" s="6">
@@ -11900,31 +11972,31 @@
         <v>50</v>
       </c>
       <c r="M25" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H25,$V$16:$AR$20,G25*3+2,0),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N25" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H25,$V$10:$AR$14,G25*3+2,0),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O25" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H25,$V$46:$AR$55,G25*3+2,0),"")</f>
+        <f t="shared" si="2"/>
         <v>prop,105,1</v>
       </c>
       <c r="P25" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H25,$V$35:$AR$44,G25*3+2,0),"")</f>
+        <f t="shared" si="3"/>
         <v>prop,105,1</v>
       </c>
       <c r="Q25" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H25,$V$80:$AR$89,G25*3+2,0),"")</f>
+        <f t="shared" si="4"/>
         <v>prop,803,5</v>
       </c>
       <c r="R25" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H25,$V$69:$AR$78,G25*3+2,0),"")</f>
+        <f t="shared" si="5"/>
         <v>prop,803,5</v>
       </c>
       <c r="S25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V25" s="3">
@@ -11937,7 +12009,7 @@
         <v>5000</v>
       </c>
       <c r="Y25" s="4">
-        <f>INT(VLOOKUP(W25,$A:$E,5,0)*X25)</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="Z25" s="3" t="s">
@@ -11947,7 +12019,7 @@
         <v>5000</v>
       </c>
       <c r="AB25" s="4">
-        <f>INT(VLOOKUP(Z25,$A:$E,5,0)*AA25)</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="AC25" s="3" t="s">
@@ -11957,7 +12029,7 @@
         <v>5000</v>
       </c>
       <c r="AE25" s="4">
-        <f>INT(VLOOKUP(AC25,$A:$E,5,0)*AD25)</f>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="AF25" s="3" t="s">
@@ -11967,7 +12039,7 @@
         <v>5000</v>
       </c>
       <c r="AH25" s="4">
-        <f>INT(VLOOKUP(AF25,$A:$E,5,0)*AG25)</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="AI25" s="3" t="s">
@@ -11977,7 +12049,7 @@
         <v>5000</v>
       </c>
       <c r="AK25" s="4">
-        <f>INT(VLOOKUP(AI25,$A:$E,5,0)*AJ25)</f>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="AL25" s="3" t="s">
@@ -11987,7 +12059,7 @@
         <v>5000</v>
       </c>
       <c r="AN25" s="4">
-        <f>INT(VLOOKUP(AL25,$A:$E,5,0)*AM25)</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="AO25" s="3" t="s">
@@ -11997,7 +12069,7 @@
         <v>5000</v>
       </c>
       <c r="AQ25" s="4">
-        <f>INT(VLOOKUP(AO25,$A:$E,5,0)*AP25)</f>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="AR25" s="3" t="s">
@@ -12007,7 +12079,7 @@
         <v>5000</v>
       </c>
       <c r="AT25" s="4">
-        <f>INT(VLOOKUP(AR25,$A:$E,5,0)*AS25)</f>
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
     </row>
@@ -12033,11 +12105,11 @@
         <v>10</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="H26" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="I26" s="6">
@@ -12053,31 +12125,31 @@
         <v>50</v>
       </c>
       <c r="M26" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H26,$V$16:$AR$20,G26*3+2,0),"")</f>
+        <f t="shared" si="0"/>
         <v>prop,801,8</v>
       </c>
       <c r="N26" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H26,$V$10:$AR$14,G26*3+2,0),"")</f>
+        <f t="shared" si="1"/>
         <v>prop,801,8</v>
       </c>
       <c r="O26" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H26,$V$46:$AR$55,G26*3+2,0),"")</f>
+        <f t="shared" si="2"/>
         <v>stage_token,500</v>
       </c>
       <c r="P26" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H26,$V$35:$AR$44,G26*3+2,0),"")</f>
+        <f t="shared" si="3"/>
         <v>stage_token,500</v>
       </c>
       <c r="Q26" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H26,$V$80:$AR$89,G26*3+2,0),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R26" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H26,$V$69:$AR$78,G26*3+2,0),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S26" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V26" s="3">
@@ -12090,7 +12162,7 @@
         <v>1</v>
       </c>
       <c r="Y26" s="4">
-        <f>INT(VLOOKUP(W26,$A:$E,5,0)*X26)</f>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="Z26" s="3" t="s">
@@ -12100,7 +12172,7 @@
         <v>1</v>
       </c>
       <c r="AB26" s="4">
-        <f>INT(VLOOKUP(Z26,$A:$E,5,0)*AA26)</f>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
       <c r="AC26" s="3" t="s">
@@ -12110,7 +12182,7 @@
         <v>1</v>
       </c>
       <c r="AE26" s="4">
-        <f>INT(VLOOKUP(AC26,$A:$E,5,0)*AD26)</f>
+        <f t="shared" si="11"/>
         <v>60</v>
       </c>
       <c r="AF26" s="3" t="s">
@@ -12120,7 +12192,7 @@
         <v>1</v>
       </c>
       <c r="AH26" s="4">
-        <f>INT(VLOOKUP(AF26,$A:$E,5,0)*AG26)</f>
+        <f t="shared" si="12"/>
         <v>60</v>
       </c>
       <c r="AI26" s="3" t="s">
@@ -12130,7 +12202,7 @@
         <v>1</v>
       </c>
       <c r="AK26" s="4">
-        <f>INT(VLOOKUP(AI26,$A:$E,5,0)*AJ26)</f>
+        <f t="shared" si="13"/>
         <v>60</v>
       </c>
       <c r="AL26" s="3" t="s">
@@ -12140,7 +12212,7 @@
         <v>1</v>
       </c>
       <c r="AN26" s="4">
-        <f>INT(VLOOKUP(AL26,$A:$E,5,0)*AM26)</f>
+        <f t="shared" si="14"/>
         <v>60</v>
       </c>
       <c r="AO26" s="3" t="s">
@@ -12150,7 +12222,7 @@
         <v>1</v>
       </c>
       <c r="AQ26" s="4">
-        <f>INT(VLOOKUP(AO26,$A:$E,5,0)*AP26)</f>
+        <f t="shared" si="15"/>
         <v>60</v>
       </c>
       <c r="AR26" s="3" t="s">
@@ -12160,7 +12232,7 @@
         <v>1</v>
       </c>
       <c r="AT26" s="4">
-        <f>INT(VLOOKUP(AR26,$A:$E,5,0)*AS26)</f>
+        <f t="shared" si="16"/>
         <v>60</v>
       </c>
     </row>
@@ -12186,11 +12258,11 @@
         <v>20</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="H27" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="I27" s="6">
@@ -12206,114 +12278,114 @@
         <v>50</v>
       </c>
       <c r="M27" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H27,$V$16:$AR$20,G27*3+2,0),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N27" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H27,$V$10:$AR$14,G27*3+2,0),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O27" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H27,$V$46:$AR$55,G27*3+2,0),"")</f>
+        <f t="shared" si="2"/>
         <v>item,103,1</v>
       </c>
       <c r="P27" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H27,$V$35:$AR$44,G27*3+2,0),"")</f>
+        <f t="shared" si="3"/>
         <v>pack,303,1</v>
       </c>
       <c r="Q27" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H27,$V$80:$AR$89,G27*3+2,0),"")</f>
+        <f t="shared" si="4"/>
         <v>cash,100</v>
       </c>
       <c r="R27" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H27,$V$69:$AR$78,G27*3+2,0),"")</f>
+        <f t="shared" si="5"/>
         <v>cash,100</v>
       </c>
       <c r="S27" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V27" s="3">
         <v>4</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="X27" s="4">
         <v>500</v>
       </c>
       <c r="Y27" s="4">
-        <f>INT(VLOOKUP(W27,$A:$E,5,0)*X27)</f>
+        <f t="shared" si="9"/>
         <v>62</v>
       </c>
       <c r="Z27" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AA27" s="4">
         <v>500</v>
       </c>
       <c r="AB27" s="4">
-        <f>INT(VLOOKUP(Z27,$A:$E,5,0)*AA27)</f>
+        <f t="shared" si="10"/>
         <v>62</v>
       </c>
       <c r="AC27" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AD27" s="4">
         <v>500</v>
       </c>
       <c r="AE27" s="4">
-        <f>INT(VLOOKUP(AC27,$A:$E,5,0)*AD27)</f>
+        <f t="shared" si="11"/>
         <v>62</v>
       </c>
       <c r="AF27" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AG27" s="4">
         <v>500</v>
       </c>
       <c r="AH27" s="4">
-        <f>INT(VLOOKUP(AF27,$A:$E,5,0)*AG27)</f>
+        <f t="shared" si="12"/>
         <v>62</v>
       </c>
       <c r="AI27" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AJ27" s="4">
         <v>500</v>
       </c>
       <c r="AK27" s="4">
-        <f>INT(VLOOKUP(AI27,$A:$E,5,0)*AJ27)</f>
+        <f t="shared" si="13"/>
         <v>62</v>
       </c>
       <c r="AL27" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AM27" s="4">
         <v>500</v>
       </c>
       <c r="AN27" s="4">
-        <f>INT(VLOOKUP(AL27,$A:$E,5,0)*AM27)</f>
+        <f t="shared" si="14"/>
         <v>62</v>
       </c>
       <c r="AO27" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AP27" s="4">
         <v>500</v>
       </c>
       <c r="AQ27" s="4">
-        <f>INT(VLOOKUP(AO27,$A:$E,5,0)*AP27)</f>
+        <f t="shared" si="15"/>
         <v>62</v>
       </c>
       <c r="AR27" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AS27" s="4">
         <v>500</v>
       </c>
       <c r="AT27" s="4">
-        <f>INT(VLOOKUP(AR27,$A:$E,5,0)*AS27)</f>
+        <f t="shared" si="16"/>
         <v>62</v>
       </c>
     </row>
@@ -12339,11 +12411,11 @@
         <v>100</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="H28" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="I28" s="6">
@@ -12359,114 +12431,114 @@
         <v>50</v>
       </c>
       <c r="M28" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H28,$V$16:$AR$20,G28*3+2,0),"")</f>
+        <f t="shared" si="0"/>
         <v>prop,105,2</v>
       </c>
       <c r="N28" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H28,$V$10:$AR$14,G28*3+2,0),"")</f>
+        <f t="shared" si="1"/>
         <v>prop,105,2</v>
       </c>
       <c r="O28" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H28,$V$46:$AR$55,G28*3+2,0),"")</f>
+        <f t="shared" si="2"/>
         <v>prop,105,1</v>
       </c>
       <c r="P28" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H28,$V$35:$AR$44,G28*3+2,0),"")</f>
+        <f t="shared" si="3"/>
         <v>prop,105,1</v>
       </c>
       <c r="Q28" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H28,$V$80:$AR$89,G28*3+2,0),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R28" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H28,$V$69:$AR$78,G28*3+2,0),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S28" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V28" s="3">
         <v>5</v>
       </c>
       <c r="W28" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="X28" s="4">
         <v>1</v>
       </c>
       <c r="Y28" s="4">
-        <f>INT(VLOOKUP(W28,$A:$E,5,0)*X28)</f>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="Z28" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AA28" s="4">
         <v>1</v>
       </c>
       <c r="AB28" s="4">
-        <f>INT(VLOOKUP(Z28,$A:$E,5,0)*AA28)</f>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
       <c r="AC28" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AD28" s="4">
         <v>1</v>
       </c>
       <c r="AE28" s="4">
-        <f>INT(VLOOKUP(AC28,$A:$E,5,0)*AD28)</f>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="AF28" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AG28" s="4">
         <v>1</v>
       </c>
       <c r="AH28" s="4">
-        <f>INT(VLOOKUP(AF28,$A:$E,5,0)*AG28)</f>
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
       <c r="AI28" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AJ28" s="4">
         <v>1</v>
       </c>
       <c r="AK28" s="4">
-        <f>INT(VLOOKUP(AI28,$A:$E,5,0)*AJ28)</f>
+        <f t="shared" si="13"/>
         <v>50</v>
       </c>
       <c r="AL28" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AM28" s="4">
         <v>1</v>
       </c>
       <c r="AN28" s="4">
-        <f>INT(VLOOKUP(AL28,$A:$E,5,0)*AM28)</f>
+        <f t="shared" si="14"/>
         <v>50</v>
       </c>
       <c r="AO28" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AP28" s="4">
         <v>1</v>
       </c>
       <c r="AQ28" s="4">
-        <f>INT(VLOOKUP(AO28,$A:$E,5,0)*AP28)</f>
+        <f t="shared" si="15"/>
         <v>50</v>
       </c>
       <c r="AR28" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AS28" s="4">
         <v>1</v>
       </c>
       <c r="AT28" s="4">
-        <f>INT(VLOOKUP(AR28,$A:$E,5,0)*AS28)</f>
+        <f t="shared" si="16"/>
         <v>50</v>
       </c>
     </row>
@@ -12492,11 +12564,11 @@
         <v>100</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="H29" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I29" s="6">
@@ -12512,31 +12584,31 @@
         <v>50</v>
       </c>
       <c r="M29" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H29,$V$16:$AR$20,G29*3+2,0),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N29" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H29,$V$10:$AR$14,G29*3+2,0),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O29" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H29,$V$46:$AR$55,G29*3+2,0),"")</f>
+        <f t="shared" si="2"/>
         <v>stam,12</v>
       </c>
       <c r="P29" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H29,$V$35:$AR$44,G29*3+2,0),"")</f>
+        <f t="shared" si="3"/>
         <v>stam,12</v>
       </c>
       <c r="Q29" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H29,$V$80:$AR$89,G29*3+2,0),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R29" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H29,$V$69:$AR$78,G29*3+2,0),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S29" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V29" s="3">
@@ -12549,7 +12621,7 @@
         <v>1</v>
       </c>
       <c r="Y29" s="4">
-        <f>INT(VLOOKUP(W29,$A:$E,5,0)*X29)</f>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="Z29" s="3" t="s">
@@ -12559,7 +12631,7 @@
         <v>1</v>
       </c>
       <c r="AB29" s="4">
-        <f>INT(VLOOKUP(Z29,$A:$E,5,0)*AA29)</f>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
       <c r="AC29" s="3" t="s">
@@ -12569,7 +12641,7 @@
         <v>1</v>
       </c>
       <c r="AE29" s="4">
-        <f>INT(VLOOKUP(AC29,$A:$E,5,0)*AD29)</f>
+        <f t="shared" si="11"/>
         <v>60</v>
       </c>
       <c r="AF29" s="3" t="s">
@@ -12579,7 +12651,7 @@
         <v>1</v>
       </c>
       <c r="AH29" s="4">
-        <f>INT(VLOOKUP(AF29,$A:$E,5,0)*AG29)</f>
+        <f t="shared" si="12"/>
         <v>60</v>
       </c>
       <c r="AI29" s="3" t="s">
@@ -12589,7 +12661,7 @@
         <v>1</v>
       </c>
       <c r="AK29" s="4">
-        <f>INT(VLOOKUP(AI29,$A:$E,5,0)*AJ29)</f>
+        <f t="shared" si="13"/>
         <v>60</v>
       </c>
       <c r="AL29" s="3" t="s">
@@ -12599,7 +12671,7 @@
         <v>1</v>
       </c>
       <c r="AN29" s="4">
-        <f>INT(VLOOKUP(AL29,$A:$E,5,0)*AM29)</f>
+        <f t="shared" si="14"/>
         <v>60</v>
       </c>
       <c r="AO29" s="3" t="s">
@@ -12609,7 +12681,7 @@
         <v>1</v>
       </c>
       <c r="AQ29" s="4">
-        <f>INT(VLOOKUP(AO29,$A:$E,5,0)*AP29)</f>
+        <f t="shared" si="15"/>
         <v>60</v>
       </c>
       <c r="AR29" s="3" t="s">
@@ -12619,7 +12691,7 @@
         <v>1</v>
       </c>
       <c r="AT29" s="4">
-        <f>INT(VLOOKUP(AR29,$A:$E,5,0)*AS29)</f>
+        <f t="shared" si="16"/>
         <v>60</v>
       </c>
     </row>
@@ -12645,11 +12717,11 @@
         <v>0</v>
       </c>
       <c r="G30" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="H30" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="I30" s="6">
@@ -12665,114 +12737,114 @@
         <v>50</v>
       </c>
       <c r="M30" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H30,$V$16:$AR$20,G30*3+2,0),"")</f>
+        <f t="shared" si="0"/>
         <v>prop,701,2</v>
       </c>
       <c r="N30" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H30,$V$10:$AR$14,G30*3+2,0),"")</f>
+        <f t="shared" si="1"/>
         <v>prop,701,2</v>
       </c>
       <c r="O30" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H30,$V$46:$AR$55,G30*3+2,0),"")</f>
+        <f t="shared" si="2"/>
         <v>coin,5000</v>
       </c>
       <c r="P30" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H30,$V$35:$AR$44,G30*3+2,0),"")</f>
+        <f t="shared" si="3"/>
         <v>coin,5000</v>
       </c>
       <c r="Q30" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H30,$V$80:$AR$89,G30*3+2,0),"")</f>
+        <f t="shared" si="4"/>
         <v>prop,804,10</v>
       </c>
       <c r="R30" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H30,$V$69:$AR$78,G30*3+2,0),"")</f>
+        <f t="shared" si="5"/>
         <v>prop,804,10</v>
       </c>
       <c r="S30" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V30" s="3">
         <v>7</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="X30" s="4">
         <v>12</v>
       </c>
       <c r="Y30" s="4">
-        <f>INT(VLOOKUP(W30,$A:$E,5,0)*X30)</f>
+        <f t="shared" si="9"/>
         <v>37</v>
       </c>
       <c r="Z30" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AA30" s="4">
         <v>12</v>
       </c>
       <c r="AB30" s="4">
-        <f>INT(VLOOKUP(Z30,$A:$E,5,0)*AA30)</f>
+        <f t="shared" si="10"/>
         <v>37</v>
       </c>
       <c r="AC30" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AD30" s="4">
         <v>12</v>
       </c>
       <c r="AE30" s="4">
-        <f>INT(VLOOKUP(AC30,$A:$E,5,0)*AD30)</f>
+        <f t="shared" si="11"/>
         <v>37</v>
       </c>
       <c r="AF30" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AG30" s="4">
         <v>12</v>
       </c>
       <c r="AH30" s="4">
-        <f>INT(VLOOKUP(AF30,$A:$E,5,0)*AG30)</f>
+        <f t="shared" si="12"/>
         <v>37</v>
       </c>
       <c r="AI30" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AJ30" s="4">
         <v>12</v>
       </c>
       <c r="AK30" s="4">
-        <f>INT(VLOOKUP(AI30,$A:$E,5,0)*AJ30)</f>
+        <f t="shared" si="13"/>
         <v>37</v>
       </c>
       <c r="AL30" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AM30" s="4">
         <v>12</v>
       </c>
       <c r="AN30" s="4">
-        <f>INT(VLOOKUP(AL30,$A:$E,5,0)*AM30)</f>
+        <f t="shared" si="14"/>
         <v>37</v>
       </c>
       <c r="AO30" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AP30" s="4">
         <v>12</v>
       </c>
       <c r="AQ30" s="4">
-        <f>INT(VLOOKUP(AO30,$A:$E,5,0)*AP30)</f>
+        <f t="shared" si="15"/>
         <v>37</v>
       </c>
       <c r="AR30" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AS30" s="4">
         <v>12</v>
       </c>
       <c r="AT30" s="4">
-        <f>INT(VLOOKUP(AR30,$A:$E,5,0)*AS30)</f>
+        <f t="shared" si="16"/>
         <v>37</v>
       </c>
       <c r="AU30" s="10"/>
@@ -12799,11 +12871,11 @@
         <v>0</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="H31" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I31" s="6">
@@ -12819,31 +12891,31 @@
         <v>50</v>
       </c>
       <c r="M31" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H31,$V$16:$AR$20,G31*3+2,0),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N31" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H31,$V$10:$AR$14,G31*3+2,0),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O31" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H31,$V$46:$AR$55,G31*3+2,0),"")</f>
+        <f t="shared" si="2"/>
         <v>item,103,1</v>
       </c>
       <c r="P31" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H31,$V$35:$AR$44,G31*3+2,0),"")</f>
+        <f t="shared" si="3"/>
         <v>pack,303,1</v>
       </c>
       <c r="Q31" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H31,$V$80:$AR$89,G31*3+2,0),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R31" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H31,$V$69:$AR$78,G31*3+2,0),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S31" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V31" s="3">
@@ -12856,7 +12928,7 @@
         <v>5000</v>
       </c>
       <c r="Y31" s="4">
-        <f>INT(VLOOKUP(W31,$A:$E,5,0)*X31)</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="Z31" s="3" t="s">
@@ -12866,7 +12938,7 @@
         <v>5000</v>
       </c>
       <c r="AB31" s="4">
-        <f>INT(VLOOKUP(Z31,$A:$E,5,0)*AA31)</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="AC31" s="3" t="s">
@@ -12876,7 +12948,7 @@
         <v>5000</v>
       </c>
       <c r="AE31" s="4">
-        <f>INT(VLOOKUP(AC31,$A:$E,5,0)*AD31)</f>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="AF31" s="3" t="s">
@@ -12886,7 +12958,7 @@
         <v>5000</v>
       </c>
       <c r="AH31" s="4">
-        <f>INT(VLOOKUP(AF31,$A:$E,5,0)*AG31)</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="AI31" s="3" t="s">
@@ -12896,7 +12968,7 @@
         <v>5000</v>
       </c>
       <c r="AK31" s="4">
-        <f>INT(VLOOKUP(AI31,$A:$E,5,0)*AJ31)</f>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="AL31" s="3" t="s">
@@ -12906,7 +12978,7 @@
         <v>5000</v>
       </c>
       <c r="AN31" s="4">
-        <f>INT(VLOOKUP(AL31,$A:$E,5,0)*AM31)</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="AO31" s="3" t="s">
@@ -12916,7 +12988,7 @@
         <v>5000</v>
       </c>
       <c r="AQ31" s="4">
-        <f>INT(VLOOKUP(AO31,$A:$E,5,0)*AP31)</f>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="AR31" s="3" t="s">
@@ -12926,7 +12998,7 @@
         <v>5000</v>
       </c>
       <c r="AT31" s="4">
-        <f>INT(VLOOKUP(AR31,$A:$E,5,0)*AS31)</f>
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
     </row>
@@ -12952,11 +13024,11 @@
         <v>0</v>
       </c>
       <c r="G32" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="H32" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="I32" s="6">
@@ -12972,114 +13044,114 @@
         <v>50</v>
       </c>
       <c r="M32" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H32,$V$16:$AR$20,G32*3+2,0),"")</f>
+        <f t="shared" si="0"/>
         <v>prop,805,2</v>
       </c>
       <c r="N32" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H32,$V$10:$AR$14,G32*3+2,0),"")</f>
+        <f t="shared" si="1"/>
         <v>prop,805,2</v>
       </c>
       <c r="O32" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H32,$V$46:$AR$55,G32*3+2,0),"")</f>
+        <f t="shared" si="2"/>
         <v>prop,540,5</v>
       </c>
       <c r="P32" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H32,$V$35:$AR$44,G32*3+2,0),"")</f>
+        <f t="shared" si="3"/>
         <v>prop,540,5</v>
       </c>
       <c r="Q32" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H32,$V$80:$AR$89,G32*3+2,0),"")</f>
+        <f t="shared" si="4"/>
         <v>prop,809,1</v>
       </c>
       <c r="R32" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H32,$V$69:$AR$78,G32*3+2,0),"")</f>
+        <f t="shared" si="5"/>
         <v>prop,809,1</v>
       </c>
       <c r="S32" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V32" s="3">
         <v>9</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="X32" s="4">
         <v>1</v>
       </c>
       <c r="Y32" s="4">
-        <f>INT(VLOOKUP(W32,$A:$E,5,0)*X32)</f>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="Z32" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AA32" s="4">
         <v>1</v>
       </c>
       <c r="AB32" s="4">
-        <f>INT(VLOOKUP(Z32,$A:$E,5,0)*AA32)</f>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
       <c r="AC32" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AD32" s="4">
         <v>1</v>
       </c>
       <c r="AE32" s="4">
-        <f>INT(VLOOKUP(AC32,$A:$E,5,0)*AD32)</f>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="AF32" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AG32" s="4">
         <v>1</v>
       </c>
       <c r="AH32" s="4">
-        <f>INT(VLOOKUP(AF32,$A:$E,5,0)*AG32)</f>
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
       <c r="AI32" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AJ32" s="4">
         <v>1</v>
       </c>
       <c r="AK32" s="4">
-        <f>INT(VLOOKUP(AI32,$A:$E,5,0)*AJ32)</f>
+        <f t="shared" si="13"/>
         <v>50</v>
       </c>
       <c r="AL32" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AM32" s="4">
         <v>1</v>
       </c>
       <c r="AN32" s="4">
-        <f>INT(VLOOKUP(AL32,$A:$E,5,0)*AM32)</f>
+        <f t="shared" si="14"/>
         <v>50</v>
       </c>
       <c r="AO32" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AP32" s="4">
         <v>1</v>
       </c>
       <c r="AQ32" s="4">
-        <f>INT(VLOOKUP(AO32,$A:$E,5,0)*AP32)</f>
+        <f t="shared" si="15"/>
         <v>50</v>
       </c>
       <c r="AR32" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AS32" s="4">
         <v>1</v>
       </c>
       <c r="AT32" s="4">
-        <f>INT(VLOOKUP(AR32,$A:$E,5,0)*AS32)</f>
+        <f t="shared" si="16"/>
         <v>50</v>
       </c>
     </row>
@@ -13105,11 +13177,11 @@
         <v>0</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="H33" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="I33" s="6">
@@ -13125,31 +13197,31 @@
         <v>50</v>
       </c>
       <c r="M33" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H33,$V$16:$AR$20,G33*3+2,0),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N33" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H33,$V$10:$AR$14,G33*3+2,0),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O33" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H33,$V$46:$AR$55,G33*3+2,0),"")</f>
+        <f t="shared" si="2"/>
         <v>stam,12</v>
       </c>
       <c r="P33" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H33,$V$35:$AR$44,G33*3+2,0),"")</f>
+        <f t="shared" si="3"/>
         <v>stam,12</v>
       </c>
       <c r="Q33" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H33,$V$80:$AR$89,G33*3+2,0),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R33" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H33,$V$69:$AR$78,G33*3+2,0),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S33" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V33" s="3">
@@ -13162,7 +13234,7 @@
         <v>5</v>
       </c>
       <c r="Y33" s="4">
-        <f>INT(VLOOKUP(W33,$A:$E,5,0)*X33)</f>
+        <f t="shared" si="9"/>
         <v>500</v>
       </c>
       <c r="Z33" s="2" t="s">
@@ -13172,7 +13244,7 @@
         <v>10</v>
       </c>
       <c r="AB33" s="4">
-        <f>INT(VLOOKUP(Z33,$A:$E,5,0)*AA33)</f>
+        <f t="shared" si="10"/>
         <v>1000</v>
       </c>
       <c r="AC33" s="2" t="s">
@@ -13182,7 +13254,7 @@
         <v>5</v>
       </c>
       <c r="AE33" s="4">
-        <f>INT(VLOOKUP(AC33,$A:$E,5,0)*AD33)</f>
+        <f t="shared" si="11"/>
         <v>500</v>
       </c>
       <c r="AF33" s="2" t="s">
@@ -13192,7 +13264,7 @@
         <v>10</v>
       </c>
       <c r="AH33" s="4">
-        <f>INT(VLOOKUP(AF33,$A:$E,5,0)*AG33)</f>
+        <f t="shared" si="12"/>
         <v>1000</v>
       </c>
       <c r="AI33" s="2" t="s">
@@ -13202,7 +13274,7 @@
         <v>5</v>
       </c>
       <c r="AK33" s="4">
-        <f>INT(VLOOKUP(AI33,$A:$E,5,0)*AJ33)</f>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="AL33" s="2" t="s">
@@ -13212,7 +13284,7 @@
         <v>10</v>
       </c>
       <c r="AN33" s="4">
-        <f>INT(VLOOKUP(AL33,$A:$E,5,0)*AM33)</f>
+        <f t="shared" si="14"/>
         <v>1000</v>
       </c>
       <c r="AO33" s="2" t="s">
@@ -13222,7 +13294,7 @@
         <v>5</v>
       </c>
       <c r="AQ33" s="4">
-        <f>INT(VLOOKUP(AO33,$A:$E,5,0)*AP33)</f>
+        <f t="shared" si="15"/>
         <v>500</v>
       </c>
       <c r="AR33" s="2" t="s">
@@ -13232,7 +13304,7 @@
         <v>10</v>
       </c>
       <c r="AT33" s="4">
-        <f>INT(VLOOKUP(AR33,$A:$E,5,0)*AS33)</f>
+        <f t="shared" si="16"/>
         <v>1000</v>
       </c>
       <c r="AU33" s="3">
@@ -13262,11 +13334,11 @@
         <v>1.2000000000000002</v>
       </c>
       <c r="G34" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="H34" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="I34" s="6">
@@ -13282,31 +13354,31 @@
         <v>50</v>
       </c>
       <c r="M34" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H34,$V$16:$AR$20,G34*3+2,0),"")</f>
+        <f t="shared" si="0"/>
         <v>coin,5000</v>
       </c>
       <c r="N34" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H34,$V$10:$AR$14,G34*3+2,0),"")</f>
+        <f t="shared" si="1"/>
         <v>coin,5000</v>
       </c>
       <c r="O34" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H34,$V$46:$AR$55,G34*3+2,0),"")</f>
+        <f t="shared" si="2"/>
         <v>coin,5000</v>
       </c>
       <c r="P34" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H34,$V$35:$AR$44,G34*3+2,0),"")</f>
+        <f t="shared" si="3"/>
         <v>coin,5000</v>
       </c>
       <c r="Q34" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H34,$V$80:$AR$89,G34*3+2,0),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R34" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H34,$V$69:$AR$78,G34*3+2,0),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S34" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y34" s="4">
@@ -13368,11 +13440,11 @@
         <v>3</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="H35" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="I35" s="6">
@@ -13388,66 +13460,66 @@
         <v>50</v>
       </c>
       <c r="M35" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H35,$V$16:$AR$20,G35*3+2,0),"")</f>
+        <f t="shared" ref="M35:M66" si="17">IFERROR(VLOOKUP(H35,$V$16:$AR$20,G35*3+2,0),"")</f>
         <v/>
       </c>
       <c r="N35" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H35,$V$10:$AR$14,G35*3+2,0),"")</f>
+        <f t="shared" ref="N35:N66" si="18">IFERROR(VLOOKUP(H35,$V$10:$AR$14,G35*3+2,0),"")</f>
         <v/>
       </c>
       <c r="O35" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H35,$V$46:$AR$55,G35*3+2,0),"")</f>
+        <f t="shared" ref="O35:O66" si="19">IFERROR(VLOOKUP(H35,$V$46:$AR$55,G35*3+2,0),"")</f>
         <v>prop,105,1</v>
       </c>
       <c r="P35" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H35,$V$35:$AR$44,G35*3+2,0),"")</f>
+        <f t="shared" ref="P35:P66" si="20">IFERROR(VLOOKUP(H35,$V$35:$AR$44,G35*3+2,0),"")</f>
         <v>prop,105,1</v>
       </c>
       <c r="Q35" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H35,$V$80:$AR$89,G35*3+2,0),"")</f>
+        <f t="shared" ref="Q35:Q66" si="21">IFERROR(VLOOKUP(H35,$V$80:$AR$89,G35*3+2,0),"")</f>
         <v/>
       </c>
       <c r="R35" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H35,$V$69:$AR$78,G35*3+2,0),"")</f>
+        <f t="shared" ref="R35:R66" si="22">IFERROR(VLOOKUP(H35,$V$69:$AR$78,G35*3+2,0),"")</f>
         <v/>
       </c>
       <c r="S35" s="3">
-        <f t="shared" ref="S35:S66" si="3">IF(H35=10,1,0)</f>
+        <f t="shared" ref="S35:S66" si="23">IF(H35=10,1,0)</f>
         <v>0</v>
       </c>
       <c r="V35" s="3">
         <v>1</v>
       </c>
       <c r="W35" s="3" t="str">
-        <f>VLOOKUP(W24,$A:$D,2,0)&amp;","&amp;X24</f>
+        <f t="shared" ref="W35:W44" si="24">VLOOKUP(W24,$A:$D,2,0)&amp;","&amp;X24</f>
         <v>stam,12</v>
       </c>
       <c r="Z35" s="3" t="str">
-        <f>VLOOKUP(Z24,$A:$D,2,0)&amp;","&amp;AA24</f>
+        <f t="shared" ref="Z35:Z44" si="25">VLOOKUP(Z24,$A:$D,2,0)&amp;","&amp;AA24</f>
         <v>stam,12</v>
       </c>
       <c r="AC35" s="3" t="str">
-        <f>VLOOKUP(AC24,$A:$D,2,0)&amp;","&amp;AD24</f>
+        <f t="shared" ref="AC35:AC44" si="26">VLOOKUP(AC24,$A:$D,2,0)&amp;","&amp;AD24</f>
         <v>stam,12</v>
       </c>
       <c r="AF35" s="3" t="str">
-        <f>VLOOKUP(AF24,$A:$D,2,0)&amp;","&amp;AG24</f>
+        <f t="shared" ref="AF35:AF44" si="27">VLOOKUP(AF24,$A:$D,2,0)&amp;","&amp;AG24</f>
         <v>stam,12</v>
       </c>
       <c r="AI35" s="3" t="str">
-        <f>VLOOKUP(AI24,$A:$D,2,0)&amp;","&amp;AJ24</f>
+        <f t="shared" ref="AI35:AI44" si="28">VLOOKUP(AI24,$A:$D,2,0)&amp;","&amp;AJ24</f>
         <v>stam,12</v>
       </c>
       <c r="AL35" s="3" t="str">
-        <f>VLOOKUP(AL24,$A:$D,2,0)&amp;","&amp;AM24</f>
+        <f t="shared" ref="AL35:AL44" si="29">VLOOKUP(AL24,$A:$D,2,0)&amp;","&amp;AM24</f>
         <v>stam,12</v>
       </c>
       <c r="AO35" s="3" t="str">
-        <f>VLOOKUP(AO24,$A:$D,2,0)&amp;","&amp;AP24</f>
+        <f t="shared" ref="AO35:AO44" si="30">VLOOKUP(AO24,$A:$D,2,0)&amp;","&amp;AP24</f>
         <v>stam,12</v>
       </c>
       <c r="AR35" s="3" t="str">
-        <f>VLOOKUP(AR24,$A:$D,2,0)&amp;","&amp;AS24</f>
+        <f t="shared" ref="AR35:AR44" si="31">VLOOKUP(AR24,$A:$D,2,0)&amp;","&amp;AS24</f>
         <v>stam,12</v>
       </c>
     </row>
@@ -13473,11 +13545,11 @@
         <v>6</v>
       </c>
       <c r="G36" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="H36" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="I36" s="6">
@@ -13493,66 +13565,66 @@
         <v>50</v>
       </c>
       <c r="M36" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H36,$V$16:$AR$20,G36*3+2,0),"")</f>
+        <f t="shared" si="17"/>
         <v>prop,802,2</v>
       </c>
       <c r="N36" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H36,$V$10:$AR$14,G36*3+2,0),"")</f>
+        <f t="shared" si="18"/>
         <v>prop,802,2</v>
       </c>
       <c r="O36" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H36,$V$46:$AR$55,G36*3+2,0),"")</f>
+        <f t="shared" si="19"/>
         <v>stage_token,500</v>
       </c>
       <c r="P36" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H36,$V$35:$AR$44,G36*3+2,0),"")</f>
+        <f t="shared" si="20"/>
         <v>stage_token,500</v>
       </c>
       <c r="Q36" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H36,$V$80:$AR$89,G36*3+2,0),"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="R36" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H36,$V$69:$AR$78,G36*3+2,0),"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="S36" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V36" s="3">
         <v>2</v>
       </c>
       <c r="W36" s="3" t="str">
-        <f>VLOOKUP(W25,$A:$D,2,0)&amp;","&amp;X25</f>
+        <f t="shared" si="24"/>
         <v>coin,5000</v>
       </c>
       <c r="Z36" s="3" t="str">
-        <f>VLOOKUP(Z25,$A:$D,2,0)&amp;","&amp;AA25</f>
+        <f t="shared" si="25"/>
         <v>coin,5000</v>
       </c>
       <c r="AC36" s="3" t="str">
-        <f>VLOOKUP(AC25,$A:$D,2,0)&amp;","&amp;AD25</f>
+        <f t="shared" si="26"/>
         <v>coin,5000</v>
       </c>
       <c r="AF36" s="3" t="str">
-        <f>VLOOKUP(AF25,$A:$D,2,0)&amp;","&amp;AG25</f>
+        <f t="shared" si="27"/>
         <v>coin,5000</v>
       </c>
       <c r="AI36" s="3" t="str">
-        <f>VLOOKUP(AI25,$A:$D,2,0)&amp;","&amp;AJ25</f>
+        <f t="shared" si="28"/>
         <v>coin,5000</v>
       </c>
       <c r="AL36" s="3" t="str">
-        <f>VLOOKUP(AL25,$A:$D,2,0)&amp;","&amp;AM25</f>
+        <f t="shared" si="29"/>
         <v>coin,5000</v>
       </c>
       <c r="AO36" s="3" t="str">
-        <f>VLOOKUP(AO25,$A:$D,2,0)&amp;","&amp;AP25</f>
+        <f t="shared" si="30"/>
         <v>coin,5000</v>
       </c>
       <c r="AR36" s="3" t="str">
-        <f>VLOOKUP(AR25,$A:$D,2,0)&amp;","&amp;AS25</f>
+        <f t="shared" si="31"/>
         <v>coin,5000</v>
       </c>
     </row>
@@ -13578,11 +13650,11 @@
         <v>18</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="H37" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="I37" s="6">
@@ -13598,66 +13670,66 @@
         <v>50</v>
       </c>
       <c r="M37" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H37,$V$16:$AR$20,G37*3+2,0),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N37" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H37,$V$10:$AR$14,G37*3+2,0),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="O37" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H37,$V$46:$AR$55,G37*3+2,0),"")</f>
+        <f t="shared" si="19"/>
         <v>item,103,1</v>
       </c>
       <c r="P37" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H37,$V$35:$AR$44,G37*3+2,0),"")</f>
+        <f t="shared" si="20"/>
         <v>pack,303,1</v>
       </c>
       <c r="Q37" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H37,$V$80:$AR$89,G37*3+2,0),"")</f>
+        <f t="shared" si="21"/>
         <v>cash,100</v>
       </c>
       <c r="R37" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H37,$V$69:$AR$78,G37*3+2,0),"")</f>
+        <f t="shared" si="22"/>
         <v>cash,100</v>
       </c>
       <c r="S37" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V37" s="3">
         <v>3</v>
       </c>
       <c r="W37" s="3" t="str">
-        <f>VLOOKUP(W26,$A:$D,2,0)&amp;","&amp;X26</f>
+        <f t="shared" si="24"/>
         <v>prop,105,1</v>
       </c>
       <c r="Z37" s="3" t="str">
-        <f>VLOOKUP(Z26,$A:$D,2,0)&amp;","&amp;AA26</f>
+        <f t="shared" si="25"/>
         <v>prop,105,1</v>
       </c>
       <c r="AC37" s="3" t="str">
-        <f>VLOOKUP(AC26,$A:$D,2,0)&amp;","&amp;AD26</f>
+        <f t="shared" si="26"/>
         <v>prop,105,1</v>
       </c>
       <c r="AF37" s="3" t="str">
-        <f>VLOOKUP(AF26,$A:$D,2,0)&amp;","&amp;AG26</f>
+        <f t="shared" si="27"/>
         <v>prop,105,1</v>
       </c>
       <c r="AI37" s="3" t="str">
-        <f>VLOOKUP(AI26,$A:$D,2,0)&amp;","&amp;AJ26</f>
+        <f t="shared" si="28"/>
         <v>prop,105,1</v>
       </c>
       <c r="AL37" s="3" t="str">
-        <f>VLOOKUP(AL26,$A:$D,2,0)&amp;","&amp;AM26</f>
+        <f t="shared" si="29"/>
         <v>prop,105,1</v>
       </c>
       <c r="AO37" s="3" t="str">
-        <f>VLOOKUP(AO26,$A:$D,2,0)&amp;","&amp;AP26</f>
+        <f t="shared" si="30"/>
         <v>prop,105,1</v>
       </c>
       <c r="AR37" s="3" t="str">
-        <f>VLOOKUP(AR26,$A:$D,2,0)&amp;","&amp;AS26</f>
+        <f t="shared" si="31"/>
         <v>prop,105,1</v>
       </c>
     </row>
@@ -13683,11 +13755,11 @@
         <v>60</v>
       </c>
       <c r="G38" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="H38" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="I38" s="6">
@@ -13703,66 +13775,66 @@
         <v>50</v>
       </c>
       <c r="M38" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H38,$V$16:$AR$20,G38*3+2,0),"")</f>
+        <f t="shared" si="17"/>
         <v>prop,105,2</v>
       </c>
       <c r="N38" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H38,$V$10:$AR$14,G38*3+2,0),"")</f>
+        <f t="shared" si="18"/>
         <v>prop,105,2</v>
       </c>
       <c r="O38" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H38,$V$46:$AR$55,G38*3+2,0),"")</f>
+        <f t="shared" si="19"/>
         <v>prop,105,1</v>
       </c>
       <c r="P38" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H38,$V$35:$AR$44,G38*3+2,0),"")</f>
+        <f t="shared" si="20"/>
         <v>prop,105,1</v>
       </c>
       <c r="Q38" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H38,$V$80:$AR$89,G38*3+2,0),"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="R38" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H38,$V$69:$AR$78,G38*3+2,0),"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="S38" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V38" s="3">
         <v>4</v>
       </c>
       <c r="W38" s="3" t="str">
-        <f>VLOOKUP(W27,$A:$D,2,0)&amp;","&amp;X27</f>
+        <f t="shared" si="24"/>
         <v>stage_token,500</v>
       </c>
       <c r="Z38" s="3" t="str">
-        <f>VLOOKUP(Z27,$A:$D,2,0)&amp;","&amp;AA27</f>
+        <f t="shared" si="25"/>
         <v>stage_token,500</v>
       </c>
       <c r="AC38" s="3" t="str">
-        <f>VLOOKUP(AC27,$A:$D,2,0)&amp;","&amp;AD27</f>
+        <f t="shared" si="26"/>
         <v>stage_token,500</v>
       </c>
       <c r="AF38" s="3" t="str">
-        <f>VLOOKUP(AF27,$A:$D,2,0)&amp;","&amp;AG27</f>
+        <f t="shared" si="27"/>
         <v>stage_token,500</v>
       </c>
       <c r="AI38" s="3" t="str">
-        <f>VLOOKUP(AI27,$A:$D,2,0)&amp;","&amp;AJ27</f>
+        <f t="shared" si="28"/>
         <v>stage_token,500</v>
       </c>
       <c r="AL38" s="3" t="str">
-        <f>VLOOKUP(AL27,$A:$D,2,0)&amp;","&amp;AM27</f>
+        <f t="shared" si="29"/>
         <v>stage_token,500</v>
       </c>
       <c r="AO38" s="3" t="str">
-        <f>VLOOKUP(AO27,$A:$D,2,0)&amp;","&amp;AP27</f>
+        <f t="shared" si="30"/>
         <v>stage_token,500</v>
       </c>
       <c r="AR38" s="3" t="str">
-        <f>VLOOKUP(AR27,$A:$D,2,0)&amp;","&amp;AS27</f>
+        <f t="shared" si="31"/>
         <v>stage_token,500</v>
       </c>
       <c r="AU38" s="3">
@@ -13791,11 +13863,11 @@
         <v>180</v>
       </c>
       <c r="G39" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="H39" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I39" s="6">
@@ -13811,66 +13883,66 @@
         <v>50</v>
       </c>
       <c r="M39" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H39,$V$16:$AR$20,G39*3+2,0),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N39" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H39,$V$10:$AR$14,G39*3+2,0),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="O39" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H39,$V$46:$AR$55,G39*3+2,0),"")</f>
+        <f t="shared" si="19"/>
         <v>stam,12</v>
       </c>
       <c r="P39" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H39,$V$35:$AR$44,G39*3+2,0),"")</f>
+        <f t="shared" si="20"/>
         <v>stam,12</v>
       </c>
       <c r="Q39" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H39,$V$80:$AR$89,G39*3+2,0),"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="R39" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H39,$V$69:$AR$78,G39*3+2,0),"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="S39" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V39" s="3">
         <v>5</v>
       </c>
       <c r="W39" s="3" t="str">
-        <f>VLOOKUP(W28,$A:$D,2,0)&amp;","&amp;X28</f>
+        <f t="shared" si="24"/>
         <v>pack,303,1</v>
       </c>
       <c r="Z39" s="3" t="str">
-        <f>VLOOKUP(Z28,$A:$D,2,0)&amp;","&amp;AA28</f>
+        <f t="shared" si="25"/>
         <v>pack,303,1</v>
       </c>
       <c r="AC39" s="3" t="str">
-        <f>VLOOKUP(AC28,$A:$D,2,0)&amp;","&amp;AD28</f>
+        <f t="shared" si="26"/>
         <v>pack,303,1</v>
       </c>
       <c r="AF39" s="3" t="str">
-        <f>VLOOKUP(AF28,$A:$D,2,0)&amp;","&amp;AG28</f>
+        <f t="shared" si="27"/>
         <v>pack,303,1</v>
       </c>
       <c r="AI39" s="3" t="str">
-        <f>VLOOKUP(AI28,$A:$D,2,0)&amp;","&amp;AJ28</f>
+        <f t="shared" si="28"/>
         <v>pack,303,1</v>
       </c>
       <c r="AL39" s="3" t="str">
-        <f>VLOOKUP(AL28,$A:$D,2,0)&amp;","&amp;AM28</f>
+        <f t="shared" si="29"/>
         <v>pack,303,1</v>
       </c>
       <c r="AO39" s="3" t="str">
-        <f>VLOOKUP(AO28,$A:$D,2,0)&amp;","&amp;AP28</f>
+        <f t="shared" si="30"/>
         <v>pack,303,1</v>
       </c>
       <c r="AR39" s="3" t="str">
-        <f>VLOOKUP(AR28,$A:$D,2,0)&amp;","&amp;AS28</f>
+        <f t="shared" si="31"/>
         <v>pack,303,1</v>
       </c>
       <c r="AU39" s="3">
@@ -13899,11 +13971,11 @@
         <v>0</v>
       </c>
       <c r="G40" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="H40" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="I40" s="6">
@@ -13919,66 +13991,66 @@
         <v>50</v>
       </c>
       <c r="M40" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H40,$V$16:$AR$20,G40*3+2,0),"")</f>
+        <f t="shared" si="17"/>
         <v>prop,403,1</v>
       </c>
       <c r="N40" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H40,$V$10:$AR$14,G40*3+2,0),"")</f>
+        <f t="shared" si="18"/>
         <v>prop,403,1</v>
       </c>
       <c r="O40" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H40,$V$46:$AR$55,G40*3+2,0),"")</f>
+        <f t="shared" si="19"/>
         <v>coin,5000</v>
       </c>
       <c r="P40" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H40,$V$35:$AR$44,G40*3+2,0),"")</f>
+        <f t="shared" si="20"/>
         <v>coin,5000</v>
       </c>
       <c r="Q40" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H40,$V$80:$AR$89,G40*3+2,0),"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="R40" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H40,$V$69:$AR$78,G40*3+2,0),"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="S40" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V40" s="3">
         <v>6</v>
       </c>
       <c r="W40" s="3" t="str">
-        <f>VLOOKUP(W29,$A:$D,2,0)&amp;","&amp;X29</f>
+        <f t="shared" si="24"/>
         <v>prop,105,1</v>
       </c>
       <c r="Z40" s="3" t="str">
-        <f>VLOOKUP(Z29,$A:$D,2,0)&amp;","&amp;AA29</f>
+        <f t="shared" si="25"/>
         <v>prop,105,1</v>
       </c>
       <c r="AC40" s="3" t="str">
-        <f>VLOOKUP(AC29,$A:$D,2,0)&amp;","&amp;AD29</f>
+        <f t="shared" si="26"/>
         <v>prop,105,1</v>
       </c>
       <c r="AF40" s="3" t="str">
-        <f>VLOOKUP(AF29,$A:$D,2,0)&amp;","&amp;AG29</f>
+        <f t="shared" si="27"/>
         <v>prop,105,1</v>
       </c>
       <c r="AI40" s="3" t="str">
-        <f>VLOOKUP(AI29,$A:$D,2,0)&amp;","&amp;AJ29</f>
+        <f t="shared" si="28"/>
         <v>prop,105,1</v>
       </c>
       <c r="AL40" s="3" t="str">
-        <f>VLOOKUP(AL29,$A:$D,2,0)&amp;","&amp;AM29</f>
+        <f t="shared" si="29"/>
         <v>prop,105,1</v>
       </c>
       <c r="AO40" s="3" t="str">
-        <f>VLOOKUP(AO29,$A:$D,2,0)&amp;","&amp;AP29</f>
+        <f t="shared" si="30"/>
         <v>prop,105,1</v>
       </c>
       <c r="AR40" s="3" t="str">
-        <f>VLOOKUP(AR29,$A:$D,2,0)&amp;","&amp;AS29</f>
+        <f t="shared" si="31"/>
         <v>prop,105,1</v>
       </c>
       <c r="AU40" s="3">
@@ -14007,11 +14079,11 @@
         <v>6</v>
       </c>
       <c r="G41" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="H41" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I41" s="6">
@@ -14027,66 +14099,66 @@
         <v>50</v>
       </c>
       <c r="M41" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H41,$V$16:$AR$20,G41*3+2,0),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N41" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H41,$V$10:$AR$14,G41*3+2,0),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="O41" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H41,$V$46:$AR$55,G41*3+2,0),"")</f>
+        <f t="shared" si="19"/>
         <v>item,103,1</v>
       </c>
       <c r="P41" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H41,$V$35:$AR$44,G41*3+2,0),"")</f>
+        <f t="shared" si="20"/>
         <v>pack,303,1</v>
       </c>
       <c r="Q41" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H41,$V$80:$AR$89,G41*3+2,0),"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="R41" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H41,$V$69:$AR$78,G41*3+2,0),"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="S41" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V41" s="3">
         <v>7</v>
       </c>
       <c r="W41" s="3" t="str">
-        <f>VLOOKUP(W30,$A:$D,2,0)&amp;","&amp;X30</f>
+        <f t="shared" si="24"/>
         <v>stam,12</v>
       </c>
       <c r="Z41" s="3" t="str">
-        <f>VLOOKUP(Z30,$A:$D,2,0)&amp;","&amp;AA30</f>
+        <f t="shared" si="25"/>
         <v>stam,12</v>
       </c>
       <c r="AC41" s="3" t="str">
-        <f>VLOOKUP(AC30,$A:$D,2,0)&amp;","&amp;AD30</f>
+        <f t="shared" si="26"/>
         <v>stam,12</v>
       </c>
       <c r="AF41" s="3" t="str">
-        <f>VLOOKUP(AF30,$A:$D,2,0)&amp;","&amp;AG30</f>
+        <f t="shared" si="27"/>
         <v>stam,12</v>
       </c>
       <c r="AI41" s="3" t="str">
-        <f>VLOOKUP(AI30,$A:$D,2,0)&amp;","&amp;AJ30</f>
+        <f t="shared" si="28"/>
         <v>stam,12</v>
       </c>
       <c r="AL41" s="3" t="str">
-        <f>VLOOKUP(AL30,$A:$D,2,0)&amp;","&amp;AM30</f>
+        <f t="shared" si="29"/>
         <v>stam,12</v>
       </c>
       <c r="AO41" s="3" t="str">
-        <f>VLOOKUP(AO30,$A:$D,2,0)&amp;","&amp;AP30</f>
+        <f t="shared" si="30"/>
         <v>stam,12</v>
       </c>
       <c r="AR41" s="3" t="str">
-        <f>VLOOKUP(AR30,$A:$D,2,0)&amp;","&amp;AS30</f>
+        <f t="shared" si="31"/>
         <v>stam,12</v>
       </c>
       <c r="AU41" s="3">
@@ -14115,11 +14187,11 @@
         <v>9</v>
       </c>
       <c r="G42" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="H42" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="I42" s="6">
@@ -14135,66 +14207,66 @@
         <v>50</v>
       </c>
       <c r="M42" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H42,$V$16:$AR$20,G42*3+2,0),"")</f>
-        <v>prop,809,1</v>
+        <f t="shared" si="17"/>
+        <v>item,104,1</v>
       </c>
       <c r="N42" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H42,$V$10:$AR$14,G42*3+2,0),"")</f>
-        <v>prop,809,1</v>
+        <f t="shared" si="18"/>
+        <v>pack,304,1</v>
       </c>
       <c r="O42" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H42,$V$46:$AR$55,G42*3+2,0),"")</f>
+        <f t="shared" si="19"/>
         <v>prop,540,10</v>
       </c>
       <c r="P42" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H42,$V$35:$AR$44,G42*3+2,0),"")</f>
+        <f t="shared" si="20"/>
         <v>prop,540,10</v>
       </c>
       <c r="Q42" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H42,$V$80:$AR$89,G42*3+2,0),"")</f>
+        <f t="shared" si="21"/>
         <v>prop,705,1</v>
       </c>
       <c r="R42" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H42,$V$69:$AR$78,G42*3+2,0),"")</f>
+        <f t="shared" si="22"/>
         <v>prop,705,1</v>
       </c>
       <c r="S42" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="V42" s="3">
         <v>8</v>
       </c>
       <c r="W42" s="3" t="str">
-        <f>VLOOKUP(W31,$A:$D,2,0)&amp;","&amp;X31</f>
+        <f t="shared" si="24"/>
         <v>coin,5000</v>
       </c>
       <c r="Z42" s="3" t="str">
-        <f>VLOOKUP(Z31,$A:$D,2,0)&amp;","&amp;AA31</f>
+        <f t="shared" si="25"/>
         <v>coin,5000</v>
       </c>
       <c r="AC42" s="3" t="str">
-        <f>VLOOKUP(AC31,$A:$D,2,0)&amp;","&amp;AD31</f>
+        <f t="shared" si="26"/>
         <v>coin,5000</v>
       </c>
       <c r="AF42" s="3" t="str">
-        <f>VLOOKUP(AF31,$A:$D,2,0)&amp;","&amp;AG31</f>
+        <f t="shared" si="27"/>
         <v>coin,5000</v>
       </c>
       <c r="AI42" s="3" t="str">
-        <f>VLOOKUP(AI31,$A:$D,2,0)&amp;","&amp;AJ31</f>
+        <f t="shared" si="28"/>
         <v>coin,5000</v>
       </c>
       <c r="AL42" s="3" t="str">
-        <f>VLOOKUP(AL31,$A:$D,2,0)&amp;","&amp;AM31</f>
+        <f t="shared" si="29"/>
         <v>coin,5000</v>
       </c>
       <c r="AO42" s="3" t="str">
-        <f>VLOOKUP(AO31,$A:$D,2,0)&amp;","&amp;AP31</f>
+        <f t="shared" si="30"/>
         <v>coin,5000</v>
       </c>
       <c r="AR42" s="3" t="str">
-        <f>VLOOKUP(AR31,$A:$D,2,0)&amp;","&amp;AS31</f>
+        <f t="shared" si="31"/>
         <v>coin,5000</v>
       </c>
       <c r="AU42" s="3">
@@ -14223,11 +14295,11 @@
         <v>15</v>
       </c>
       <c r="G43" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="H43" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="I43" s="6">
@@ -14243,66 +14315,66 @@
         <v>50</v>
       </c>
       <c r="M43" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H43,$V$16:$AR$20,G43*3+2,0),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N43" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H43,$V$10:$AR$14,G43*3+2,0),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="O43" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H43,$V$46:$AR$55,G43*3+2,0),"")</f>
+        <f t="shared" si="19"/>
         <v>stam,12</v>
       </c>
       <c r="P43" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H43,$V$35:$AR$44,G43*3+2,0),"")</f>
+        <f t="shared" si="20"/>
         <v>stam,12</v>
       </c>
       <c r="Q43" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H43,$V$80:$AR$89,G43*3+2,0),"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="R43" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H43,$V$69:$AR$78,G43*3+2,0),"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="S43" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V43" s="3">
         <v>9</v>
       </c>
       <c r="W43" s="3" t="str">
-        <f>VLOOKUP(W32,$A:$D,2,0)&amp;","&amp;X32</f>
+        <f t="shared" si="24"/>
         <v>pack,303,1</v>
       </c>
       <c r="Z43" s="3" t="str">
-        <f>VLOOKUP(Z32,$A:$D,2,0)&amp;","&amp;AA32</f>
+        <f t="shared" si="25"/>
         <v>pack,303,1</v>
       </c>
       <c r="AC43" s="3" t="str">
-        <f>VLOOKUP(AC32,$A:$D,2,0)&amp;","&amp;AD32</f>
+        <f t="shared" si="26"/>
         <v>pack,303,1</v>
       </c>
       <c r="AF43" s="3" t="str">
-        <f>VLOOKUP(AF32,$A:$D,2,0)&amp;","&amp;AG32</f>
+        <f t="shared" si="27"/>
         <v>pack,303,1</v>
       </c>
       <c r="AI43" s="3" t="str">
-        <f>VLOOKUP(AI32,$A:$D,2,0)&amp;","&amp;AJ32</f>
+        <f t="shared" si="28"/>
         <v>pack,303,1</v>
       </c>
       <c r="AL43" s="3" t="str">
-        <f>VLOOKUP(AL32,$A:$D,2,0)&amp;","&amp;AM32</f>
+        <f t="shared" si="29"/>
         <v>pack,303,1</v>
       </c>
       <c r="AO43" s="3" t="str">
-        <f>VLOOKUP(AO32,$A:$D,2,0)&amp;","&amp;AP32</f>
+        <f t="shared" si="30"/>
         <v>pack,303,1</v>
       </c>
       <c r="AR43" s="3" t="str">
-        <f>VLOOKUP(AR32,$A:$D,2,0)&amp;","&amp;AS32</f>
+        <f t="shared" si="31"/>
         <v>pack,303,1</v>
       </c>
     </row>
@@ -14328,11 +14400,11 @@
         <v>30</v>
       </c>
       <c r="G44" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="H44" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="I44" s="6">
@@ -14348,66 +14420,66 @@
         <v>50</v>
       </c>
       <c r="M44" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H44,$V$16:$AR$20,G44*3+2,0),"")</f>
+        <f t="shared" si="17"/>
         <v>coin,5000</v>
       </c>
       <c r="N44" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H44,$V$10:$AR$14,G44*3+2,0),"")</f>
+        <f t="shared" si="18"/>
         <v>coin,5000</v>
       </c>
       <c r="O44" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H44,$V$46:$AR$55,G44*3+2,0),"")</f>
+        <f t="shared" si="19"/>
         <v>coin,5000</v>
       </c>
       <c r="P44" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H44,$V$35:$AR$44,G44*3+2,0),"")</f>
+        <f t="shared" si="20"/>
         <v>coin,5000</v>
       </c>
       <c r="Q44" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H44,$V$80:$AR$89,G44*3+2,0),"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="R44" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H44,$V$69:$AR$78,G44*3+2,0),"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="S44" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V44" s="3">
         <v>10</v>
       </c>
       <c r="W44" s="3" t="str">
-        <f>VLOOKUP(W33,$A:$D,2,0)&amp;","&amp;X33</f>
+        <f t="shared" si="24"/>
         <v>prop,540,5</v>
       </c>
       <c r="Z44" s="3" t="str">
-        <f>VLOOKUP(Z33,$A:$D,2,0)&amp;","&amp;AA33</f>
+        <f t="shared" si="25"/>
         <v>prop,540,10</v>
       </c>
       <c r="AC44" s="3" t="str">
-        <f>VLOOKUP(AC33,$A:$D,2,0)&amp;","&amp;AD33</f>
+        <f t="shared" si="26"/>
         <v>prop,540,5</v>
       </c>
       <c r="AF44" s="3" t="str">
-        <f>VLOOKUP(AF33,$A:$D,2,0)&amp;","&amp;AG33</f>
+        <f t="shared" si="27"/>
         <v>prop,540,10</v>
       </c>
       <c r="AI44" s="3" t="str">
-        <f>VLOOKUP(AI33,$A:$D,2,0)&amp;","&amp;AJ33</f>
+        <f t="shared" si="28"/>
         <v>prop,540,5</v>
       </c>
       <c r="AL44" s="3" t="str">
-        <f>VLOOKUP(AL33,$A:$D,2,0)&amp;","&amp;AM33</f>
+        <f t="shared" si="29"/>
         <v>prop,540,10</v>
       </c>
       <c r="AO44" s="3" t="str">
-        <f>VLOOKUP(AO33,$A:$D,2,0)&amp;","&amp;AP33</f>
+        <f t="shared" si="30"/>
         <v>prop,540,5</v>
       </c>
       <c r="AR44" s="3" t="str">
-        <f>VLOOKUP(AR33,$A:$D,2,0)&amp;","&amp;AS33</f>
+        <f t="shared" si="31"/>
         <v>prop,540,10</v>
       </c>
     </row>
@@ -14433,11 +14505,11 @@
         <v>60</v>
       </c>
       <c r="G45" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="H45" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="I45" s="6">
@@ -14453,31 +14525,31 @@
         <v>50</v>
       </c>
       <c r="M45" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H45,$V$16:$AR$20,G45*3+2,0),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N45" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H45,$V$10:$AR$14,G45*3+2,0),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="O45" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H45,$V$46:$AR$55,G45*3+2,0),"")</f>
+        <f t="shared" si="19"/>
         <v>prop,105,1</v>
       </c>
       <c r="P45" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H45,$V$35:$AR$44,G45*3+2,0),"")</f>
+        <f t="shared" si="20"/>
         <v>prop,105,1</v>
       </c>
       <c r="Q45" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H45,$V$80:$AR$89,G45*3+2,0),"")</f>
+        <f t="shared" si="21"/>
         <v>prop,403,2</v>
       </c>
       <c r="R45" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H45,$V$69:$AR$78,G45*3+2,0),"")</f>
+        <f t="shared" si="22"/>
         <v>prop,403,2</v>
       </c>
       <c r="S45" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -14503,11 +14575,11 @@
         <v>30</v>
       </c>
       <c r="G46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="H46" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="I46" s="6">
@@ -14523,66 +14595,66 @@
         <v>50</v>
       </c>
       <c r="M46" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H46,$V$16:$AR$20,G46*3+2,0),"")</f>
+        <f t="shared" si="17"/>
         <v>prop,801,8</v>
       </c>
       <c r="N46" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H46,$V$10:$AR$14,G46*3+2,0),"")</f>
+        <f t="shared" si="18"/>
         <v>prop,801,8</v>
       </c>
       <c r="O46" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H46,$V$46:$AR$55,G46*3+2,0),"")</f>
+        <f t="shared" si="19"/>
         <v>stage_token,500</v>
       </c>
       <c r="P46" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H46,$V$35:$AR$44,G46*3+2,0),"")</f>
+        <f t="shared" si="20"/>
         <v>stage_token,500</v>
       </c>
       <c r="Q46" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H46,$V$80:$AR$89,G46*3+2,0),"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="R46" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H46,$V$69:$AR$78,G46*3+2,0),"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="S46" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V46" s="3">
         <v>1</v>
       </c>
       <c r="W46" s="3" t="str">
-        <f>VLOOKUP(W24,$A:$D,3,0)&amp;","&amp;X24</f>
+        <f t="shared" ref="W46:W55" si="32">VLOOKUP(W24,$A:$D,3,0)&amp;","&amp;X24</f>
         <v>stam,12</v>
       </c>
       <c r="Z46" s="3" t="str">
-        <f>VLOOKUP(Z24,$A:$D,3,0)&amp;","&amp;AA24</f>
+        <f t="shared" ref="Z46:Z55" si="33">VLOOKUP(Z24,$A:$D,3,0)&amp;","&amp;AA24</f>
         <v>stam,12</v>
       </c>
       <c r="AC46" s="3" t="str">
-        <f>VLOOKUP(AC24,$A:$D,3,0)&amp;","&amp;AD24</f>
+        <f t="shared" ref="AC46:AC55" si="34">VLOOKUP(AC24,$A:$D,3,0)&amp;","&amp;AD24</f>
         <v>stam,12</v>
       </c>
       <c r="AF46" s="3" t="str">
-        <f>VLOOKUP(AF24,$A:$D,3,0)&amp;","&amp;AG24</f>
+        <f t="shared" ref="AF46:AF55" si="35">VLOOKUP(AF24,$A:$D,3,0)&amp;","&amp;AG24</f>
         <v>stam,12</v>
       </c>
       <c r="AI46" s="3" t="str">
-        <f>VLOOKUP(AI24,$A:$D,3,0)&amp;","&amp;AJ24</f>
+        <f t="shared" ref="AI46:AI55" si="36">VLOOKUP(AI24,$A:$D,3,0)&amp;","&amp;AJ24</f>
         <v>stam,12</v>
       </c>
       <c r="AL46" s="3" t="str">
-        <f>VLOOKUP(AL24,$A:$D,3,0)&amp;","&amp;AM24</f>
+        <f t="shared" ref="AL46:AL55" si="37">VLOOKUP(AL24,$A:$D,3,0)&amp;","&amp;AM24</f>
         <v>stam,12</v>
       </c>
       <c r="AO46" s="3" t="str">
-        <f>VLOOKUP(AO24,$A:$D,3,0)&amp;","&amp;AP24</f>
+        <f t="shared" ref="AO46:AO55" si="38">VLOOKUP(AO24,$A:$D,3,0)&amp;","&amp;AP24</f>
         <v>stam,12</v>
       </c>
       <c r="AR46" s="3" t="str">
-        <f>VLOOKUP(AR24,$A:$D,3,0)&amp;","&amp;AS24</f>
+        <f t="shared" ref="AR46:AR55" si="39">VLOOKUP(AR24,$A:$D,3,0)&amp;","&amp;AS24</f>
         <v>stam,12</v>
       </c>
     </row>
@@ -14608,11 +14680,11 @@
         <v>30</v>
       </c>
       <c r="G47" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="H47" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="I47" s="6">
@@ -14628,66 +14700,66 @@
         <v>50</v>
       </c>
       <c r="M47" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H47,$V$16:$AR$20,G47*3+2,0),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N47" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H47,$V$10:$AR$14,G47*3+2,0),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="O47" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H47,$V$46:$AR$55,G47*3+2,0),"")</f>
+        <f t="shared" si="19"/>
         <v>item,103,1</v>
       </c>
       <c r="P47" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H47,$V$35:$AR$44,G47*3+2,0),"")</f>
+        <f t="shared" si="20"/>
         <v>pack,303,1</v>
       </c>
       <c r="Q47" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H47,$V$80:$AR$89,G47*3+2,0),"")</f>
+        <f t="shared" si="21"/>
         <v>cash,100</v>
       </c>
       <c r="R47" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H47,$V$69:$AR$78,G47*3+2,0),"")</f>
+        <f t="shared" si="22"/>
         <v>cash,100</v>
       </c>
       <c r="S47" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V47" s="3">
         <v>2</v>
       </c>
       <c r="W47" s="3" t="str">
-        <f>VLOOKUP(W25,$A:$D,3,0)&amp;","&amp;X25</f>
+        <f t="shared" si="32"/>
         <v>coin,5000</v>
       </c>
       <c r="Z47" s="3" t="str">
-        <f>VLOOKUP(Z25,$A:$D,3,0)&amp;","&amp;AA25</f>
+        <f t="shared" si="33"/>
         <v>coin,5000</v>
       </c>
       <c r="AC47" s="3" t="str">
-        <f>VLOOKUP(AC25,$A:$D,3,0)&amp;","&amp;AD25</f>
+        <f t="shared" si="34"/>
         <v>coin,5000</v>
       </c>
       <c r="AF47" s="3" t="str">
-        <f>VLOOKUP(AF25,$A:$D,3,0)&amp;","&amp;AG25</f>
+        <f t="shared" si="35"/>
         <v>coin,5000</v>
       </c>
       <c r="AI47" s="3" t="str">
-        <f>VLOOKUP(AI25,$A:$D,3,0)&amp;","&amp;AJ25</f>
+        <f t="shared" si="36"/>
         <v>coin,5000</v>
       </c>
       <c r="AL47" s="3" t="str">
-        <f>VLOOKUP(AL25,$A:$D,3,0)&amp;","&amp;AM25</f>
+        <f t="shared" si="37"/>
         <v>coin,5000</v>
       </c>
       <c r="AO47" s="3" t="str">
-        <f>VLOOKUP(AO25,$A:$D,3,0)&amp;","&amp;AP25</f>
+        <f t="shared" si="38"/>
         <v>coin,5000</v>
       </c>
       <c r="AR47" s="3" t="str">
-        <f>VLOOKUP(AR25,$A:$D,3,0)&amp;","&amp;AS25</f>
+        <f t="shared" si="39"/>
         <v>coin,5000</v>
       </c>
     </row>
@@ -14713,11 +14785,11 @@
         <v>30</v>
       </c>
       <c r="G48" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="H48" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="I48" s="6">
@@ -14733,66 +14805,66 @@
         <v>50</v>
       </c>
       <c r="M48" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H48,$V$16:$AR$20,G48*3+2,0),"")</f>
+        <f t="shared" si="17"/>
         <v>prop,105,2</v>
       </c>
       <c r="N48" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H48,$V$10:$AR$14,G48*3+2,0),"")</f>
+        <f t="shared" si="18"/>
         <v>prop,105,2</v>
       </c>
       <c r="O48" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H48,$V$46:$AR$55,G48*3+2,0),"")</f>
+        <f t="shared" si="19"/>
         <v>prop,105,1</v>
       </c>
       <c r="P48" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H48,$V$35:$AR$44,G48*3+2,0),"")</f>
+        <f t="shared" si="20"/>
         <v>prop,105,1</v>
       </c>
       <c r="Q48" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H48,$V$80:$AR$89,G48*3+2,0),"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="R48" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H48,$V$69:$AR$78,G48*3+2,0),"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="S48" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V48" s="3">
         <v>3</v>
       </c>
       <c r="W48" s="3" t="str">
-        <f>VLOOKUP(W26,$A:$D,3,0)&amp;","&amp;X26</f>
+        <f t="shared" si="32"/>
         <v>prop,105,1</v>
       </c>
       <c r="Z48" s="3" t="str">
-        <f>VLOOKUP(Z26,$A:$D,3,0)&amp;","&amp;AA26</f>
+        <f t="shared" si="33"/>
         <v>prop,105,1</v>
       </c>
       <c r="AC48" s="3" t="str">
-        <f>VLOOKUP(AC26,$A:$D,3,0)&amp;","&amp;AD26</f>
+        <f t="shared" si="34"/>
         <v>prop,105,1</v>
       </c>
       <c r="AF48" s="3" t="str">
-        <f>VLOOKUP(AF26,$A:$D,3,0)&amp;","&amp;AG26</f>
+        <f t="shared" si="35"/>
         <v>prop,105,1</v>
       </c>
       <c r="AI48" s="3" t="str">
-        <f>VLOOKUP(AI26,$A:$D,3,0)&amp;","&amp;AJ26</f>
+        <f t="shared" si="36"/>
         <v>prop,105,1</v>
       </c>
       <c r="AL48" s="3" t="str">
-        <f>VLOOKUP(AL26,$A:$D,3,0)&amp;","&amp;AM26</f>
+        <f t="shared" si="37"/>
         <v>prop,105,1</v>
       </c>
       <c r="AO48" s="3" t="str">
-        <f>VLOOKUP(AO26,$A:$D,3,0)&amp;","&amp;AP26</f>
+        <f t="shared" si="38"/>
         <v>prop,105,1</v>
       </c>
       <c r="AR48" s="3" t="str">
-        <f>VLOOKUP(AR26,$A:$D,3,0)&amp;","&amp;AS26</f>
+        <f t="shared" si="39"/>
         <v>prop,105,1</v>
       </c>
     </row>
@@ -14818,11 +14890,11 @@
         <v>30</v>
       </c>
       <c r="G49" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="H49" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I49" s="6">
@@ -14838,66 +14910,66 @@
         <v>50</v>
       </c>
       <c r="M49" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H49,$V$16:$AR$20,G49*3+2,0),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N49" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H49,$V$10:$AR$14,G49*3+2,0),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="O49" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H49,$V$46:$AR$55,G49*3+2,0),"")</f>
+        <f t="shared" si="19"/>
         <v>stam,12</v>
       </c>
       <c r="P49" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H49,$V$35:$AR$44,G49*3+2,0),"")</f>
+        <f t="shared" si="20"/>
         <v>stam,12</v>
       </c>
       <c r="Q49" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H49,$V$80:$AR$89,G49*3+2,0),"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="R49" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H49,$V$69:$AR$78,G49*3+2,0),"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="S49" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V49" s="3">
         <v>4</v>
       </c>
       <c r="W49" s="3" t="str">
-        <f>VLOOKUP(W27,$A:$D,3,0)&amp;","&amp;X27</f>
+        <f t="shared" si="32"/>
         <v>stage_token,500</v>
       </c>
       <c r="Z49" s="3" t="str">
-        <f>VLOOKUP(Z27,$A:$D,3,0)&amp;","&amp;AA27</f>
+        <f t="shared" si="33"/>
         <v>stage_token,500</v>
       </c>
       <c r="AC49" s="3" t="str">
-        <f>VLOOKUP(AC27,$A:$D,3,0)&amp;","&amp;AD27</f>
+        <f t="shared" si="34"/>
         <v>stage_token,500</v>
       </c>
       <c r="AF49" s="3" t="str">
-        <f>VLOOKUP(AF27,$A:$D,3,0)&amp;","&amp;AG27</f>
+        <f t="shared" si="35"/>
         <v>stage_token,500</v>
       </c>
       <c r="AI49" s="3" t="str">
-        <f>VLOOKUP(AI27,$A:$D,3,0)&amp;","&amp;AJ27</f>
+        <f t="shared" si="36"/>
         <v>stage_token,500</v>
       </c>
       <c r="AL49" s="3" t="str">
-        <f>VLOOKUP(AL27,$A:$D,3,0)&amp;","&amp;AM27</f>
+        <f t="shared" si="37"/>
         <v>stage_token,500</v>
       </c>
       <c r="AO49" s="3" t="str">
-        <f>VLOOKUP(AO27,$A:$D,3,0)&amp;","&amp;AP27</f>
+        <f t="shared" si="38"/>
         <v>stage_token,500</v>
       </c>
       <c r="AR49" s="3" t="str">
-        <f>VLOOKUP(AR27,$A:$D,3,0)&amp;","&amp;AS27</f>
+        <f t="shared" si="39"/>
         <v>stage_token,500</v>
       </c>
     </row>
@@ -14923,11 +14995,11 @@
         <v>60</v>
       </c>
       <c r="G50" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="H50" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="I50" s="6">
@@ -14943,66 +15015,66 @@
         <v>50</v>
       </c>
       <c r="M50" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H50,$V$16:$AR$20,G50*3+2,0),"")</f>
+        <f t="shared" si="17"/>
         <v>prop,701,2</v>
       </c>
       <c r="N50" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H50,$V$10:$AR$14,G50*3+2,0),"")</f>
+        <f t="shared" si="18"/>
         <v>prop,701,2</v>
       </c>
       <c r="O50" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H50,$V$46:$AR$55,G50*3+2,0),"")</f>
+        <f t="shared" si="19"/>
         <v>coin,5000</v>
       </c>
       <c r="P50" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H50,$V$35:$AR$44,G50*3+2,0),"")</f>
+        <f t="shared" si="20"/>
         <v>coin,5000</v>
       </c>
       <c r="Q50" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H50,$V$80:$AR$89,G50*3+2,0),"")</f>
+        <f t="shared" si="21"/>
         <v>prop,704,10</v>
       </c>
       <c r="R50" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H50,$V$69:$AR$78,G50*3+2,0),"")</f>
+        <f t="shared" si="22"/>
         <v>prop,704,10</v>
       </c>
       <c r="S50" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V50" s="3">
         <v>5</v>
       </c>
       <c r="W50" s="3" t="str">
-        <f>VLOOKUP(W28,$A:$D,3,0)&amp;","&amp;X28</f>
+        <f t="shared" si="32"/>
         <v>item,103,1</v>
       </c>
       <c r="Z50" s="3" t="str">
-        <f>VLOOKUP(Z28,$A:$D,3,0)&amp;","&amp;AA28</f>
+        <f t="shared" si="33"/>
         <v>item,103,1</v>
       </c>
       <c r="AC50" s="3" t="str">
-        <f>VLOOKUP(AC28,$A:$D,3,0)&amp;","&amp;AD28</f>
+        <f t="shared" si="34"/>
         <v>item,103,1</v>
       </c>
       <c r="AF50" s="3" t="str">
-        <f>VLOOKUP(AF28,$A:$D,3,0)&amp;","&amp;AG28</f>
+        <f t="shared" si="35"/>
         <v>item,103,1</v>
       </c>
       <c r="AI50" s="3" t="str">
-        <f>VLOOKUP(AI28,$A:$D,3,0)&amp;","&amp;AJ28</f>
+        <f t="shared" si="36"/>
         <v>item,103,1</v>
       </c>
       <c r="AL50" s="3" t="str">
-        <f>VLOOKUP(AL28,$A:$D,3,0)&amp;","&amp;AM28</f>
+        <f t="shared" si="37"/>
         <v>item,103,1</v>
       </c>
       <c r="AO50" s="3" t="str">
-        <f>VLOOKUP(AO28,$A:$D,3,0)&amp;","&amp;AP28</f>
+        <f t="shared" si="38"/>
         <v>item,103,1</v>
       </c>
       <c r="AR50" s="3" t="str">
-        <f>VLOOKUP(AR28,$A:$D,3,0)&amp;","&amp;AS28</f>
+        <f t="shared" si="39"/>
         <v>item,103,1</v>
       </c>
     </row>
@@ -15028,11 +15100,11 @@
         <v>60</v>
       </c>
       <c r="G51" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="H51" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I51" s="6">
@@ -15048,66 +15120,66 @@
         <v>50</v>
       </c>
       <c r="M51" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H51,$V$16:$AR$20,G51*3+2,0),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N51" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H51,$V$10:$AR$14,G51*3+2,0),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="O51" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H51,$V$46:$AR$55,G51*3+2,0),"")</f>
+        <f t="shared" si="19"/>
         <v>item,103,1</v>
       </c>
       <c r="P51" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H51,$V$35:$AR$44,G51*3+2,0),"")</f>
+        <f t="shared" si="20"/>
         <v>pack,303,1</v>
       </c>
       <c r="Q51" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H51,$V$80:$AR$89,G51*3+2,0),"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="R51" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H51,$V$69:$AR$78,G51*3+2,0),"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="S51" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V51" s="3">
         <v>6</v>
       </c>
       <c r="W51" s="3" t="str">
-        <f>VLOOKUP(W29,$A:$D,3,0)&amp;","&amp;X29</f>
+        <f t="shared" si="32"/>
         <v>prop,105,1</v>
       </c>
       <c r="Z51" s="3" t="str">
-        <f>VLOOKUP(Z29,$A:$D,3,0)&amp;","&amp;AA29</f>
+        <f t="shared" si="33"/>
         <v>prop,105,1</v>
       </c>
       <c r="AC51" s="3" t="str">
-        <f>VLOOKUP(AC29,$A:$D,3,0)&amp;","&amp;AD29</f>
+        <f t="shared" si="34"/>
         <v>prop,105,1</v>
       </c>
       <c r="AF51" s="3" t="str">
-        <f>VLOOKUP(AF29,$A:$D,3,0)&amp;","&amp;AG29</f>
+        <f t="shared" si="35"/>
         <v>prop,105,1</v>
       </c>
       <c r="AI51" s="3" t="str">
-        <f>VLOOKUP(AI29,$A:$D,3,0)&amp;","&amp;AJ29</f>
+        <f t="shared" si="36"/>
         <v>prop,105,1</v>
       </c>
       <c r="AL51" s="3" t="str">
-        <f>VLOOKUP(AL29,$A:$D,3,0)&amp;","&amp;AM29</f>
+        <f t="shared" si="37"/>
         <v>prop,105,1</v>
       </c>
       <c r="AO51" s="3" t="str">
-        <f>VLOOKUP(AO29,$A:$D,3,0)&amp;","&amp;AP29</f>
+        <f t="shared" si="38"/>
         <v>prop,105,1</v>
       </c>
       <c r="AR51" s="3" t="str">
-        <f>VLOOKUP(AR29,$A:$D,3,0)&amp;","&amp;AS29</f>
+        <f t="shared" si="39"/>
         <v>prop,105,1</v>
       </c>
     </row>
@@ -15133,11 +15205,11 @@
         <v>60</v>
       </c>
       <c r="G52" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="H52" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="I52" s="6">
@@ -15153,66 +15225,66 @@
         <v>50</v>
       </c>
       <c r="M52" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H52,$V$16:$AR$20,G52*3+2,0),"")</f>
+        <f t="shared" si="17"/>
         <v>prop,704,10</v>
       </c>
       <c r="N52" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H52,$V$10:$AR$14,G52*3+2,0),"")</f>
+        <f t="shared" si="18"/>
         <v>prop,704,10</v>
       </c>
       <c r="O52" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H52,$V$46:$AR$55,G52*3+2,0),"")</f>
+        <f t="shared" si="19"/>
         <v>prop,540,5</v>
       </c>
       <c r="P52" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H52,$V$35:$AR$44,G52*3+2,0),"")</f>
+        <f t="shared" si="20"/>
         <v>prop,540,5</v>
       </c>
       <c r="Q52" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H52,$V$80:$AR$89,G52*3+2,0),"")</f>
+        <f t="shared" si="21"/>
         <v>prop,702,1</v>
       </c>
       <c r="R52" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H52,$V$69:$AR$78,G52*3+2,0),"")</f>
+        <f t="shared" si="22"/>
         <v>prop,702,1</v>
       </c>
       <c r="S52" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="V52" s="3">
         <v>7</v>
       </c>
       <c r="W52" s="3" t="str">
-        <f>VLOOKUP(W30,$A:$D,3,0)&amp;","&amp;X30</f>
+        <f t="shared" si="32"/>
         <v>stam,12</v>
       </c>
       <c r="Z52" s="3" t="str">
-        <f>VLOOKUP(Z30,$A:$D,3,0)&amp;","&amp;AA30</f>
+        <f t="shared" si="33"/>
         <v>stam,12</v>
       </c>
       <c r="AC52" s="3" t="str">
-        <f>VLOOKUP(AC30,$A:$D,3,0)&amp;","&amp;AD30</f>
+        <f t="shared" si="34"/>
         <v>stam,12</v>
       </c>
       <c r="AF52" s="3" t="str">
-        <f>VLOOKUP(AF30,$A:$D,3,0)&amp;","&amp;AG30</f>
+        <f t="shared" si="35"/>
         <v>stam,12</v>
       </c>
       <c r="AI52" s="3" t="str">
-        <f>VLOOKUP(AI30,$A:$D,3,0)&amp;","&amp;AJ30</f>
+        <f t="shared" si="36"/>
         <v>stam,12</v>
       </c>
       <c r="AL52" s="3" t="str">
-        <f>VLOOKUP(AL30,$A:$D,3,0)&amp;","&amp;AM30</f>
+        <f t="shared" si="37"/>
         <v>stam,12</v>
       </c>
       <c r="AO52" s="3" t="str">
-        <f>VLOOKUP(AO30,$A:$D,3,0)&amp;","&amp;AP30</f>
+        <f t="shared" si="38"/>
         <v>stam,12</v>
       </c>
       <c r="AR52" s="3" t="str">
-        <f>VLOOKUP(AR30,$A:$D,3,0)&amp;","&amp;AS30</f>
+        <f t="shared" si="39"/>
         <v>stam,12</v>
       </c>
     </row>
@@ -15238,11 +15310,11 @@
         <v>60</v>
       </c>
       <c r="G53" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="H53" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="I53" s="6">
@@ -15258,66 +15330,66 @@
         <v>50</v>
       </c>
       <c r="M53" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H53,$V$16:$AR$20,G53*3+2,0),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N53" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H53,$V$10:$AR$14,G53*3+2,0),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="O53" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H53,$V$46:$AR$55,G53*3+2,0),"")</f>
+        <f t="shared" si="19"/>
         <v>stam,12</v>
       </c>
       <c r="P53" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H53,$V$35:$AR$44,G53*3+2,0),"")</f>
+        <f t="shared" si="20"/>
         <v>stam,12</v>
       </c>
       <c r="Q53" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H53,$V$80:$AR$89,G53*3+2,0),"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="R53" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H53,$V$69:$AR$78,G53*3+2,0),"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="S53" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V53" s="3">
         <v>8</v>
       </c>
       <c r="W53" s="3" t="str">
-        <f>VLOOKUP(W31,$A:$D,3,0)&amp;","&amp;X31</f>
+        <f t="shared" si="32"/>
         <v>coin,5000</v>
       </c>
       <c r="Z53" s="3" t="str">
-        <f>VLOOKUP(Z31,$A:$D,3,0)&amp;","&amp;AA31</f>
+        <f t="shared" si="33"/>
         <v>coin,5000</v>
       </c>
       <c r="AC53" s="3" t="str">
-        <f>VLOOKUP(AC31,$A:$D,3,0)&amp;","&amp;AD31</f>
+        <f t="shared" si="34"/>
         <v>coin,5000</v>
       </c>
       <c r="AF53" s="3" t="str">
-        <f>VLOOKUP(AF31,$A:$D,3,0)&amp;","&amp;AG31</f>
+        <f t="shared" si="35"/>
         <v>coin,5000</v>
       </c>
       <c r="AI53" s="3" t="str">
-        <f>VLOOKUP(AI31,$A:$D,3,0)&amp;","&amp;AJ31</f>
+        <f t="shared" si="36"/>
         <v>coin,5000</v>
       </c>
       <c r="AL53" s="3" t="str">
-        <f>VLOOKUP(AL31,$A:$D,3,0)&amp;","&amp;AM31</f>
+        <f t="shared" si="37"/>
         <v>coin,5000</v>
       </c>
       <c r="AO53" s="3" t="str">
-        <f>VLOOKUP(AO31,$A:$D,3,0)&amp;","&amp;AP31</f>
+        <f t="shared" si="38"/>
         <v>coin,5000</v>
       </c>
       <c r="AR53" s="3" t="str">
-        <f>VLOOKUP(AR31,$A:$D,3,0)&amp;","&amp;AS31</f>
+        <f t="shared" si="39"/>
         <v>coin,5000</v>
       </c>
     </row>
@@ -15343,11 +15415,11 @@
         <v>60</v>
       </c>
       <c r="G54" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="H54" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="I54" s="6">
@@ -15363,66 +15435,66 @@
         <v>50</v>
       </c>
       <c r="M54" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H54,$V$16:$AR$20,G54*3+2,0),"")</f>
+        <f t="shared" si="17"/>
         <v>coin,5000</v>
       </c>
       <c r="N54" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H54,$V$10:$AR$14,G54*3+2,0),"")</f>
+        <f t="shared" si="18"/>
         <v>coin,5000</v>
       </c>
       <c r="O54" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H54,$V$46:$AR$55,G54*3+2,0),"")</f>
+        <f t="shared" si="19"/>
         <v>coin,5000</v>
       </c>
       <c r="P54" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H54,$V$35:$AR$44,G54*3+2,0),"")</f>
+        <f t="shared" si="20"/>
         <v>coin,5000</v>
       </c>
       <c r="Q54" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H54,$V$80:$AR$89,G54*3+2,0),"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="R54" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H54,$V$69:$AR$78,G54*3+2,0),"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="S54" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V54" s="3">
         <v>9</v>
       </c>
       <c r="W54" s="3" t="str">
-        <f>VLOOKUP(W32,$A:$D,3,0)&amp;","&amp;X32</f>
+        <f t="shared" si="32"/>
         <v>item,103,1</v>
       </c>
       <c r="Z54" s="3" t="str">
-        <f>VLOOKUP(Z32,$A:$D,3,0)&amp;","&amp;AA32</f>
+        <f t="shared" si="33"/>
         <v>item,103,1</v>
       </c>
       <c r="AC54" s="3" t="str">
-        <f>VLOOKUP(AC32,$A:$D,3,0)&amp;","&amp;AD32</f>
+        <f t="shared" si="34"/>
         <v>item,103,1</v>
       </c>
       <c r="AF54" s="3" t="str">
-        <f>VLOOKUP(AF32,$A:$D,3,0)&amp;","&amp;AG32</f>
+        <f t="shared" si="35"/>
         <v>item,103,1</v>
       </c>
       <c r="AI54" s="3" t="str">
-        <f>VLOOKUP(AI32,$A:$D,3,0)&amp;","&amp;AJ32</f>
+        <f t="shared" si="36"/>
         <v>item,103,1</v>
       </c>
       <c r="AL54" s="3" t="str">
-        <f>VLOOKUP(AL32,$A:$D,3,0)&amp;","&amp;AM32</f>
+        <f t="shared" si="37"/>
         <v>item,103,1</v>
       </c>
       <c r="AO54" s="3" t="str">
-        <f>VLOOKUP(AO32,$A:$D,3,0)&amp;","&amp;AP32</f>
+        <f t="shared" si="38"/>
         <v>item,103,1</v>
       </c>
       <c r="AR54" s="3" t="str">
-        <f>VLOOKUP(AR32,$A:$D,3,0)&amp;","&amp;AS32</f>
+        <f t="shared" si="39"/>
         <v>item,103,1</v>
       </c>
     </row>
@@ -15448,11 +15520,11 @@
         <v>150</v>
       </c>
       <c r="G55" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="H55" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="I55" s="6">
@@ -15468,66 +15540,66 @@
         <v>50</v>
       </c>
       <c r="M55" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H55,$V$16:$AR$20,G55*3+2,0),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N55" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H55,$V$10:$AR$14,G55*3+2,0),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="O55" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H55,$V$46:$AR$55,G55*3+2,0),"")</f>
+        <f t="shared" si="19"/>
         <v>prop,105,1</v>
       </c>
       <c r="P55" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H55,$V$35:$AR$44,G55*3+2,0),"")</f>
+        <f t="shared" si="20"/>
         <v>prop,105,1</v>
       </c>
       <c r="Q55" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H55,$V$80:$AR$89,G55*3+2,0),"")</f>
+        <f t="shared" si="21"/>
         <v>prop,403,2</v>
       </c>
       <c r="R55" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H55,$V$69:$AR$78,G55*3+2,0),"")</f>
+        <f t="shared" si="22"/>
         <v>prop,403,2</v>
       </c>
       <c r="S55" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V55" s="3">
         <v>10</v>
       </c>
       <c r="W55" s="3" t="str">
-        <f>VLOOKUP(W33,$A:$D,3,0)&amp;","&amp;X33</f>
+        <f t="shared" si="32"/>
         <v>prop,540,5</v>
       </c>
       <c r="Z55" s="3" t="str">
-        <f>VLOOKUP(Z33,$A:$D,3,0)&amp;","&amp;AA33</f>
+        <f t="shared" si="33"/>
         <v>prop,540,10</v>
       </c>
       <c r="AC55" s="3" t="str">
-        <f>VLOOKUP(AC33,$A:$D,3,0)&amp;","&amp;AD33</f>
+        <f t="shared" si="34"/>
         <v>prop,540,5</v>
       </c>
       <c r="AF55" s="3" t="str">
-        <f>VLOOKUP(AF33,$A:$D,3,0)&amp;","&amp;AG33</f>
+        <f t="shared" si="35"/>
         <v>prop,540,10</v>
       </c>
       <c r="AI55" s="3" t="str">
-        <f>VLOOKUP(AI33,$A:$D,3,0)&amp;","&amp;AJ33</f>
+        <f t="shared" si="36"/>
         <v>prop,540,5</v>
       </c>
       <c r="AL55" s="3" t="str">
-        <f>VLOOKUP(AL33,$A:$D,3,0)&amp;","&amp;AM33</f>
+        <f t="shared" si="37"/>
         <v>prop,540,10</v>
       </c>
       <c r="AO55" s="3" t="str">
-        <f>VLOOKUP(AO33,$A:$D,3,0)&amp;","&amp;AP33</f>
+        <f t="shared" si="38"/>
         <v>prop,540,5</v>
       </c>
       <c r="AR55" s="3" t="str">
-        <f>VLOOKUP(AR33,$A:$D,3,0)&amp;","&amp;AS33</f>
+        <f t="shared" si="39"/>
         <v>prop,540,10</v>
       </c>
     </row>
@@ -15553,11 +15625,11 @@
         <v>450</v>
       </c>
       <c r="G56" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="H56" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="I56" s="6">
@@ -15573,31 +15645,31 @@
         <v>50</v>
       </c>
       <c r="M56" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H56,$V$16:$AR$20,G56*3+2,0),"")</f>
+        <f t="shared" si="17"/>
         <v>prop,802,2</v>
       </c>
       <c r="N56" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H56,$V$10:$AR$14,G56*3+2,0),"")</f>
+        <f t="shared" si="18"/>
         <v>prop,802,2</v>
       </c>
       <c r="O56" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H56,$V$46:$AR$55,G56*3+2,0),"")</f>
+        <f t="shared" si="19"/>
         <v>stage_token,500</v>
       </c>
       <c r="P56" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H56,$V$35:$AR$44,G56*3+2,0),"")</f>
+        <f t="shared" si="20"/>
         <v>stage_token,500</v>
       </c>
       <c r="Q56" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H56,$V$80:$AR$89,G56*3+2,0),"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="R56" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H56,$V$69:$AR$78,G56*3+2,0),"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="S56" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -15623,11 +15695,11 @@
         <v>60</v>
       </c>
       <c r="G57" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="H57" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="I57" s="6">
@@ -15643,31 +15715,31 @@
         <v>50</v>
       </c>
       <c r="M57" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H57,$V$16:$AR$20,G57*3+2,0),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N57" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H57,$V$10:$AR$14,G57*3+2,0),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="O57" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H57,$V$46:$AR$55,G57*3+2,0),"")</f>
+        <f t="shared" si="19"/>
         <v>item,103,1</v>
       </c>
       <c r="P57" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H57,$V$35:$AR$44,G57*3+2,0),"")</f>
+        <f t="shared" si="20"/>
         <v>pack,303,1</v>
       </c>
       <c r="Q57" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H57,$V$80:$AR$89,G57*3+2,0),"")</f>
+        <f t="shared" si="21"/>
         <v>cash,100</v>
       </c>
       <c r="R57" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H57,$V$69:$AR$78,G57*3+2,0),"")</f>
+        <f t="shared" si="22"/>
         <v>cash,100</v>
       </c>
       <c r="S57" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V57" s="3" t="s">
@@ -15720,11 +15792,11 @@
         <v>150</v>
       </c>
       <c r="G58" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="H58" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="I58" s="6">
@@ -15740,31 +15812,31 @@
         <v>50</v>
       </c>
       <c r="M58" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H58,$V$16:$AR$20,G58*3+2,0),"")</f>
+        <f t="shared" si="17"/>
         <v>prop,105,2</v>
       </c>
       <c r="N58" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H58,$V$10:$AR$14,G58*3+2,0),"")</f>
+        <f t="shared" si="18"/>
         <v>prop,105,2</v>
       </c>
       <c r="O58" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H58,$V$46:$AR$55,G58*3+2,0),"")</f>
+        <f t="shared" si="19"/>
         <v>prop,105,1</v>
       </c>
       <c r="P58" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H58,$V$35:$AR$44,G58*3+2,0),"")</f>
+        <f t="shared" si="20"/>
         <v>prop,105,1</v>
       </c>
       <c r="Q58" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H58,$V$80:$AR$89,G58*3+2,0),"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="R58" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H58,$V$69:$AR$78,G58*3+2,0),"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="S58" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V58" s="3">
@@ -15793,11 +15865,11 @@
         <v>450</v>
       </c>
       <c r="G59" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="H59" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I59" s="6">
@@ -15813,31 +15885,31 @@
         <v>50</v>
       </c>
       <c r="M59" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H59,$V$16:$AR$20,G59*3+2,0),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N59" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H59,$V$10:$AR$14,G59*3+2,0),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="O59" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H59,$V$46:$AR$55,G59*3+2,0),"")</f>
+        <f t="shared" si="19"/>
         <v>stam,12</v>
       </c>
       <c r="P59" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H59,$V$35:$AR$44,G59*3+2,0),"")</f>
+        <f t="shared" si="20"/>
         <v>stam,12</v>
       </c>
       <c r="Q59" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H59,$V$80:$AR$89,G59*3+2,0),"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="R59" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H59,$V$69:$AR$78,G59*3+2,0),"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="S59" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V59" s="3">
@@ -15886,11 +15958,11 @@
         <v>60</v>
       </c>
       <c r="G60" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="H60" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="I60" s="6">
@@ -15906,38 +15978,38 @@
         <v>50</v>
       </c>
       <c r="M60" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H60,$V$16:$AR$20,G60*3+2,0),"")</f>
+        <f t="shared" si="17"/>
         <v>prop,403,1</v>
       </c>
       <c r="N60" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H60,$V$10:$AR$14,G60*3+2,0),"")</f>
+        <f t="shared" si="18"/>
         <v>prop,403,1</v>
       </c>
       <c r="O60" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H60,$V$46:$AR$55,G60*3+2,0),"")</f>
+        <f t="shared" si="19"/>
         <v>coin,5000</v>
       </c>
       <c r="P60" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H60,$V$35:$AR$44,G60*3+2,0),"")</f>
+        <f t="shared" si="20"/>
         <v>coin,5000</v>
       </c>
       <c r="Q60" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H60,$V$80:$AR$89,G60*3+2,0),"")</f>
+        <f t="shared" si="21"/>
         <v>prop,704,10</v>
       </c>
       <c r="R60" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H60,$V$69:$AR$78,G60*3+2,0),"")</f>
+        <f t="shared" si="22"/>
         <v>prop,704,10</v>
       </c>
       <c r="S60" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V60" s="3">
         <v>3</v>
       </c>
       <c r="AC60" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="AD60" s="4">
         <v>5</v>
@@ -15999,11 +16071,11 @@
         <v>150</v>
       </c>
       <c r="G61" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="H61" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I61" s="6">
@@ -16019,38 +16091,38 @@
         <v>50</v>
       </c>
       <c r="M61" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H61,$V$16:$AR$20,G61*3+2,0),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N61" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H61,$V$10:$AR$14,G61*3+2,0),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="O61" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H61,$V$46:$AR$55,G61*3+2,0),"")</f>
+        <f t="shared" si="19"/>
         <v>item,103,1</v>
       </c>
       <c r="P61" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H61,$V$35:$AR$44,G61*3+2,0),"")</f>
+        <f t="shared" si="20"/>
         <v>pack,303,1</v>
       </c>
       <c r="Q61" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H61,$V$80:$AR$89,G61*3+2,0),"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="R61" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H61,$V$69:$AR$78,G61*3+2,0),"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="S61" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V61" s="3">
         <v>4</v>
       </c>
       <c r="W61" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="X61" s="4">
         <v>2</v>
@@ -16060,7 +16132,7 @@
         <v>100</v>
       </c>
       <c r="Z61" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AA61" s="4">
         <v>2</v>
@@ -16092,11 +16164,11 @@
         <v>450</v>
       </c>
       <c r="G62" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="H62" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="I62" s="6">
@@ -16112,38 +16184,38 @@
         <v>50</v>
       </c>
       <c r="M62" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H62,$V$16:$AR$20,G62*3+2,0),"")</f>
-        <v>prop,805,3</v>
+        <f t="shared" si="17"/>
+        <v>prop,106,1</v>
       </c>
       <c r="N62" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H62,$V$10:$AR$14,G62*3+2,0),"")</f>
-        <v>prop,805,3</v>
+        <f t="shared" si="18"/>
+        <v>prop,106,1</v>
       </c>
       <c r="O62" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H62,$V$46:$AR$55,G62*3+2,0),"")</f>
+        <f t="shared" si="19"/>
         <v>prop,540,10</v>
       </c>
       <c r="P62" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H62,$V$35:$AR$44,G62*3+2,0),"")</f>
+        <f t="shared" si="20"/>
         <v>prop,540,10</v>
       </c>
       <c r="Q62" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H62,$V$80:$AR$89,G62*3+2,0),"")</f>
+        <f t="shared" si="21"/>
         <v>item,104,1</v>
       </c>
       <c r="R62" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H62,$V$69:$AR$78,G62*3+2,0),"")</f>
+        <f t="shared" si="22"/>
         <v>pack,304,1</v>
       </c>
       <c r="S62" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="V62" s="3">
         <v>5</v>
       </c>
       <c r="AC62" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="AD62" s="4">
         <v>100</v>
@@ -16153,7 +16225,7 @@
         <v>100</v>
       </c>
       <c r="AF62" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="AG62" s="4">
         <v>100</v>
@@ -16163,7 +16235,7 @@
         <v>100</v>
       </c>
       <c r="AI62" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="AJ62" s="4">
         <v>100</v>
@@ -16173,7 +16245,7 @@
         <v>100</v>
       </c>
       <c r="AL62" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="AM62" s="4">
         <v>100</v>
@@ -16183,7 +16255,7 @@
         <v>100</v>
       </c>
       <c r="AO62" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="AP62" s="4">
         <v>100</v>
@@ -16193,7 +16265,7 @@
         <v>100</v>
       </c>
       <c r="AR62" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="AS62" s="4">
         <v>100</v>
@@ -16225,11 +16297,11 @@
         <v>60</v>
       </c>
       <c r="G63" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="H63" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="I63" s="6">
@@ -16245,38 +16317,38 @@
         <v>50</v>
       </c>
       <c r="M63" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H63,$V$16:$AR$20,G63*3+2,0),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N63" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H63,$V$10:$AR$14,G63*3+2,0),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="O63" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H63,$V$46:$AR$55,G63*3+2,0),"")</f>
+        <f t="shared" si="19"/>
         <v>stam,12</v>
       </c>
       <c r="P63" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H63,$V$35:$AR$44,G63*3+2,0),"")</f>
+        <f t="shared" si="20"/>
         <v>stam,12</v>
       </c>
       <c r="Q63" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H63,$V$80:$AR$89,G63*3+2,0),"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="R63" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H63,$V$69:$AR$78,G63*3+2,0),"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="S63" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V63" s="3">
         <v>6</v>
       </c>
       <c r="W63" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="X63" s="4">
         <v>100</v>
@@ -16286,7 +16358,7 @@
         <v>100</v>
       </c>
       <c r="Z63" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="AA63" s="4">
         <v>100</v>
@@ -16318,11 +16390,11 @@
         <v>150</v>
       </c>
       <c r="G64" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="H64" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="I64" s="6">
@@ -16338,31 +16410,31 @@
         <v>50</v>
       </c>
       <c r="M64" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H64,$V$16:$AR$20,G64*3+2,0),"")</f>
+        <f t="shared" si="17"/>
         <v>coin,5000</v>
       </c>
       <c r="N64" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H64,$V$10:$AR$14,G64*3+2,0),"")</f>
+        <f t="shared" si="18"/>
         <v>coin,5000</v>
       </c>
       <c r="O64" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H64,$V$46:$AR$55,G64*3+2,0),"")</f>
+        <f t="shared" si="19"/>
         <v>coin,5000</v>
       </c>
       <c r="P64" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H64,$V$35:$AR$44,G64*3+2,0),"")</f>
+        <f t="shared" si="20"/>
         <v>coin,5000</v>
       </c>
       <c r="Q64" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H64,$V$80:$AR$89,G64*3+2,0),"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="R64" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H64,$V$69:$AR$78,G64*3+2,0),"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="S64" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V64" s="3">
@@ -16391,11 +16463,11 @@
         <v>450</v>
       </c>
       <c r="G65" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="H65" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="I65" s="6">
@@ -16411,31 +16483,31 @@
         <v>50</v>
       </c>
       <c r="M65" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H65,$V$16:$AR$20,G65*3+2,0),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N65" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H65,$V$10:$AR$14,G65*3+2,0),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="O65" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H65,$V$46:$AR$55,G65*3+2,0),"")</f>
+        <f t="shared" si="19"/>
         <v>prop,105,1</v>
       </c>
       <c r="P65" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H65,$V$35:$AR$44,G65*3+2,0),"")</f>
+        <f t="shared" si="20"/>
         <v>prop,105,1</v>
       </c>
       <c r="Q65" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H65,$V$80:$AR$89,G65*3+2,0),"")</f>
+        <f t="shared" si="21"/>
         <v>prop,801,10</v>
       </c>
       <c r="R65" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H65,$V$69:$AR$78,G65*3+2,0),"")</f>
+        <f t="shared" si="22"/>
         <v>prop,801,10</v>
       </c>
       <c r="S65" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V65" s="3">
@@ -16462,7 +16534,7 @@
         <v>100</v>
       </c>
       <c r="AC65" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="AD65" s="4">
         <v>10</v>
@@ -16472,7 +16544,7 @@
         <v>150</v>
       </c>
       <c r="AI65" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AJ65" s="4">
         <v>10</v>
@@ -16482,7 +16554,7 @@
         <v>125</v>
       </c>
       <c r="AL65" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AM65" s="4">
         <v>10</v>
@@ -16524,11 +16596,11 @@
         <v>30</v>
       </c>
       <c r="G66" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="H66" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="I66" s="6">
@@ -16544,31 +16616,31 @@
         <v>50</v>
       </c>
       <c r="M66" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H66,$V$16:$AR$20,G66*3+2,0),"")</f>
+        <f t="shared" si="17"/>
         <v>prop,801,8</v>
       </c>
       <c r="N66" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H66,$V$10:$AR$14,G66*3+2,0),"")</f>
+        <f t="shared" si="18"/>
         <v>prop,801,8</v>
       </c>
       <c r="O66" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H66,$V$46:$AR$55,G66*3+2,0),"")</f>
+        <f t="shared" si="19"/>
         <v>stage_token,500</v>
       </c>
       <c r="P66" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H66,$V$35:$AR$44,G66*3+2,0),"")</f>
+        <f t="shared" si="20"/>
         <v>stage_token,500</v>
       </c>
       <c r="Q66" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H66,$V$80:$AR$89,G66*3+2,0),"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="R66" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H66,$V$69:$AR$78,G66*3+2,0),"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="S66" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V66" s="3">
@@ -16597,11 +16669,11 @@
         <v>90</v>
       </c>
       <c r="G67" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="H67" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="I67" s="6">
@@ -16617,38 +16689,38 @@
         <v>50</v>
       </c>
       <c r="M67" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H67,$V$16:$AR$20,G67*3+2,0),"")</f>
+        <f t="shared" ref="M67:M82" si="40">IFERROR(VLOOKUP(H67,$V$16:$AR$20,G67*3+2,0),"")</f>
         <v/>
       </c>
       <c r="N67" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H67,$V$10:$AR$14,G67*3+2,0),"")</f>
+        <f t="shared" ref="N67:N82" si="41">IFERROR(VLOOKUP(H67,$V$10:$AR$14,G67*3+2,0),"")</f>
         <v/>
       </c>
       <c r="O67" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H67,$V$46:$AR$55,G67*3+2,0),"")</f>
+        <f t="shared" ref="O67:O82" si="42">IFERROR(VLOOKUP(H67,$V$46:$AR$55,G67*3+2,0),"")</f>
         <v>item,103,1</v>
       </c>
       <c r="P67" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H67,$V$35:$AR$44,G67*3+2,0),"")</f>
+        <f t="shared" ref="P67:P82" si="43">IFERROR(VLOOKUP(H67,$V$35:$AR$44,G67*3+2,0),"")</f>
         <v>pack,303,1</v>
       </c>
       <c r="Q67" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H67,$V$80:$AR$89,G67*3+2,0),"")</f>
+        <f t="shared" ref="Q67:Q82" si="44">IFERROR(VLOOKUP(H67,$V$80:$AR$89,G67*3+2,0),"")</f>
         <v>cash,100</v>
       </c>
       <c r="R67" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H67,$V$69:$AR$78,G67*3+2,0),"")</f>
+        <f t="shared" ref="R67:R82" si="45">IFERROR(VLOOKUP(H67,$V$69:$AR$78,G67*3+2,0),"")</f>
         <v>cash,100</v>
       </c>
       <c r="S67" s="3">
-        <f t="shared" ref="S67:S82" si="4">IF(H67=10,1,0)</f>
+        <f t="shared" ref="S67:S82" si="46">IF(H67=10,1,0)</f>
         <v>0</v>
       </c>
       <c r="V67" s="3">
         <v>10</v>
       </c>
       <c r="W67" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="X67" s="4">
         <v>1</v>
@@ -16658,7 +16730,7 @@
         <v>600</v>
       </c>
       <c r="Z67" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="AA67" s="4">
         <v>1</v>
@@ -16668,7 +16740,7 @@
         <v>250</v>
       </c>
       <c r="AC67" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="AD67" s="4">
         <v>1</v>
@@ -16678,7 +16750,7 @@
         <v>300</v>
       </c>
       <c r="AF67" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AG67" s="4">
         <v>1</v>
@@ -16698,7 +16770,7 @@
         <v>250</v>
       </c>
       <c r="AL67" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AM67" s="4">
         <v>1</v>
@@ -16708,14 +16780,14 @@
         <v>600</v>
       </c>
       <c r="AO67" s="3" t="s">
-        <v>165</v>
+        <v>224</v>
       </c>
       <c r="AP67" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ67" s="4">
         <f>INT(VLOOKUP(AO67,$A:$E,5,0)*AP67)</f>
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="AR67" s="3" t="s">
         <v>125</v>
@@ -16750,11 +16822,11 @@
         <v>360</v>
       </c>
       <c r="G68" s="4">
-        <f t="shared" ref="G68:G82" si="5">INT((I68-1)/10)</f>
+        <f t="shared" ref="G68:G82" si="47">INT((I68-1)/10)</f>
         <v>6</v>
       </c>
       <c r="H68" s="4">
-        <f t="shared" ref="H68:H82" si="6">IF(MOD(I68,10)=0,10,MOD(I68,10))</f>
+        <f t="shared" ref="H68:H82" si="48">IF(MOD(I68,10)=0,10,MOD(I68,10))</f>
         <v>6</v>
       </c>
       <c r="I68" s="6">
@@ -16770,31 +16842,31 @@
         <v>50</v>
       </c>
       <c r="M68" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H68,$V$16:$AR$20,G68*3+2,0),"")</f>
+        <f t="shared" si="40"/>
         <v>prop,105,2</v>
       </c>
       <c r="N68" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H68,$V$10:$AR$14,G68*3+2,0),"")</f>
+        <f t="shared" si="41"/>
         <v>prop,105,2</v>
       </c>
       <c r="O68" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H68,$V$46:$AR$55,G68*3+2,0),"")</f>
+        <f t="shared" si="42"/>
         <v>prop,105,1</v>
       </c>
       <c r="P68" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H68,$V$35:$AR$44,G68*3+2,0),"")</f>
+        <f t="shared" si="43"/>
         <v>prop,105,1</v>
       </c>
       <c r="Q68" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H68,$V$80:$AR$89,G68*3+2,0),"")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="R68" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H68,$V$69:$AR$78,G68*3+2,0),"")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="S68" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Y68" s="4">
@@ -16823,7 +16895,7 @@
       </c>
       <c r="AQ68" s="4">
         <f>SUM(AQ58:AQ67)</f>
-        <v>650</v>
+        <v>710</v>
       </c>
       <c r="AT68" s="4">
         <f>SUM(AT58:AT67)</f>
@@ -16831,11 +16903,11 @@
       </c>
       <c r="AU68" s="3">
         <f>SUM(W68:AT68)</f>
-        <v>7075</v>
+        <v>7135</v>
       </c>
       <c r="AV68" s="3">
         <f>AU68+AU34</f>
-        <v>17523</v>
+        <v>17583</v>
       </c>
     </row>
     <row r="69" spans="1:48">
@@ -16860,11 +16932,11 @@
         <v>30</v>
       </c>
       <c r="G69" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="47"/>
         <v>6</v>
       </c>
       <c r="H69" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="48"/>
         <v>7</v>
       </c>
       <c r="I69" s="6">
@@ -16880,66 +16952,66 @@
         <v>50</v>
       </c>
       <c r="M69" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H69,$V$16:$AR$20,G69*3+2,0),"")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N69" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H69,$V$10:$AR$14,G69*3+2,0),"")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="O69" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H69,$V$46:$AR$55,G69*3+2,0),"")</f>
+        <f t="shared" si="42"/>
         <v>stam,12</v>
       </c>
       <c r="P69" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H69,$V$35:$AR$44,G69*3+2,0),"")</f>
+        <f t="shared" si="43"/>
         <v>stam,12</v>
       </c>
       <c r="Q69" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H69,$V$80:$AR$89,G69*3+2,0),"")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="R69" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H69,$V$69:$AR$78,G69*3+2,0),"")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="S69" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="V69" s="3">
         <v>1</v>
       </c>
       <c r="W69" s="3" t="str">
-        <f>IF(W58="","",VLOOKUP(W58,$A:$D,2,0)&amp;","&amp;X58)</f>
+        <f t="shared" ref="W69:W78" si="49">IF(W58="","",VLOOKUP(W58,$A:$D,2,0)&amp;","&amp;X58)</f>
         <v/>
       </c>
       <c r="Z69" s="3" t="str">
-        <f>IF(Z58="","",VLOOKUP(Z58,$A:$D,2,0)&amp;","&amp;AA58)</f>
+        <f t="shared" ref="Z69:Z78" si="50">IF(Z58="","",VLOOKUP(Z58,$A:$D,2,0)&amp;","&amp;AA58)</f>
         <v/>
       </c>
       <c r="AC69" s="3" t="str">
-        <f>IF(AC58="","",VLOOKUP(AC58,$A:$D,2,0)&amp;","&amp;AD58)</f>
+        <f t="shared" ref="AC69:AC78" si="51">IF(AC58="","",VLOOKUP(AC58,$A:$D,2,0)&amp;","&amp;AD58)</f>
         <v/>
       </c>
       <c r="AF69" s="3" t="str">
-        <f>IF(AF58="","",VLOOKUP(AF58,$A:$D,2,0)&amp;","&amp;AG58)</f>
+        <f t="shared" ref="AF69:AF78" si="52">IF(AF58="","",VLOOKUP(AF58,$A:$D,2,0)&amp;","&amp;AG58)</f>
         <v/>
       </c>
       <c r="AI69" s="3" t="str">
-        <f>IF(AI58="","",VLOOKUP(AI58,$A:$D,2,0)&amp;","&amp;AJ58)</f>
+        <f t="shared" ref="AI69:AI78" si="53">IF(AI58="","",VLOOKUP(AI58,$A:$D,2,0)&amp;","&amp;AJ58)</f>
         <v/>
       </c>
       <c r="AL69" s="3" t="str">
-        <f>IF(AL58="","",VLOOKUP(AL58,$A:$D,2,0)&amp;","&amp;AM58)</f>
+        <f t="shared" ref="AL69:AL78" si="54">IF(AL58="","",VLOOKUP(AL58,$A:$D,2,0)&amp;","&amp;AM58)</f>
         <v/>
       </c>
       <c r="AO69" s="3" t="str">
-        <f>IF(AO58="","",VLOOKUP(AO58,$A:$D,2,0)&amp;","&amp;AP58)</f>
+        <f t="shared" ref="AO69:AO78" si="55">IF(AO58="","",VLOOKUP(AO58,$A:$D,2,0)&amp;","&amp;AP58)</f>
         <v/>
       </c>
       <c r="AR69" s="3" t="str">
-        <f>IF(AR58="","",VLOOKUP(AR58,$A:$D,2,0)&amp;","&amp;AS58)</f>
+        <f t="shared" ref="AR69:AR78" si="56">IF(AR58="","",VLOOKUP(AR58,$A:$D,2,0)&amp;","&amp;AS58)</f>
         <v/>
       </c>
     </row>
@@ -16965,11 +17037,11 @@
         <v>90</v>
       </c>
       <c r="G70" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="47"/>
         <v>6</v>
       </c>
       <c r="H70" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="48"/>
         <v>8</v>
       </c>
       <c r="I70" s="6">
@@ -16985,66 +17057,66 @@
         <v>50</v>
       </c>
       <c r="M70" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H70,$V$16:$AR$20,G70*3+2,0),"")</f>
+        <f t="shared" si="40"/>
         <v>prop,701,2</v>
       </c>
       <c r="N70" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H70,$V$10:$AR$14,G70*3+2,0),"")</f>
+        <f t="shared" si="41"/>
         <v>prop,701,2</v>
       </c>
       <c r="O70" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H70,$V$46:$AR$55,G70*3+2,0),"")</f>
+        <f t="shared" si="42"/>
         <v>coin,5000</v>
       </c>
       <c r="P70" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H70,$V$35:$AR$44,G70*3+2,0),"")</f>
+        <f t="shared" si="43"/>
         <v>coin,5000</v>
       </c>
       <c r="Q70" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H70,$V$80:$AR$89,G70*3+2,0),"")</f>
+        <f t="shared" si="44"/>
         <v>prop,802,2</v>
       </c>
       <c r="R70" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H70,$V$69:$AR$78,G70*3+2,0),"")</f>
+        <f t="shared" si="45"/>
         <v>prop,802,2</v>
       </c>
       <c r="S70" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="V70" s="3">
         <v>2</v>
       </c>
       <c r="W70" s="3" t="str">
-        <f>IF(W59="","",VLOOKUP(W59,$A:$D,2,0)&amp;","&amp;X59)</f>
+        <f t="shared" si="49"/>
         <v>prop,403,2</v>
       </c>
       <c r="Z70" s="3" t="str">
-        <f>IF(Z59="","",VLOOKUP(Z59,$A:$D,2,0)&amp;","&amp;AA59)</f>
+        <f t="shared" si="50"/>
         <v>prop,403,2</v>
       </c>
       <c r="AC70" s="3" t="str">
-        <f>IF(AC59="","",VLOOKUP(AC59,$A:$D,2,0)&amp;","&amp;AD59)</f>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="AF70" s="3" t="str">
-        <f>IF(AF59="","",VLOOKUP(AF59,$A:$D,2,0)&amp;","&amp;AG59)</f>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="AI70" s="3" t="str">
-        <f>IF(AI59="","",VLOOKUP(AI59,$A:$D,2,0)&amp;","&amp;AJ59)</f>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AL70" s="3" t="str">
-        <f>IF(AL59="","",VLOOKUP(AL59,$A:$D,2,0)&amp;","&amp;AM59)</f>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AO70" s="3" t="str">
-        <f>IF(AO59="","",VLOOKUP(AO59,$A:$D,2,0)&amp;","&amp;AP59)</f>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AR70" s="3" t="str">
-        <f>IF(AR59="","",VLOOKUP(AR59,$A:$D,2,0)&amp;","&amp;AS59)</f>
+        <f t="shared" si="56"/>
         <v/>
       </c>
     </row>
@@ -17070,11 +17142,11 @@
         <v>360</v>
       </c>
       <c r="G71" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="47"/>
         <v>6</v>
       </c>
       <c r="H71" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="48"/>
         <v>9</v>
       </c>
       <c r="I71" s="6">
@@ -17090,66 +17162,66 @@
         <v>50</v>
       </c>
       <c r="M71" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H71,$V$16:$AR$20,G71*3+2,0),"")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N71" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H71,$V$10:$AR$14,G71*3+2,0),"")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="O71" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H71,$V$46:$AR$55,G71*3+2,0),"")</f>
+        <f t="shared" si="42"/>
         <v>item,103,1</v>
       </c>
       <c r="P71" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H71,$V$35:$AR$44,G71*3+2,0),"")</f>
+        <f t="shared" si="43"/>
         <v>pack,303,1</v>
       </c>
       <c r="Q71" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H71,$V$80:$AR$89,G71*3+2,0),"")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="R71" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H71,$V$69:$AR$78,G71*3+2,0),"")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="S71" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="V71" s="3">
         <v>3</v>
       </c>
       <c r="W71" s="3" t="str">
-        <f>IF(W60="","",VLOOKUP(W60,$A:$D,2,0)&amp;","&amp;X60)</f>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="Z71" s="3" t="str">
-        <f>IF(Z60="","",VLOOKUP(Z60,$A:$D,2,0)&amp;","&amp;AA60)</f>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AC71" s="3" t="str">
-        <f>IF(AC60="","",VLOOKUP(AC60,$A:$D,2,0)&amp;","&amp;AD60)</f>
+        <f t="shared" si="51"/>
         <v>prop,803,5</v>
       </c>
       <c r="AF71" s="3" t="str">
-        <f>IF(AF60="","",VLOOKUP(AF60,$A:$D,2,0)&amp;","&amp;AG60)</f>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="AI71" s="3" t="str">
-        <f>IF(AI60="","",VLOOKUP(AI60,$A:$D,2,0)&amp;","&amp;AJ60)</f>
+        <f t="shared" si="53"/>
         <v>prop,403,2</v>
       </c>
       <c r="AL71" s="3" t="str">
-        <f>IF(AL60="","",VLOOKUP(AL60,$A:$D,2,0)&amp;","&amp;AM60)</f>
+        <f t="shared" si="54"/>
         <v>prop,403,2</v>
       </c>
       <c r="AO71" s="3" t="str">
-        <f>IF(AO60="","",VLOOKUP(AO60,$A:$D,2,0)&amp;","&amp;AP60)</f>
+        <f t="shared" si="55"/>
         <v>prop,801,10</v>
       </c>
       <c r="AR71" s="3" t="str">
-        <f>IF(AR60="","",VLOOKUP(AR60,$A:$D,2,0)&amp;","&amp;AS60)</f>
+        <f t="shared" si="56"/>
         <v/>
       </c>
     </row>
@@ -17175,11 +17247,11 @@
         <v>0</v>
       </c>
       <c r="G72" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="47"/>
         <v>6</v>
       </c>
       <c r="H72" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="48"/>
         <v>10</v>
       </c>
       <c r="I72" s="6">
@@ -17195,66 +17267,66 @@
         <v>50</v>
       </c>
       <c r="M72" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H72,$V$16:$AR$20,G72*3+2,0),"")</f>
+        <f t="shared" si="40"/>
         <v>prop,809,1</v>
       </c>
       <c r="N72" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H72,$V$10:$AR$14,G72*3+2,0),"")</f>
+        <f t="shared" si="41"/>
         <v>prop,809,1</v>
       </c>
       <c r="O72" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H72,$V$46:$AR$55,G72*3+2,0),"")</f>
+        <f t="shared" si="42"/>
         <v>prop,540,5</v>
       </c>
       <c r="P72" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H72,$V$35:$AR$44,G72*3+2,0),"")</f>
+        <f t="shared" si="43"/>
         <v>prop,540,5</v>
       </c>
       <c r="Q72" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H72,$V$80:$AR$89,G72*3+2,0),"")</f>
-        <v>prop,809,1</v>
+        <f t="shared" si="44"/>
+        <v>prop,106,2</v>
       </c>
       <c r="R72" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H72,$V$69:$AR$78,G72*3+2,0),"")</f>
-        <v>prop,809,1</v>
+        <f t="shared" si="45"/>
+        <v>prop,106,2</v>
       </c>
       <c r="S72" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="V72" s="3">
         <v>4</v>
       </c>
       <c r="W72" s="3" t="str">
-        <f>IF(W61="","",VLOOKUP(W61,$A:$D,2,0)&amp;","&amp;X61)</f>
+        <f t="shared" si="49"/>
         <v>prop,805,2</v>
       </c>
       <c r="Z72" s="3" t="str">
-        <f>IF(Z61="","",VLOOKUP(Z61,$A:$D,2,0)&amp;","&amp;AA61)</f>
+        <f t="shared" si="50"/>
         <v>prop,805,2</v>
       </c>
       <c r="AC72" s="3" t="str">
-        <f>IF(AC61="","",VLOOKUP(AC61,$A:$D,2,0)&amp;","&amp;AD61)</f>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="AF72" s="3" t="str">
-        <f>IF(AF61="","",VLOOKUP(AF61,$A:$D,2,0)&amp;","&amp;AG61)</f>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="AI72" s="3" t="str">
-        <f>IF(AI61="","",VLOOKUP(AI61,$A:$D,2,0)&amp;","&amp;AJ61)</f>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AL72" s="3" t="str">
-        <f>IF(AL61="","",VLOOKUP(AL61,$A:$D,2,0)&amp;","&amp;AM61)</f>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AO72" s="3" t="str">
-        <f>IF(AO61="","",VLOOKUP(AO61,$A:$D,2,0)&amp;","&amp;AP61)</f>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AR72" s="3" t="str">
-        <f>IF(AR61="","",VLOOKUP(AR61,$A:$D,2,0)&amp;","&amp;AS61)</f>
+        <f t="shared" si="56"/>
         <v/>
       </c>
     </row>
@@ -17280,11 +17352,11 @@
         <v>0</v>
       </c>
       <c r="G73" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="47"/>
         <v>7</v>
       </c>
       <c r="H73" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="I73" s="6">
@@ -17300,66 +17372,66 @@
         <v>50</v>
       </c>
       <c r="M73" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H73,$V$16:$AR$20,G73*3+2,0),"")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N73" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H73,$V$10:$AR$14,G73*3+2,0),"")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="O73" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H73,$V$46:$AR$55,G73*3+2,0),"")</f>
+        <f t="shared" si="42"/>
         <v>stam,12</v>
       </c>
       <c r="P73" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H73,$V$35:$AR$44,G73*3+2,0),"")</f>
+        <f t="shared" si="43"/>
         <v>stam,12</v>
       </c>
       <c r="Q73" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H73,$V$80:$AR$89,G73*3+2,0),"")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="R73" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H73,$V$69:$AR$78,G73*3+2,0),"")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="S73" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="V73" s="3">
         <v>5</v>
       </c>
       <c r="W73" s="3" t="str">
-        <f>IF(W62="","",VLOOKUP(W62,$A:$D,2,0)&amp;","&amp;X62)</f>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="Z73" s="3" t="str">
-        <f>IF(Z62="","",VLOOKUP(Z62,$A:$D,2,0)&amp;","&amp;AA62)</f>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AC73" s="3" t="str">
-        <f>IF(AC62="","",VLOOKUP(AC62,$A:$D,2,0)&amp;","&amp;AD62)</f>
+        <f t="shared" si="51"/>
         <v>cash,100</v>
       </c>
       <c r="AF73" s="3" t="str">
-        <f>IF(AF62="","",VLOOKUP(AF62,$A:$D,2,0)&amp;","&amp;AG62)</f>
+        <f t="shared" si="52"/>
         <v>cash,100</v>
       </c>
       <c r="AI73" s="3" t="str">
-        <f>IF(AI62="","",VLOOKUP(AI62,$A:$D,2,0)&amp;","&amp;AJ62)</f>
+        <f t="shared" si="53"/>
         <v>cash,100</v>
       </c>
       <c r="AL73" s="3" t="str">
-        <f>IF(AL62="","",VLOOKUP(AL62,$A:$D,2,0)&amp;","&amp;AM62)</f>
+        <f t="shared" si="54"/>
         <v>cash,100</v>
       </c>
       <c r="AO73" s="3" t="str">
-        <f>IF(AO62="","",VLOOKUP(AO62,$A:$D,2,0)&amp;","&amp;AP62)</f>
+        <f t="shared" si="55"/>
         <v>cash,100</v>
       </c>
       <c r="AR73" s="3" t="str">
-        <f>IF(AR62="","",VLOOKUP(AR62,$A:$D,2,0)&amp;","&amp;AS62)</f>
+        <f t="shared" si="56"/>
         <v>cash,100</v>
       </c>
     </row>
@@ -17385,11 +17457,11 @@
         <v>0</v>
       </c>
       <c r="G74" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="47"/>
         <v>7</v>
       </c>
       <c r="H74" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="48"/>
         <v>2</v>
       </c>
       <c r="I74" s="6">
@@ -17405,66 +17477,66 @@
         <v>50</v>
       </c>
       <c r="M74" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H74,$V$16:$AR$20,G74*3+2,0),"")</f>
+        <f t="shared" si="40"/>
         <v>coin,5000</v>
       </c>
       <c r="N74" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H74,$V$10:$AR$14,G74*3+2,0),"")</f>
+        <f t="shared" si="41"/>
         <v>coin,5000</v>
       </c>
       <c r="O74" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H74,$V$46:$AR$55,G74*3+2,0),"")</f>
+        <f t="shared" si="42"/>
         <v>coin,5000</v>
       </c>
       <c r="P74" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H74,$V$35:$AR$44,G74*3+2,0),"")</f>
+        <f t="shared" si="43"/>
         <v>coin,5000</v>
       </c>
       <c r="Q74" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H74,$V$80:$AR$89,G74*3+2,0),"")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="R74" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H74,$V$69:$AR$78,G74*3+2,0),"")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="S74" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="V74" s="3">
         <v>6</v>
       </c>
       <c r="W74" s="3" t="str">
-        <f>IF(W63="","",VLOOKUP(W63,$A:$D,2,0)&amp;","&amp;X63)</f>
+        <f t="shared" si="49"/>
         <v>cash,100</v>
       </c>
       <c r="Z74" s="3" t="str">
-        <f>IF(Z63="","",VLOOKUP(Z63,$A:$D,2,0)&amp;","&amp;AA63)</f>
+        <f t="shared" si="50"/>
         <v>cash,100</v>
       </c>
       <c r="AC74" s="3" t="str">
-        <f>IF(AC63="","",VLOOKUP(AC63,$A:$D,2,0)&amp;","&amp;AD63)</f>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="AF74" s="3" t="str">
-        <f>IF(AF63="","",VLOOKUP(AF63,$A:$D,2,0)&amp;","&amp;AG63)</f>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="AI74" s="3" t="str">
-        <f>IF(AI63="","",VLOOKUP(AI63,$A:$D,2,0)&amp;","&amp;AJ63)</f>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AL74" s="3" t="str">
-        <f>IF(AL63="","",VLOOKUP(AL63,$A:$D,2,0)&amp;","&amp;AM63)</f>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AO74" s="3" t="str">
-        <f>IF(AO63="","",VLOOKUP(AO63,$A:$D,2,0)&amp;","&amp;AP63)</f>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AR74" s="3" t="str">
-        <f>IF(AR63="","",VLOOKUP(AR63,$A:$D,2,0)&amp;","&amp;AS63)</f>
+        <f t="shared" si="56"/>
         <v/>
       </c>
     </row>
@@ -17490,11 +17562,11 @@
         <v>150</v>
       </c>
       <c r="G75" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="47"/>
         <v>7</v>
       </c>
       <c r="H75" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="48"/>
         <v>3</v>
       </c>
       <c r="I75" s="6">
@@ -17510,66 +17582,66 @@
         <v>50</v>
       </c>
       <c r="M75" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H75,$V$16:$AR$20,G75*3+2,0),"")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N75" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H75,$V$10:$AR$14,G75*3+2,0),"")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="O75" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H75,$V$46:$AR$55,G75*3+2,0),"")</f>
+        <f t="shared" si="42"/>
         <v>prop,105,1</v>
       </c>
       <c r="P75" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H75,$V$35:$AR$44,G75*3+2,0),"")</f>
+        <f t="shared" si="43"/>
         <v>prop,105,1</v>
       </c>
       <c r="Q75" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H75,$V$80:$AR$89,G75*3+2,0),"")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="R75" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H75,$V$69:$AR$78,G75*3+2,0),"")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="S75" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="V75" s="3">
         <v>7</v>
       </c>
       <c r="W75" s="3" t="str">
-        <f>IF(W64="","",VLOOKUP(W64,$A:$D,2,0)&amp;","&amp;X64)</f>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="Z75" s="3" t="str">
-        <f>IF(Z64="","",VLOOKUP(Z64,$A:$D,2,0)&amp;","&amp;AA64)</f>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AC75" s="3" t="str">
-        <f>IF(AC64="","",VLOOKUP(AC64,$A:$D,2,0)&amp;","&amp;AD64)</f>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="AF75" s="3" t="str">
-        <f>IF(AF64="","",VLOOKUP(AF64,$A:$D,2,0)&amp;","&amp;AG64)</f>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="AI75" s="3" t="str">
-        <f>IF(AI64="","",VLOOKUP(AI64,$A:$D,2,0)&amp;","&amp;AJ64)</f>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AL75" s="3" t="str">
-        <f>IF(AL64="","",VLOOKUP(AL64,$A:$D,2,0)&amp;","&amp;AM64)</f>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AO75" s="3" t="str">
-        <f>IF(AO64="","",VLOOKUP(AO64,$A:$D,2,0)&amp;","&amp;AP64)</f>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AR75" s="3" t="str">
-        <f>IF(AR64="","",VLOOKUP(AR64,$A:$D,2,0)&amp;","&amp;AS64)</f>
+        <f t="shared" si="56"/>
         <v/>
       </c>
     </row>
@@ -17595,11 +17667,11 @@
         <v>300</v>
       </c>
       <c r="G76" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="47"/>
         <v>7</v>
       </c>
       <c r="H76" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="48"/>
         <v>4</v>
       </c>
       <c r="I76" s="6">
@@ -17615,66 +17687,66 @@
         <v>50</v>
       </c>
       <c r="M76" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H76,$V$16:$AR$20,G76*3+2,0),"")</f>
+        <f t="shared" si="40"/>
         <v>prop,802,2</v>
       </c>
       <c r="N76" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H76,$V$10:$AR$14,G76*3+2,0),"")</f>
+        <f t="shared" si="41"/>
         <v>prop,802,2</v>
       </c>
       <c r="O76" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H76,$V$46:$AR$55,G76*3+2,0),"")</f>
+        <f t="shared" si="42"/>
         <v>stage_token,500</v>
       </c>
       <c r="P76" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H76,$V$35:$AR$44,G76*3+2,0),"")</f>
+        <f t="shared" si="43"/>
         <v>stage_token,500</v>
       </c>
       <c r="Q76" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H76,$V$80:$AR$89,G76*3+2,0),"")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="R76" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H76,$V$69:$AR$78,G76*3+2,0),"")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="S76" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="V76" s="3">
         <v>8</v>
       </c>
       <c r="W76" s="3" t="str">
-        <f>IF(W65="","",VLOOKUP(W65,$A:$D,2,0)&amp;","&amp;X65)</f>
+        <f t="shared" si="49"/>
         <v>prop,801,10</v>
       </c>
       <c r="Z76" s="3" t="str">
-        <f>IF(Z65="","",VLOOKUP(Z65,$A:$D,2,0)&amp;","&amp;AA65)</f>
+        <f t="shared" si="50"/>
         <v>prop,802,2</v>
       </c>
       <c r="AC76" s="3" t="str">
-        <f>IF(AC65="","",VLOOKUP(AC65,$A:$D,2,0)&amp;","&amp;AD65)</f>
+        <f t="shared" si="51"/>
         <v>prop,804,10</v>
       </c>
       <c r="AF76" s="3" t="str">
-        <f>IF(AF65="","",VLOOKUP(AF65,$A:$D,2,0)&amp;","&amp;AG65)</f>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="AI76" s="3" t="str">
-        <f>IF(AI65="","",VLOOKUP(AI65,$A:$D,2,0)&amp;","&amp;AJ65)</f>
+        <f t="shared" si="53"/>
         <v>prop,704,10</v>
       </c>
       <c r="AL76" s="3" t="str">
-        <f>IF(AL65="","",VLOOKUP(AL65,$A:$D,2,0)&amp;","&amp;AM65)</f>
+        <f t="shared" si="54"/>
         <v>prop,704,10</v>
       </c>
       <c r="AO76" s="3" t="str">
-        <f>IF(AO65="","",VLOOKUP(AO65,$A:$D,2,0)&amp;","&amp;AP65)</f>
+        <f t="shared" si="55"/>
         <v>prop,802,2</v>
       </c>
       <c r="AR76" s="3" t="str">
-        <f>IF(AR65="","",VLOOKUP(AR65,$A:$D,2,0)&amp;","&amp;AS65)</f>
+        <f t="shared" si="56"/>
         <v/>
       </c>
     </row>
@@ -17700,11 +17772,11 @@
         <v>0</v>
       </c>
       <c r="G77" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="47"/>
         <v>7</v>
       </c>
       <c r="H77" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="48"/>
         <v>5</v>
       </c>
       <c r="I77" s="6">
@@ -17720,66 +17792,66 @@
         <v>50</v>
       </c>
       <c r="M77" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H77,$V$16:$AR$20,G77*3+2,0),"")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N77" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H77,$V$10:$AR$14,G77*3+2,0),"")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="O77" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H77,$V$46:$AR$55,G77*3+2,0),"")</f>
+        <f t="shared" si="42"/>
         <v>item,103,1</v>
       </c>
       <c r="P77" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H77,$V$35:$AR$44,G77*3+2,0),"")</f>
+        <f t="shared" si="43"/>
         <v>pack,303,1</v>
       </c>
       <c r="Q77" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H77,$V$80:$AR$89,G77*3+2,0),"")</f>
+        <f t="shared" si="44"/>
         <v>cash,100</v>
       </c>
       <c r="R77" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H77,$V$69:$AR$78,G77*3+2,0),"")</f>
+        <f t="shared" si="45"/>
         <v>cash,100</v>
       </c>
       <c r="S77" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="V77" s="3">
         <v>9</v>
       </c>
       <c r="W77" s="3" t="str">
-        <f>IF(W66="","",VLOOKUP(W66,$A:$D,2,0)&amp;","&amp;X66)</f>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="Z77" s="3" t="str">
-        <f>IF(Z66="","",VLOOKUP(Z66,$A:$D,2,0)&amp;","&amp;AA66)</f>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AC77" s="3" t="str">
-        <f>IF(AC66="","",VLOOKUP(AC66,$A:$D,2,0)&amp;","&amp;AD66)</f>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="AF77" s="3" t="str">
-        <f>IF(AF66="","",VLOOKUP(AF66,$A:$D,2,0)&amp;","&amp;AG66)</f>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="AI77" s="3" t="str">
-        <f>IF(AI66="","",VLOOKUP(AI66,$A:$D,2,0)&amp;","&amp;AJ66)</f>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AL77" s="3" t="str">
-        <f>IF(AL66="","",VLOOKUP(AL66,$A:$D,2,0)&amp;","&amp;AM66)</f>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AO77" s="3" t="str">
-        <f>IF(AO66="","",VLOOKUP(AO66,$A:$D,2,0)&amp;","&amp;AP66)</f>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AR77" s="3" t="str">
-        <f>IF(AR66="","",VLOOKUP(AR66,$A:$D,2,0)&amp;","&amp;AS66)</f>
+        <f t="shared" si="56"/>
         <v/>
       </c>
     </row>
@@ -17805,11 +17877,11 @@
         <v>0</v>
       </c>
       <c r="G78" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="47"/>
         <v>7</v>
       </c>
       <c r="H78" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="48"/>
         <v>6</v>
       </c>
       <c r="I78" s="6">
@@ -17825,66 +17897,66 @@
         <v>50</v>
       </c>
       <c r="M78" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H78,$V$16:$AR$20,G78*3+2,0),"")</f>
+        <f t="shared" si="40"/>
         <v>prop,105,2</v>
       </c>
       <c r="N78" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H78,$V$10:$AR$14,G78*3+2,0),"")</f>
+        <f t="shared" si="41"/>
         <v>prop,105,2</v>
       </c>
       <c r="O78" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H78,$V$46:$AR$55,G78*3+2,0),"")</f>
+        <f t="shared" si="42"/>
         <v>prop,105,1</v>
       </c>
       <c r="P78" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H78,$V$35:$AR$44,G78*3+2,0),"")</f>
+        <f t="shared" si="43"/>
         <v>prop,105,1</v>
       </c>
       <c r="Q78" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H78,$V$80:$AR$89,G78*3+2,0),"")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="R78" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H78,$V$69:$AR$78,G78*3+2,0),"")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="S78" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="V78" s="3">
         <v>10</v>
       </c>
       <c r="W78" s="3" t="str">
-        <f>IF(W67="","",VLOOKUP(W67,$A:$D,2,0)&amp;","&amp;X67)</f>
+        <f t="shared" si="49"/>
         <v>pack,304,1</v>
       </c>
       <c r="Z78" s="3" t="str">
-        <f>IF(Z67="","",VLOOKUP(Z67,$A:$D,2,0)&amp;","&amp;AA67)</f>
+        <f t="shared" si="50"/>
         <v>prop,702,1</v>
       </c>
       <c r="AC78" s="3" t="str">
-        <f>IF(AC67="","",VLOOKUP(AC67,$A:$D,2,0)&amp;","&amp;AD67)</f>
+        <f t="shared" si="51"/>
         <v>prop,809,1</v>
       </c>
       <c r="AF78" s="3" t="str">
-        <f>IF(AF67="","",VLOOKUP(AF67,$A:$D,2,0)&amp;","&amp;AG67)</f>
+        <f t="shared" si="52"/>
         <v>prop,705,1</v>
       </c>
       <c r="AI78" s="3" t="str">
-        <f>IF(AI67="","",VLOOKUP(AI67,$A:$D,2,0)&amp;","&amp;AJ67)</f>
+        <f t="shared" si="53"/>
         <v>prop,702,1</v>
       </c>
       <c r="AL78" s="3" t="str">
-        <f>IF(AL67="","",VLOOKUP(AL67,$A:$D,2,0)&amp;","&amp;AM67)</f>
+        <f t="shared" si="54"/>
         <v>pack,304,1</v>
       </c>
       <c r="AO78" s="3" t="str">
-        <f>IF(AO67="","",VLOOKUP(AO67,$A:$D,2,0)&amp;","&amp;AP67)</f>
-        <v>prop,809,1</v>
+        <f t="shared" si="55"/>
+        <v>prop,106,2</v>
       </c>
       <c r="AR78" s="3" t="str">
-        <f>IF(AR67="","",VLOOKUP(AR67,$A:$D,2,0)&amp;","&amp;AS67)</f>
+        <f t="shared" si="56"/>
         <v>frame,3,1</v>
       </c>
     </row>
@@ -17910,11 +17982,11 @@
         <v>100</v>
       </c>
       <c r="G79" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="47"/>
         <v>7</v>
       </c>
       <c r="H79" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="48"/>
         <v>7</v>
       </c>
       <c r="I79" s="6">
@@ -17930,31 +18002,31 @@
         <v>50</v>
       </c>
       <c r="M79" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H79,$V$16:$AR$20,G79*3+2,0),"")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N79" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H79,$V$10:$AR$14,G79*3+2,0),"")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="O79" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H79,$V$46:$AR$55,G79*3+2,0),"")</f>
+        <f t="shared" si="42"/>
         <v>stam,12</v>
       </c>
       <c r="P79" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H79,$V$35:$AR$44,G79*3+2,0),"")</f>
+        <f t="shared" si="43"/>
         <v>stam,12</v>
       </c>
       <c r="Q79" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H79,$V$80:$AR$89,G79*3+2,0),"")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="R79" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H79,$V$69:$AR$78,G79*3+2,0),"")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="S79" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
@@ -17980,11 +18052,11 @@
         <v>20</v>
       </c>
       <c r="G80" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="47"/>
         <v>7</v>
       </c>
       <c r="H80" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="48"/>
         <v>8</v>
       </c>
       <c r="I80" s="6">
@@ -18000,66 +18072,66 @@
         <v>50</v>
       </c>
       <c r="M80" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H80,$V$16:$AR$20,G80*3+2,0),"")</f>
+        <f t="shared" si="40"/>
         <v>prop,403,1</v>
       </c>
       <c r="N80" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H80,$V$10:$AR$14,G80*3+2,0),"")</f>
+        <f t="shared" si="41"/>
         <v>prop,403,1</v>
       </c>
       <c r="O80" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H80,$V$46:$AR$55,G80*3+2,0),"")</f>
+        <f t="shared" si="42"/>
         <v>coin,5000</v>
       </c>
       <c r="P80" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H80,$V$35:$AR$44,G80*3+2,0),"")</f>
+        <f t="shared" si="43"/>
         <v>coin,5000</v>
       </c>
       <c r="Q80" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H80,$V$80:$AR$89,G80*3+2,0),"")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="R80" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H80,$V$69:$AR$78,G80*3+2,0),"")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="S80" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="V80" s="3">
         <v>1</v>
       </c>
       <c r="W80" s="3" t="str">
-        <f>IF(W58="","",VLOOKUP(W58,$A:$D,3,0)&amp;","&amp;X58)</f>
+        <f t="shared" ref="W80:W89" si="57">IF(W58="","",VLOOKUP(W58,$A:$D,3,0)&amp;","&amp;X58)</f>
         <v/>
       </c>
       <c r="Z80" s="3" t="str">
-        <f>IF(Z58="","",VLOOKUP(Z58,$A:$D,3,0)&amp;","&amp;AA58)</f>
+        <f t="shared" ref="Z80:Z89" si="58">IF(Z58="","",VLOOKUP(Z58,$A:$D,3,0)&amp;","&amp;AA58)</f>
         <v/>
       </c>
       <c r="AC80" s="3" t="str">
-        <f>IF(AC58="","",VLOOKUP(AC58,$A:$D,3,0)&amp;","&amp;AD58)</f>
+        <f t="shared" ref="AC80:AC89" si="59">IF(AC58="","",VLOOKUP(AC58,$A:$D,3,0)&amp;","&amp;AD58)</f>
         <v/>
       </c>
       <c r="AF80" s="3" t="str">
-        <f>IF(AF58="","",VLOOKUP(AF58,$A:$D,3,0)&amp;","&amp;AG58)</f>
+        <f t="shared" ref="AF80:AF89" si="60">IF(AF58="","",VLOOKUP(AF58,$A:$D,3,0)&amp;","&amp;AG58)</f>
         <v/>
       </c>
       <c r="AI80" s="3" t="str">
-        <f>IF(AI58="","",VLOOKUP(AI58,$A:$D,3,0)&amp;","&amp;AJ58)</f>
+        <f t="shared" ref="AI80:AI89" si="61">IF(AI58="","",VLOOKUP(AI58,$A:$D,3,0)&amp;","&amp;AJ58)</f>
         <v/>
       </c>
       <c r="AL80" s="3" t="str">
-        <f>IF(AL58="","",VLOOKUP(AL58,$A:$D,3,0)&amp;","&amp;AM58)</f>
+        <f t="shared" ref="AL80:AL89" si="62">IF(AL58="","",VLOOKUP(AL58,$A:$D,3,0)&amp;","&amp;AM58)</f>
         <v/>
       </c>
       <c r="AO80" s="3" t="str">
-        <f>IF(AO58="","",VLOOKUP(AO58,$A:$D,3,0)&amp;","&amp;AP58)</f>
+        <f t="shared" ref="AO80:AO89" si="63">IF(AO58="","",VLOOKUP(AO58,$A:$D,3,0)&amp;","&amp;AP58)</f>
         <v/>
       </c>
       <c r="AR80" s="3" t="str">
-        <f>IF(AR58="","",VLOOKUP(AR58,$A:$D,3,0)&amp;","&amp;AS58)</f>
+        <f t="shared" ref="AR80:AR89" si="64">IF(AR58="","",VLOOKUP(AR58,$A:$D,3,0)&amp;","&amp;AS58)</f>
         <v/>
       </c>
     </row>
@@ -18081,15 +18153,15 @@
         <v>10</v>
       </c>
       <c r="E81" s="3">
-        <f t="shared" ref="E81:E144" si="7">D81</f>
+        <f t="shared" ref="E81:E144" si="65">D81</f>
         <v>10</v>
       </c>
       <c r="G81" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="47"/>
         <v>7</v>
       </c>
       <c r="H81" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="48"/>
         <v>9</v>
       </c>
       <c r="I81" s="6">
@@ -18105,66 +18177,66 @@
         <v>50</v>
       </c>
       <c r="M81" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H81,$V$16:$AR$20,G81*3+2,0),"")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N81" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H81,$V$10:$AR$14,G81*3+2,0),"")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="O81" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H81,$V$46:$AR$55,G81*3+2,0),"")</f>
+        <f t="shared" si="42"/>
         <v>item,103,1</v>
       </c>
       <c r="P81" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H81,$V$35:$AR$44,G81*3+2,0),"")</f>
+        <f t="shared" si="43"/>
         <v>pack,303,1</v>
       </c>
       <c r="Q81" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H81,$V$80:$AR$89,G81*3+2,0),"")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="R81" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H81,$V$69:$AR$78,G81*3+2,0),"")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="S81" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="V81" s="3">
         <v>2</v>
       </c>
       <c r="W81" s="3" t="str">
-        <f>IF(W59="","",VLOOKUP(W59,$A:$D,3,0)&amp;","&amp;X59)</f>
+        <f t="shared" si="57"/>
         <v>prop,403,2</v>
       </c>
       <c r="Z81" s="3" t="str">
-        <f>IF(Z59="","",VLOOKUP(Z59,$A:$D,3,0)&amp;","&amp;AA59)</f>
+        <f t="shared" si="58"/>
         <v>prop,403,2</v>
       </c>
       <c r="AC81" s="3" t="str">
-        <f>IF(AC59="","",VLOOKUP(AC59,$A:$D,3,0)&amp;","&amp;AD59)</f>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AF81" s="3" t="str">
-        <f>IF(AF59="","",VLOOKUP(AF59,$A:$D,3,0)&amp;","&amp;AG59)</f>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="AI81" s="3" t="str">
-        <f>IF(AI59="","",VLOOKUP(AI59,$A:$D,3,0)&amp;","&amp;AJ59)</f>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="AL81" s="3" t="str">
-        <f>IF(AL59="","",VLOOKUP(AL59,$A:$D,3,0)&amp;","&amp;AM59)</f>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="AO81" s="3" t="str">
-        <f>IF(AO59="","",VLOOKUP(AO59,$A:$D,3,0)&amp;","&amp;AP59)</f>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="AR81" s="3" t="str">
-        <f>IF(AR59="","",VLOOKUP(AR59,$A:$D,3,0)&amp;","&amp;AS59)</f>
+        <f t="shared" si="64"/>
         <v/>
       </c>
     </row>
@@ -18186,15 +18258,15 @@
         <v>10</v>
       </c>
       <c r="E82" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>10</v>
       </c>
       <c r="G82" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="47"/>
         <v>7</v>
       </c>
       <c r="H82" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="48"/>
         <v>10</v>
       </c>
       <c r="I82" s="6">
@@ -18210,66 +18282,66 @@
         <v>50</v>
       </c>
       <c r="M82" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H82,$V$16:$AR$20,G82*3+2,0),"")</f>
+        <f t="shared" si="40"/>
         <v>prop,702,1</v>
       </c>
       <c r="N82" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H82,$V$10:$AR$14,G82*3+2,0),"")</f>
+        <f t="shared" si="41"/>
         <v>prop,702,1</v>
       </c>
       <c r="O82" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H82,$V$46:$AR$55,G82*3+2,0),"")</f>
+        <f t="shared" si="42"/>
         <v>prop,540,10</v>
       </c>
       <c r="P82" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H82,$V$35:$AR$44,G82*3+2,0),"")</f>
+        <f t="shared" si="43"/>
         <v>prop,540,10</v>
       </c>
       <c r="Q82" s="3" t="str">
-        <f>IFERROR(VLOOKUP(H82,$V$80:$AR$89,G82*3+2,0),"")</f>
+        <f t="shared" si="44"/>
         <v>frame,3,1</v>
       </c>
       <c r="R82" s="1" t="str">
-        <f>IFERROR(VLOOKUP(H82,$V$69:$AR$78,G82*3+2,0),"")</f>
+        <f t="shared" si="45"/>
         <v>frame,3,1</v>
       </c>
       <c r="S82" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="V82" s="3">
         <v>3</v>
       </c>
       <c r="W82" s="3" t="str">
-        <f>IF(W60="","",VLOOKUP(W60,$A:$D,3,0)&amp;","&amp;X60)</f>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="Z82" s="3" t="str">
-        <f>IF(Z60="","",VLOOKUP(Z60,$A:$D,3,0)&amp;","&amp;AA60)</f>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AC82" s="3" t="str">
-        <f>IF(AC60="","",VLOOKUP(AC60,$A:$D,3,0)&amp;","&amp;AD60)</f>
+        <f t="shared" si="59"/>
         <v>prop,803,5</v>
       </c>
       <c r="AF82" s="3" t="str">
-        <f>IF(AF60="","",VLOOKUP(AF60,$A:$D,3,0)&amp;","&amp;AG60)</f>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="AI82" s="3" t="str">
-        <f>IF(AI60="","",VLOOKUP(AI60,$A:$D,3,0)&amp;","&amp;AJ60)</f>
+        <f t="shared" si="61"/>
         <v>prop,403,2</v>
       </c>
       <c r="AL82" s="3" t="str">
-        <f>IF(AL60="","",VLOOKUP(AL60,$A:$D,3,0)&amp;","&amp;AM60)</f>
+        <f t="shared" si="62"/>
         <v>prop,403,2</v>
       </c>
       <c r="AO82" s="3" t="str">
-        <f>IF(AO60="","",VLOOKUP(AO60,$A:$D,3,0)&amp;","&amp;AP60)</f>
+        <f t="shared" si="63"/>
         <v>prop,801,10</v>
       </c>
       <c r="AR82" s="3" t="str">
-        <f>IF(AR60="","",VLOOKUP(AR60,$A:$D,3,0)&amp;","&amp;AS60)</f>
+        <f t="shared" si="64"/>
         <v/>
       </c>
     </row>
@@ -18291,42 +18363,42 @@
         <v>10</v>
       </c>
       <c r="E83" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>10</v>
       </c>
       <c r="V83" s="3">
         <v>4</v>
       </c>
       <c r="W83" s="3" t="str">
-        <f>IF(W61="","",VLOOKUP(W61,$A:$D,3,0)&amp;","&amp;X61)</f>
+        <f t="shared" si="57"/>
         <v>prop,805,2</v>
       </c>
       <c r="Z83" s="3" t="str">
-        <f>IF(Z61="","",VLOOKUP(Z61,$A:$D,3,0)&amp;","&amp;AA61)</f>
+        <f t="shared" si="58"/>
         <v>prop,805,2</v>
       </c>
       <c r="AC83" s="3" t="str">
-        <f>IF(AC61="","",VLOOKUP(AC61,$A:$D,3,0)&amp;","&amp;AD61)</f>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AF83" s="3" t="str">
-        <f>IF(AF61="","",VLOOKUP(AF61,$A:$D,3,0)&amp;","&amp;AG61)</f>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="AI83" s="3" t="str">
-        <f>IF(AI61="","",VLOOKUP(AI61,$A:$D,3,0)&amp;","&amp;AJ61)</f>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="AL83" s="3" t="str">
-        <f>IF(AL61="","",VLOOKUP(AL61,$A:$D,3,0)&amp;","&amp;AM61)</f>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="AO83" s="3" t="str">
-        <f>IF(AO61="","",VLOOKUP(AO61,$A:$D,3,0)&amp;","&amp;AP61)</f>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="AR83" s="3" t="str">
-        <f>IF(AR61="","",VLOOKUP(AR61,$A:$D,3,0)&amp;","&amp;AS61)</f>
+        <f t="shared" si="64"/>
         <v/>
       </c>
     </row>
@@ -18348,42 +18420,42 @@
         <v>20</v>
       </c>
       <c r="E84" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>20</v>
       </c>
       <c r="V84" s="3">
         <v>5</v>
       </c>
       <c r="W84" s="3" t="str">
-        <f>IF(W62="","",VLOOKUP(W62,$A:$D,3,0)&amp;","&amp;X62)</f>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="Z84" s="3" t="str">
-        <f>IF(Z62="","",VLOOKUP(Z62,$A:$D,3,0)&amp;","&amp;AA62)</f>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AC84" s="3" t="str">
-        <f>IF(AC62="","",VLOOKUP(AC62,$A:$D,3,0)&amp;","&amp;AD62)</f>
+        <f t="shared" si="59"/>
         <v>cash,100</v>
       </c>
       <c r="AF84" s="3" t="str">
-        <f>IF(AF62="","",VLOOKUP(AF62,$A:$D,3,0)&amp;","&amp;AG62)</f>
+        <f t="shared" si="60"/>
         <v>cash,100</v>
       </c>
       <c r="AI84" s="3" t="str">
-        <f>IF(AI62="","",VLOOKUP(AI62,$A:$D,3,0)&amp;","&amp;AJ62)</f>
+        <f t="shared" si="61"/>
         <v>cash,100</v>
       </c>
       <c r="AL84" s="3" t="str">
-        <f>IF(AL62="","",VLOOKUP(AL62,$A:$D,3,0)&amp;","&amp;AM62)</f>
+        <f t="shared" si="62"/>
         <v>cash,100</v>
       </c>
       <c r="AO84" s="3" t="str">
-        <f>IF(AO62="","",VLOOKUP(AO62,$A:$D,3,0)&amp;","&amp;AP62)</f>
+        <f t="shared" si="63"/>
         <v>cash,100</v>
       </c>
       <c r="AR84" s="3" t="str">
-        <f>IF(AR62="","",VLOOKUP(AR62,$A:$D,3,0)&amp;","&amp;AS62)</f>
+        <f t="shared" si="64"/>
         <v>cash,100</v>
       </c>
     </row>
@@ -18405,42 +18477,42 @@
         <v>10</v>
       </c>
       <c r="E85" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>10</v>
       </c>
       <c r="V85" s="3">
         <v>6</v>
       </c>
       <c r="W85" s="3" t="str">
-        <f>IF(W63="","",VLOOKUP(W63,$A:$D,3,0)&amp;","&amp;X63)</f>
+        <f t="shared" si="57"/>
         <v>cash,100</v>
       </c>
       <c r="Z85" s="3" t="str">
-        <f>IF(Z63="","",VLOOKUP(Z63,$A:$D,3,0)&amp;","&amp;AA63)</f>
+        <f t="shared" si="58"/>
         <v>cash,100</v>
       </c>
       <c r="AC85" s="3" t="str">
-        <f>IF(AC63="","",VLOOKUP(AC63,$A:$D,3,0)&amp;","&amp;AD63)</f>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AF85" s="3" t="str">
-        <f>IF(AF63="","",VLOOKUP(AF63,$A:$D,3,0)&amp;","&amp;AG63)</f>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="AI85" s="3" t="str">
-        <f>IF(AI63="","",VLOOKUP(AI63,$A:$D,3,0)&amp;","&amp;AJ63)</f>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="AL85" s="3" t="str">
-        <f>IF(AL63="","",VLOOKUP(AL63,$A:$D,3,0)&amp;","&amp;AM63)</f>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="AO85" s="3" t="str">
-        <f>IF(AO63="","",VLOOKUP(AO63,$A:$D,3,0)&amp;","&amp;AP63)</f>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="AR85" s="3" t="str">
-        <f>IF(AR63="","",VLOOKUP(AR63,$A:$D,3,0)&amp;","&amp;AS63)</f>
+        <f t="shared" si="64"/>
         <v/>
       </c>
     </row>
@@ -18462,42 +18534,42 @@
         <v>20</v>
       </c>
       <c r="E86" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>20</v>
       </c>
       <c r="V86" s="3">
         <v>7</v>
       </c>
       <c r="W86" s="3" t="str">
-        <f>IF(W64="","",VLOOKUP(W64,$A:$D,3,0)&amp;","&amp;X64)</f>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="Z86" s="3" t="str">
-        <f>IF(Z64="","",VLOOKUP(Z64,$A:$D,3,0)&amp;","&amp;AA64)</f>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AC86" s="3" t="str">
-        <f>IF(AC64="","",VLOOKUP(AC64,$A:$D,3,0)&amp;","&amp;AD64)</f>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AF86" s="3" t="str">
-        <f>IF(AF64="","",VLOOKUP(AF64,$A:$D,3,0)&amp;","&amp;AG64)</f>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="AI86" s="3" t="str">
-        <f>IF(AI64="","",VLOOKUP(AI64,$A:$D,3,0)&amp;","&amp;AJ64)</f>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="AL86" s="3" t="str">
-        <f>IF(AL64="","",VLOOKUP(AL64,$A:$D,3,0)&amp;","&amp;AM64)</f>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="AO86" s="3" t="str">
-        <f>IF(AO64="","",VLOOKUP(AO64,$A:$D,3,0)&amp;","&amp;AP64)</f>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="AR86" s="3" t="str">
-        <f>IF(AR64="","",VLOOKUP(AR64,$A:$D,3,0)&amp;","&amp;AS64)</f>
+        <f t="shared" si="64"/>
         <v/>
       </c>
     </row>
@@ -18519,42 +18591,42 @@
         <v>20</v>
       </c>
       <c r="E87" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>20</v>
       </c>
       <c r="V87" s="3">
         <v>8</v>
       </c>
       <c r="W87" s="3" t="str">
-        <f>IF(W65="","",VLOOKUP(W65,$A:$D,3,0)&amp;","&amp;X65)</f>
+        <f t="shared" si="57"/>
         <v>prop,801,10</v>
       </c>
       <c r="Z87" s="3" t="str">
-        <f>IF(Z65="","",VLOOKUP(Z65,$A:$D,3,0)&amp;","&amp;AA65)</f>
+        <f t="shared" si="58"/>
         <v>prop,802,2</v>
       </c>
       <c r="AC87" s="3" t="str">
-        <f>IF(AC65="","",VLOOKUP(AC65,$A:$D,3,0)&amp;","&amp;AD65)</f>
+        <f t="shared" si="59"/>
         <v>prop,804,10</v>
       </c>
       <c r="AF87" s="3" t="str">
-        <f>IF(AF65="","",VLOOKUP(AF65,$A:$D,3,0)&amp;","&amp;AG65)</f>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="AI87" s="3" t="str">
-        <f>IF(AI65="","",VLOOKUP(AI65,$A:$D,3,0)&amp;","&amp;AJ65)</f>
+        <f t="shared" si="61"/>
         <v>prop,704,10</v>
       </c>
       <c r="AL87" s="3" t="str">
-        <f>IF(AL65="","",VLOOKUP(AL65,$A:$D,3,0)&amp;","&amp;AM65)</f>
+        <f t="shared" si="62"/>
         <v>prop,704,10</v>
       </c>
       <c r="AO87" s="3" t="str">
-        <f>IF(AO65="","",VLOOKUP(AO65,$A:$D,3,0)&amp;","&amp;AP65)</f>
+        <f t="shared" si="63"/>
         <v>prop,802,2</v>
       </c>
       <c r="AR87" s="3" t="str">
-        <f>IF(AR65="","",VLOOKUP(AR65,$A:$D,3,0)&amp;","&amp;AS65)</f>
+        <f t="shared" si="64"/>
         <v/>
       </c>
     </row>
@@ -18576,42 +18648,42 @@
         <v>20</v>
       </c>
       <c r="E88" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>20</v>
       </c>
       <c r="V88" s="3">
         <v>9</v>
       </c>
       <c r="W88" s="3" t="str">
-        <f>IF(W66="","",VLOOKUP(W66,$A:$D,3,0)&amp;","&amp;X66)</f>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="Z88" s="3" t="str">
-        <f>IF(Z66="","",VLOOKUP(Z66,$A:$D,3,0)&amp;","&amp;AA66)</f>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AC88" s="3" t="str">
-        <f>IF(AC66="","",VLOOKUP(AC66,$A:$D,3,0)&amp;","&amp;AD66)</f>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AF88" s="3" t="str">
-        <f>IF(AF66="","",VLOOKUP(AF66,$A:$D,3,0)&amp;","&amp;AG66)</f>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="AI88" s="3" t="str">
-        <f>IF(AI66="","",VLOOKUP(AI66,$A:$D,3,0)&amp;","&amp;AJ66)</f>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="AL88" s="3" t="str">
-        <f>IF(AL66="","",VLOOKUP(AL66,$A:$D,3,0)&amp;","&amp;AM66)</f>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="AO88" s="3" t="str">
-        <f>IF(AO66="","",VLOOKUP(AO66,$A:$D,3,0)&amp;","&amp;AP66)</f>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="AR88" s="3" t="str">
-        <f>IF(AR66="","",VLOOKUP(AR66,$A:$D,3,0)&amp;","&amp;AS66)</f>
+        <f t="shared" si="64"/>
         <v/>
       </c>
     </row>
@@ -18633,42 +18705,42 @@
         <v>100</v>
       </c>
       <c r="E89" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>100</v>
       </c>
       <c r="V89" s="3">
         <v>10</v>
       </c>
       <c r="W89" s="3" t="str">
-        <f>IF(W67="","",VLOOKUP(W67,$A:$D,3,0)&amp;","&amp;X67)</f>
+        <f t="shared" si="57"/>
         <v>item,104,1</v>
       </c>
       <c r="Z89" s="3" t="str">
-        <f>IF(Z67="","",VLOOKUP(Z67,$A:$D,3,0)&amp;","&amp;AA67)</f>
+        <f t="shared" si="58"/>
         <v>prop,702,1</v>
       </c>
       <c r="AC89" s="3" t="str">
-        <f>IF(AC67="","",VLOOKUP(AC67,$A:$D,3,0)&amp;","&amp;AD67)</f>
+        <f t="shared" si="59"/>
         <v>prop,809,1</v>
       </c>
       <c r="AF89" s="3" t="str">
-        <f>IF(AF67="","",VLOOKUP(AF67,$A:$D,3,0)&amp;","&amp;AG67)</f>
+        <f t="shared" si="60"/>
         <v>prop,705,1</v>
       </c>
       <c r="AI89" s="3" t="str">
-        <f>IF(AI67="","",VLOOKUP(AI67,$A:$D,3,0)&amp;","&amp;AJ67)</f>
+        <f t="shared" si="61"/>
         <v>prop,702,1</v>
       </c>
       <c r="AL89" s="3" t="str">
-        <f>IF(AL67="","",VLOOKUP(AL67,$A:$D,3,0)&amp;","&amp;AM67)</f>
+        <f t="shared" si="62"/>
         <v>item,104,1</v>
       </c>
       <c r="AO89" s="3" t="str">
-        <f>IF(AO67="","",VLOOKUP(AO67,$A:$D,3,0)&amp;","&amp;AP67)</f>
-        <v>prop,809,1</v>
+        <f t="shared" si="63"/>
+        <v>prop,106,2</v>
       </c>
       <c r="AR89" s="3" t="str">
-        <f>IF(AR67="","",VLOOKUP(AR67,$A:$D,3,0)&amp;","&amp;AS67)</f>
+        <f t="shared" si="64"/>
         <v>frame,3,1</v>
       </c>
     </row>
@@ -18690,7 +18762,7 @@
         <v>10</v>
       </c>
       <c r="E90" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>10</v>
       </c>
     </row>
@@ -18712,7 +18784,7 @@
         <v>10</v>
       </c>
       <c r="E91" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>10</v>
       </c>
     </row>
@@ -18734,7 +18806,7 @@
         <v>10</v>
       </c>
       <c r="E92" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>10</v>
       </c>
     </row>
@@ -18756,7 +18828,7 @@
         <v>10</v>
       </c>
       <c r="E93" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>10</v>
       </c>
     </row>
@@ -18778,7 +18850,7 @@
         <v>20</v>
       </c>
       <c r="E94" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>20</v>
       </c>
     </row>
@@ -18800,7 +18872,7 @@
         <v>20</v>
       </c>
       <c r="E95" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>20</v>
       </c>
     </row>
@@ -18822,7 +18894,7 @@
         <v>20</v>
       </c>
       <c r="E96" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>20</v>
       </c>
     </row>
@@ -18844,7 +18916,7 @@
         <v>20</v>
       </c>
       <c r="E97" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>20</v>
       </c>
     </row>
@@ -18866,7 +18938,7 @@
         <v>20</v>
       </c>
       <c r="E98" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>20</v>
       </c>
     </row>
@@ -18888,7 +18960,7 @@
         <v>20</v>
       </c>
       <c r="E99" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>20</v>
       </c>
     </row>
@@ -18910,7 +18982,7 @@
         <v>20</v>
       </c>
       <c r="E100" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>20</v>
       </c>
     </row>
@@ -18932,7 +19004,7 @@
         <v>20</v>
       </c>
       <c r="E101" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>20</v>
       </c>
     </row>
@@ -18954,7 +19026,7 @@
         <v>20</v>
       </c>
       <c r="E102" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>20</v>
       </c>
     </row>
@@ -18976,7 +19048,7 @@
         <v>100</v>
       </c>
       <c r="E103" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>100</v>
       </c>
     </row>
@@ -18998,7 +19070,7 @@
         <v>10</v>
       </c>
       <c r="E104" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>10</v>
       </c>
     </row>
@@ -19020,7 +19092,7 @@
         <v>10</v>
       </c>
       <c r="E105" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>10</v>
       </c>
     </row>
@@ -19042,7 +19114,7 @@
         <v>20</v>
       </c>
       <c r="E106" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>20</v>
       </c>
     </row>
@@ -19064,7 +19136,7 @@
         <v>20</v>
       </c>
       <c r="E107" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>20</v>
       </c>
     </row>
@@ -19086,7 +19158,7 @@
         <v>20</v>
       </c>
       <c r="E108" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>20</v>
       </c>
     </row>
@@ -19108,7 +19180,7 @@
         <v>20</v>
       </c>
       <c r="E109" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>20</v>
       </c>
     </row>
@@ -19130,7 +19202,7 @@
         <v>20</v>
       </c>
       <c r="E110" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>20</v>
       </c>
     </row>
@@ -19174,7 +19246,7 @@
         <v>20</v>
       </c>
       <c r="E112" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>20</v>
       </c>
     </row>
@@ -19196,7 +19268,7 @@
         <v>100</v>
       </c>
       <c r="E113" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>100</v>
       </c>
     </row>
@@ -19218,7 +19290,7 @@
         <v>100</v>
       </c>
       <c r="E114" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>100</v>
       </c>
     </row>
@@ -19240,7 +19312,7 @@
         <v>100</v>
       </c>
       <c r="E115" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>100</v>
       </c>
     </row>
@@ -19262,7 +19334,7 @@
         <v>20</v>
       </c>
       <c r="E116" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>20</v>
       </c>
     </row>
@@ -19284,7 +19356,7 @@
         <v>100</v>
       </c>
       <c r="E117" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>100</v>
       </c>
     </row>
@@ -19306,7 +19378,7 @@
         <v>100</v>
       </c>
       <c r="E118" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>100</v>
       </c>
     </row>
@@ -19328,7 +19400,7 @@
         <v>100</v>
       </c>
       <c r="E119" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>100</v>
       </c>
     </row>
@@ -19350,7 +19422,7 @@
         <v>100</v>
       </c>
       <c r="E120" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>100</v>
       </c>
     </row>
@@ -19372,7 +19444,7 @@
         <v>20</v>
       </c>
       <c r="E121" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>20</v>
       </c>
     </row>
@@ -19394,7 +19466,7 @@
         <v>10</v>
       </c>
       <c r="E122" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>10</v>
       </c>
     </row>
@@ -19416,7 +19488,7 @@
         <v>10</v>
       </c>
       <c r="E123" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>10</v>
       </c>
     </row>
@@ -19438,7 +19510,7 @@
         <v>20</v>
       </c>
       <c r="E124" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>20</v>
       </c>
     </row>
@@ -19460,7 +19532,7 @@
         <v>20</v>
       </c>
       <c r="E125" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>20</v>
       </c>
     </row>
@@ -19482,7 +19554,7 @@
         <v>10</v>
       </c>
       <c r="E126" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>10</v>
       </c>
     </row>
@@ -19504,7 +19576,7 @@
         <v>10</v>
       </c>
       <c r="E127" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>10</v>
       </c>
     </row>
@@ -19526,7 +19598,7 @@
         <v>10</v>
       </c>
       <c r="E128" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>10</v>
       </c>
     </row>
@@ -19548,7 +19620,7 @@
         <v>10</v>
       </c>
       <c r="E129" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>10</v>
       </c>
     </row>
@@ -19570,7 +19642,7 @@
         <v>10</v>
       </c>
       <c r="E130" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>10</v>
       </c>
     </row>
@@ -19592,7 +19664,7 @@
         <v>10</v>
       </c>
       <c r="E131" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>10</v>
       </c>
     </row>
@@ -19614,7 +19686,7 @@
         <v>10</v>
       </c>
       <c r="E132" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>10</v>
       </c>
     </row>
@@ -19636,7 +19708,7 @@
         <v>10</v>
       </c>
       <c r="E133" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>10</v>
       </c>
     </row>
@@ -19658,7 +19730,7 @@
         <v>800</v>
       </c>
       <c r="E134" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>800</v>
       </c>
     </row>
@@ -19702,7 +19774,7 @@
         <v>0</v>
       </c>
       <c r="E136" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
     </row>
@@ -19724,7 +19796,7 @@
         <v>0</v>
       </c>
       <c r="E137" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
     </row>
@@ -19746,7 +19818,7 @@
         <v>0</v>
       </c>
       <c r="E138" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
     </row>
@@ -19768,7 +19840,7 @@
         <v>0</v>
       </c>
       <c r="E139" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
     </row>
@@ -19790,7 +19862,7 @@
         <v>0</v>
       </c>
       <c r="E140" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
     </row>
@@ -19812,7 +19884,7 @@
         <v>0</v>
       </c>
       <c r="E141" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
     </row>
@@ -19834,7 +19906,7 @@
         <v>0</v>
       </c>
       <c r="E142" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
     </row>
@@ -19856,7 +19928,7 @@
         <v>0</v>
       </c>
       <c r="E143" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
     </row>
@@ -19878,7 +19950,7 @@
         <v>0</v>
       </c>
       <c r="E144" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
     </row>
@@ -19900,7 +19972,7 @@
         <v>0</v>
       </c>
       <c r="E145" s="3">
-        <f t="shared" ref="E145:E154" si="8">D145</f>
+        <f t="shared" ref="E145:E154" si="66">D145</f>
         <v>0</v>
       </c>
     </row>
@@ -19922,7 +19994,7 @@
         <v>0</v>
       </c>
       <c r="E146" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
     </row>
@@ -19944,7 +20016,7 @@
         <v>0</v>
       </c>
       <c r="E147" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
     </row>
@@ -19966,7 +20038,7 @@
         <v>0</v>
       </c>
       <c r="E148" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
     </row>
@@ -19988,7 +20060,7 @@
         <v>0</v>
       </c>
       <c r="E149" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
     </row>
@@ -20010,7 +20082,7 @@
         <v>0</v>
       </c>
       <c r="E150" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
     </row>
@@ -20032,7 +20104,7 @@
         <v>0</v>
       </c>
       <c r="E151" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
     </row>
@@ -20054,7 +20126,7 @@
         <v>0</v>
       </c>
       <c r="E152" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
     </row>
@@ -20076,7 +20148,7 @@
         <v>0</v>
       </c>
       <c r="E153" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
     </row>
@@ -20098,7 +20170,7 @@
         <v>0</v>
       </c>
       <c r="E154" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
     </row>
@@ -20142,7 +20214,7 @@
         <v>0</v>
       </c>
       <c r="E156" s="3">
-        <f t="shared" ref="E156:E157" si="9">D156</f>
+        <f t="shared" ref="E156:E157" si="67">D156</f>
         <v>0</v>
       </c>
     </row>
@@ -20164,7 +20236,7 @@
         <v>0</v>
       </c>
       <c r="E157" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
     </row>
@@ -20538,7 +20610,7 @@
         <v>15</v>
       </c>
       <c r="E174" s="3">
-        <f t="shared" ref="E174:E188" si="10">D174</f>
+        <f t="shared" ref="E174:E188" si="68">D174</f>
         <v>15</v>
       </c>
     </row>
@@ -20560,7 +20632,7 @@
         <v>15</v>
       </c>
       <c r="E175" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="68"/>
         <v>15</v>
       </c>
     </row>
@@ -20582,7 +20654,7 @@
         <v>15</v>
       </c>
       <c r="E176" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="68"/>
         <v>15</v>
       </c>
     </row>
@@ -20604,7 +20676,7 @@
         <v>40</v>
       </c>
       <c r="E177" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="68"/>
         <v>40</v>
       </c>
     </row>
@@ -20626,7 +20698,7 @@
         <v>40</v>
       </c>
       <c r="E178" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="68"/>
         <v>40</v>
       </c>
     </row>
@@ -20648,7 +20720,7 @@
         <v>40</v>
       </c>
       <c r="E179" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="68"/>
         <v>40</v>
       </c>
     </row>
@@ -20670,7 +20742,7 @@
         <v>40</v>
       </c>
       <c r="E180" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="68"/>
         <v>40</v>
       </c>
     </row>
@@ -20692,7 +20764,7 @@
         <v>40</v>
       </c>
       <c r="E181" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="68"/>
         <v>40</v>
       </c>
     </row>
@@ -20714,7 +20786,7 @@
         <v>40</v>
       </c>
       <c r="E182" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="68"/>
         <v>40</v>
       </c>
     </row>
@@ -20736,7 +20808,7 @@
         <v>200</v>
       </c>
       <c r="E183" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="68"/>
         <v>200</v>
       </c>
     </row>
@@ -20758,7 +20830,7 @@
         <v>200</v>
       </c>
       <c r="E184" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="68"/>
         <v>200</v>
       </c>
     </row>
@@ -20780,7 +20852,7 @@
         <v>200</v>
       </c>
       <c r="E185" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="68"/>
         <v>200</v>
       </c>
     </row>
@@ -20802,7 +20874,7 @@
         <v>200</v>
       </c>
       <c r="E186" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="68"/>
         <v>200</v>
       </c>
     </row>
@@ -20824,7 +20896,7 @@
         <v>200</v>
       </c>
       <c r="E187" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="68"/>
         <v>200</v>
       </c>
     </row>
@@ -20846,7 +20918,7 @@
         <v>200</v>
       </c>
       <c r="E188" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="68"/>
         <v>200</v>
       </c>
     </row>
@@ -20869,7 +20941,7 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>126</v>

--- a/OPM经济数值/赛季通行证.xlsx
+++ b/OPM经济数值/赛季通行证.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuhaihua\Desktop\OPM数值\OPM经济数值\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E889319A-C41C-4509-9105-048110BB7145}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A4AE36-A866-401C-B432-977F59129C40}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="高阶任务" sheetId="1" r:id="rId1"/>
@@ -1266,6 +1266,11 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>代币</v>
+          </cell>
+        </row>
         <row r="2">
           <cell r="B2" t="str">
             <v>经验</v>
@@ -3692,7 +3697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:H38"/>
     </sheetView>
   </sheetViews>
@@ -9291,7 +9296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AW192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>

--- a/OPM经济数值/赛季通行证.xlsx
+++ b/OPM经济数值/赛季通行证.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuhaihua\Desktop\OPM数值\OPM经济数值\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A4AE36-A866-401C-B432-977F59129C40}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B8A056-7753-4C3F-B19C-4F16FDDC1579}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="高阶任务" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
   <definedNames>
     <definedName name="点每难度">高阶任务!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -1012,7 +1012,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1123,6 +1123,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1152,7 +1160,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1230,6 +1238,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3697,7 +3706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:H38"/>
     </sheetView>
   </sheetViews>
@@ -9296,8 +9305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AW192"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="R37" workbookViewId="0">
+      <selection activeCell="AK59" sqref="AK59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75"/>
@@ -10433,7 +10442,7 @@
         <f>SUM(AT4:AT8)</f>
         <v>670</v>
       </c>
-      <c r="AU9" s="3">
+      <c r="AU9" s="35">
         <f>SUM(W9:AT9)</f>
         <v>5320</v>
       </c>
@@ -14873,7 +14882,7 @@
         <v>prop,105,1</v>
       </c>
     </row>
-    <row r="49" spans="1:46">
+    <row r="49" spans="1:48">
       <c r="A49" s="4" t="str">
         <f>[1]物品定价!$B48</f>
         <v>机械力认证</v>
@@ -14978,7 +14987,7 @@
         <v>stage_token,500</v>
       </c>
     </row>
-    <row r="50" spans="1:46">
+    <row r="50" spans="1:48">
       <c r="A50" s="4" t="str">
         <f>[1]物品定价!$B49</f>
         <v>高等格斗力认证</v>
@@ -15083,7 +15092,7 @@
         <v>item,103,1</v>
       </c>
     </row>
-    <row r="51" spans="1:46">
+    <row r="51" spans="1:48">
       <c r="A51" s="4" t="str">
         <f>[1]物品定价!$B50</f>
         <v>高等武装力认证</v>
@@ -15188,7 +15197,7 @@
         <v>prop,105,1</v>
       </c>
     </row>
-    <row r="52" spans="1:46">
+    <row r="52" spans="1:48">
       <c r="A52" s="4" t="str">
         <f>[1]物品定价!$B51</f>
         <v>高等超能力认证</v>
@@ -15293,7 +15302,7 @@
         <v>stam,12</v>
       </c>
     </row>
-    <row r="53" spans="1:46">
+    <row r="53" spans="1:48">
       <c r="A53" s="4" t="str">
         <f>[1]物品定价!$B52</f>
         <v>高等机械力认证</v>
@@ -15398,7 +15407,7 @@
         <v>coin,5000</v>
       </c>
     </row>
-    <row r="54" spans="1:46">
+    <row r="54" spans="1:48">
       <c r="A54" s="4" t="str">
         <f>[1]物品定价!$B53</f>
         <v>元气牛肉</v>
@@ -15503,7 +15512,7 @@
         <v>item,103,1</v>
       </c>
     </row>
-    <row r="55" spans="1:46">
+    <row r="55" spans="1:48">
       <c r="A55" s="4" t="str">
         <f>[1]物品定价!$B54</f>
         <v>“Super-X”</v>
@@ -15608,7 +15617,7 @@
         <v>prop,540,10</v>
       </c>
     </row>
-    <row r="56" spans="1:46">
+    <row r="56" spans="1:48">
       <c r="A56" s="4" t="str">
         <f>[1]物品定价!$B55</f>
         <v>肌力药剂</v>
@@ -15677,8 +15686,12 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:46">
+      <c r="AV56" s="35">
+        <f>19.99*60</f>
+        <v>1199.3999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:48">
       <c r="A57" s="4" t="str">
         <f>[1]物品定价!$B56</f>
         <v>训练拳套</v>
@@ -15775,7 +15788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:46">
+    <row r="58" spans="1:48">
       <c r="A58" s="4" t="str">
         <f>[1]物品定价!$B57</f>
         <v>训练刀具</v>
@@ -15848,7 +15861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:46">
+    <row r="59" spans="1:48">
       <c r="A59" s="4" t="str">
         <f>[1]物品定价!$B58</f>
         <v>训练枪械</v>
@@ -15940,8 +15953,12 @@
         <f>INT(VLOOKUP(Z59,$A:$E,5,0)*AA59)</f>
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="1:46">
+      <c r="AV59" s="3">
+        <f>AV68/AV56</f>
+        <v>14.659829914957481</v>
+      </c>
+    </row>
+    <row r="60" spans="1:48">
       <c r="A60" s="4" t="str">
         <f>[1]物品定价!$B59</f>
         <v>超能勺子</v>
@@ -16054,7 +16071,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="61" spans="1:46">
+    <row r="61" spans="1:48">
       <c r="A61" s="4" t="str">
         <f>[1]物品定价!$B60</f>
         <v>超能飞石</v>
@@ -16147,7 +16164,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:46">
+    <row r="62" spans="1:48">
       <c r="A62" s="4" t="str">
         <f>[1]物品定价!$B61</f>
         <v>超能量球</v>
@@ -16280,7 +16297,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:46">
+    <row r="63" spans="1:48">
       <c r="A63" s="4" t="str">
         <f>[1]物品定价!$B62</f>
         <v>机械配件</v>
@@ -16373,7 +16390,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:46">
+    <row r="64" spans="1:48">
       <c r="A64" s="4" t="str">
         <f>[1]物品定价!$B63</f>
         <v>机械引擎</v>
@@ -16910,7 +16927,7 @@
         <f>SUM(W68:AT68)</f>
         <v>7135</v>
       </c>
-      <c r="AV68" s="3">
+      <c r="AV68" s="35">
         <f>AU68+AU34</f>
         <v>17583</v>
       </c>
